--- a/patterns/source-office-laptop/master_pattern_v8.xlsx
+++ b/patterns/source-office-laptop/master_pattern_v8.xlsx
@@ -8,19 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2.work\0.rakeshkosambia-ge\required\patterns\source-office-laptop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{03124665-CBA1-40C2-83C7-4AA311095835}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6707EA7C-A7AC-4871-9526-6E17DCC351E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{53837334-C996-423B-8332-07D6656D8A05}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{1588B76A-9818-42C0-956A-1289730CAB4D}"/>
   </bookViews>
   <sheets>
-    <sheet name="master_pattern_v8" sheetId="1" r:id="rId1"/>
+    <sheet name="pivot" sheetId="2" r:id="rId1"/>
+    <sheet name="master_pattern_v8" sheetId="1" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">master_pattern_v8!$A$1:$AC$151</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
+  <pivotCaches>
+    <pivotCache cacheId="7" r:id="rId3"/>
+  </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3626" uniqueCount="831">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3658" uniqueCount="835">
   <si>
     <t>PATTERNID</t>
   </si>
@@ -2513,6 +2520,18 @@
   </si>
   <si>
     <t>(?ms)(?:^\s*import\s+(?:static\s+)?(?:org\.apache\.xmlbeans|org\.apache\.xmlbeans\.impl|org\.apache\.xmlbeans\.impl\.xb|org\.apache\.xmlbeans\.impl\.store|org\.apache\.xmlbeans\.impl\.values|org\.apache\.xmlbeans\.impl\.jam|org\.apache\.xmlbeans\.impl\.common|org\.apache\.xmlbeans\.impl\.schema|org\.apache\.xmlbeans\.impl\.piccolo|org\.apache\.xmlbeans\.impl\.tool)(?:\.[\w$]+|\.\*)\s*;)|(?:&lt;%@\s*page\b[^%]*\bimport\s*=\s*\"[^\"]*\b(?:org\.apache\.xmlbeans|org\.apache\.xmlbeans\.impl|org\.apache\.xmlbeans\.impl\.xb|org\.apache\.xmlbeans\.impl\.store|org\.apache\.xmlbeans\.impl\.values|org\.apache\.xmlbeans\.impl\.jam|org\.apache\.xmlbeans\.impl\.common|org\.apache\.xmlbeans\.impl\.schema|org\.apache\.xmlbeans\.impl\.piccolo|org\.apache\.xmlbeans\.impl\.tool)\.)|(?:\b(?:org\.apache\.xmlbeans|org\.apache\.xmlbeans\.impl|org\.apache\.xmlbeans\.impl\.xb|org\.apache\.xmlbeans\.impl\.store|org\.apache\.xmlbeans\.impl\.values|org\.apache\.xmlbeans\.impl\.jam|org\.apache\.xmlbeans\.impl\.common|org\.apache\.xmlbeans\.impl\.schema|org\.apache\.xmlbeans\.impl\.piccolo|org\.apache\.xmlbeans\.impl\.tool)\.[A-Za-z_$][\w$]*\b)</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Column Labels</t>
+  </si>
+  <si>
+    <t>Count of PATTERNID</t>
   </si>
 </sst>
 </file>
@@ -2996,8 +3015,25 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3043,7 +3079,35 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="9">
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="top"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="top"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="top"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -3054,6 +3118,5321 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Rakesh Kosambia" refreshedDate="46070.43911712963" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="150" xr:uid="{41BCE2B0-5DE3-4810-BCDC-DE940AA79C29}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:AC151" sheet="master_pattern_v8"/>
+  </cacheSource>
+  <cacheFields count="29">
+    <cacheField name="PATTERNID" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="4" maxValue="308" count="150">
+        <n v="4"/>
+        <n v="5"/>
+        <n v="11"/>
+        <n v="12"/>
+        <n v="13"/>
+        <n v="15"/>
+        <n v="18"/>
+        <n v="19"/>
+        <n v="20"/>
+        <n v="21"/>
+        <n v="22"/>
+        <n v="23"/>
+        <n v="24"/>
+        <n v="26"/>
+        <n v="30"/>
+        <n v="52"/>
+        <n v="58"/>
+        <n v="114"/>
+        <n v="115"/>
+        <n v="120"/>
+        <n v="131"/>
+        <n v="134"/>
+        <n v="200"/>
+        <n v="202"/>
+        <n v="204"/>
+        <n v="205"/>
+        <n v="207"/>
+        <n v="208"/>
+        <n v="209"/>
+        <n v="210"/>
+        <n v="211"/>
+        <n v="212"/>
+        <n v="213"/>
+        <n v="214"/>
+        <n v="215"/>
+        <n v="216"/>
+        <n v="217"/>
+        <n v="218"/>
+        <n v="220"/>
+        <n v="221"/>
+        <n v="222"/>
+        <n v="223"/>
+        <n v="224"/>
+        <n v="225"/>
+        <n v="228"/>
+        <n v="229"/>
+        <n v="232"/>
+        <n v="234"/>
+        <n v="236"/>
+        <n v="237"/>
+        <n v="239"/>
+        <n v="240"/>
+        <n v="241"/>
+        <n v="242"/>
+        <n v="243"/>
+        <n v="244"/>
+        <n v="245"/>
+        <n v="246"/>
+        <n v="247"/>
+        <n v="248"/>
+        <n v="249"/>
+        <n v="250"/>
+        <n v="251"/>
+        <n v="253"/>
+        <n v="254"/>
+        <n v="257"/>
+        <n v="259"/>
+        <n v="260"/>
+        <n v="261"/>
+        <n v="262"/>
+        <n v="263"/>
+        <n v="264"/>
+        <n v="265"/>
+        <n v="266"/>
+        <n v="267"/>
+        <n v="268"/>
+        <n v="270"/>
+        <n v="271"/>
+        <n v="272"/>
+        <n v="274"/>
+        <n v="275"/>
+        <n v="277"/>
+        <n v="278"/>
+        <n v="281"/>
+        <n v="287"/>
+        <n v="288"/>
+        <n v="289"/>
+        <n v="291"/>
+        <n v="293"/>
+        <n v="294"/>
+        <n v="298"/>
+        <n v="299"/>
+        <n v="300"/>
+        <n v="301"/>
+        <n v="302"/>
+        <n v="303"/>
+        <n v="306"/>
+        <n v="307"/>
+        <n v="308"/>
+        <n v="6"/>
+        <n v="7"/>
+        <n v="8"/>
+        <n v="9"/>
+        <n v="10"/>
+        <n v="14"/>
+        <n v="16"/>
+        <n v="17"/>
+        <n v="25"/>
+        <n v="27"/>
+        <n v="28"/>
+        <n v="29"/>
+        <n v="31"/>
+        <n v="32"/>
+        <n v="113"/>
+        <n v="116"/>
+        <n v="117"/>
+        <n v="121"/>
+        <n v="130"/>
+        <n v="201"/>
+        <n v="203"/>
+        <n v="206"/>
+        <n v="219"/>
+        <n v="226"/>
+        <n v="227"/>
+        <n v="230"/>
+        <n v="231"/>
+        <n v="233"/>
+        <n v="235"/>
+        <n v="238"/>
+        <n v="252"/>
+        <n v="255"/>
+        <n v="256"/>
+        <n v="258"/>
+        <n v="269"/>
+        <n v="273"/>
+        <n v="276"/>
+        <n v="279"/>
+        <n v="280"/>
+        <n v="282"/>
+        <n v="283"/>
+        <n v="284"/>
+        <n v="285"/>
+        <n v="286"/>
+        <n v="290"/>
+        <n v="292"/>
+        <n v="295"/>
+        <n v="296"/>
+        <n v="297"/>
+        <n v="304"/>
+        <n v="305"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="PATTERNSET" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="PATTERNNATURE" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="PATTERNNAME" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="PATTERNDESCRIPTION" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="REGEXPATTERN" numFmtId="0">
+      <sharedItems containsBlank="1" longText="1"/>
+    </cacheField>
+    <cacheField name="PRIORITY" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="CATEGORY" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="FIX" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="REMEDIATION" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="REMEDIATIONDESCRIPTION" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="REMEDIATIONEFFORT" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="MANDAYS" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.1" maxValue="5"/>
+    </cacheField>
+    <cacheField name="SNO_PHASE_BATCH" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="200"/>
+    </cacheField>
+    <cacheField name="TOTAL" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="94847"/>
+    </cacheField>
+    <cacheField name="APPLICATIONNAME" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="TRACK" numFmtId="0">
+      <sharedItems count="3">
+        <s v="a. UAT TRACK (BAU)"/>
+        <s v="b. NEW JDK TRACK"/>
+        <s v="NA"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="PHASE" numFmtId="0">
+      <sharedItems count="3">
+        <s v="PHASE 1"/>
+        <s v="PHASE 2"/>
+        <s v="NA"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="BATCH" numFmtId="0">
+      <sharedItems count="10">
+        <s v="BATCH 3"/>
+        <s v="BATCH 5"/>
+        <s v="BATCH 2"/>
+        <s v="BATCH 4"/>
+        <s v="BATCH 1"/>
+        <s v="BATCH 6"/>
+        <s v="BATCH 9"/>
+        <s v="BATCH 7"/>
+        <s v="BATCH 8"/>
+        <s v="NA"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="APPLICABLE THIRD PARTY NEW JAR" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="JDK-COMPATIBILITYSTATUS-CONCLUDED" numFmtId="0">
+      <sharedItems count="6">
+        <s v="SAFE works BOTH JDK (replace depreciated APIs)"/>
+        <s v="NOT-SAFE works ONLY JDK21 (change to new API and/or new JAR in src)"/>
+        <s v="GE INTERNAL JAR (to discuss with ge team to provide new JAR works on both JDK or only JDK21)"/>
+        <s v="SAFE works BOTH JDK (able to Compile - to verify New/Existing JAR &amp; New/Existing API ?)"/>
+        <s v="SAFE works BOTH JDK (able to Compile - to verify New JAR &amp; API ?)"/>
+        <s v="NA"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="JDK8-COMPATIBLE" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="JDK21-COMPATIBLE" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="JDKCOMPATIBILITYRULEHINT" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="WLS12CCOMPATIBLE" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="WLS14CCOMPATIBLE" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="OPENREWRITE_RECEIPE" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="TESTCASE_UNIT_NO" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="TOTAL2" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="94847"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="150">
+  <r>
+    <x v="0"/>
+    <s v="Set 1"/>
+    <s v="CORE (JAVA-API - Removed)"/>
+    <s v="CORBA"/>
+    <s v="CORBA (REMOVED in JDK 11+)"/>
+    <s v="javax\.rmi\.CORBA|org\.omg\.CORBA"/>
+    <s v="Medium"/>
+    <s v="Removed APIs"/>
+    <s v="Remove CORBA; replace with REST or RMI"/>
+    <s v="Manual-Remove/Replace"/>
+    <s v="Remove legacy tech; redesign to HTTP/REST or RMI."/>
+    <s v="High"/>
+    <n v="4"/>
+    <n v="8"/>
+    <n v="1"/>
+    <s v="1-fpms"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="(blank)"/>
+    <x v="0"/>
+    <s v="to verify runtime - New API ?"/>
+    <s v="to verify runtime - New API ?"/>
+    <s v="Dual-Safe-SecurityUpdate"/>
+    <s v="(blank)"/>
+    <s v="(blank)"/>
+    <s v="P001"/>
+    <s v="UT001"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="Set 1"/>
+    <s v="CORE (JAVA-API - Transaction)"/>
+    <s v="Java Transaction"/>
+    <s v="Java Transaction API (REMOVED in JDK 11+)"/>
+    <s v="javax\.transaction\.(?!xa\.)"/>
+    <s v="Medium"/>
+    <s v="Removed APIs"/>
+    <s v="Use Jakarta Transactions or Spring Transaction Management"/>
+    <s v="Semi-Auto"/>
+    <s v="Move to Jakarta Transactions/Spring Tx; adjust imports/config."/>
+    <s v="Medium"/>
+    <n v="0.5"/>
+    <n v="10"/>
+    <n v="1037"/>
+    <s v="1-fpms"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="(blank)"/>
+    <x v="0"/>
+    <s v="to verify runtime - New API ?"/>
+    <s v="to verify runtime - New API ?"/>
+    <s v="Dual-Semi"/>
+    <s v="(blank)"/>
+    <s v="(blank)"/>
+    <s v="P002"/>
+    <s v="UT002"/>
+    <n v="1037"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="Set 3"/>
+    <s v="CORE (SECURITY - Deprecated)"/>
+    <s v="DES"/>
+    <s v="Deprecated Security &amp; Cryptography"/>
+    <s v="(DES|DESede|ARCFOUR)(?=\s*\))"/>
+    <s v="High"/>
+    <s v="Security"/>
+    <s v="Use AES or modern algorithms: Cipher cipher = Cipher.getInstance(&quot;AES&quot;);"/>
+    <s v="Manual-API-Change"/>
+    <s v="Adopt modern algorithms/protocols and update configs."/>
+    <s v="Medium"/>
+    <n v="1.5"/>
+    <n v="18"/>
+    <n v="224"/>
+    <s v="1-fpms"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="(blank)"/>
+    <x v="0"/>
+    <s v="to verify runtime - New API ?"/>
+    <s v="to verify runtime - New API ?"/>
+    <s v="Dual-Safe-SecurityUpdate"/>
+    <s v="(blank)"/>
+    <s v="(blank)"/>
+    <s v="P003"/>
+    <s v="UT003"/>
+    <n v="224"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="Set 3"/>
+    <s v="CORE (SECURITY - Deprecated)"/>
+    <s v="RC4"/>
+    <s v="Deprecated Security &amp; Cryptography"/>
+    <s v="(RC2|RC4)(?=\s*\))"/>
+    <s v="High"/>
+    <s v="Security"/>
+    <s v="Use AES or modern algorithms"/>
+    <s v="Manual-API-Change"/>
+    <s v="Adopt modern algorithms/protocols and update configs."/>
+    <s v="Medium"/>
+    <n v="1.5"/>
+    <n v="19"/>
+    <n v="13"/>
+    <s v="1-fpms"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="(blank)"/>
+    <x v="0"/>
+    <s v="to verify runtime - New API ?"/>
+    <s v="to verify runtime - New API ?"/>
+    <s v="Dual-Safe-SecurityUpdate"/>
+    <s v="(blank)"/>
+    <s v="(blank)"/>
+    <s v="P004"/>
+    <s v="UT004"/>
+    <n v="13"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <s v="Set 3"/>
+    <s v="CORE (SECURITY - Vulnerability)"/>
+    <s v="MD5"/>
+    <s v="Weak hash algorithms"/>
+    <s v="MessageDigest.*MD5"/>
+    <s v="High"/>
+    <s v="Security"/>
+    <s v="Replace with SHA-256: MessageDigest digest = MessageDigest.getInstance(&quot;SHA-256&quot;);"/>
+    <s v="Manual-API-Change"/>
+    <s v="Adopt modern algorithms/protocols and update configs."/>
+    <s v="Medium"/>
+    <n v="1.5"/>
+    <n v="20"/>
+    <n v="3"/>
+    <s v="1-fpms"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="(blank)"/>
+    <x v="0"/>
+    <s v="to verify runtime - New API ?"/>
+    <s v="to verify runtime - New API ?"/>
+    <s v="Dual-Safe-SecurityUpdate"/>
+    <s v="(blank)"/>
+    <s v="(blank)"/>
+    <s v="P005"/>
+    <s v="UT005"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <s v="Set 4"/>
+    <s v="CORE (LANGUAGE - Deprecated)"/>
+    <s v="Finalize"/>
+    <s v="Finalize methods (DEPRECATED in JDK 9 removal planned)"/>
+    <s v="protected\s+void\s+finalize\s*\(\s*\)"/>
+    <s v="Medium"/>
+    <s v="Deprecated Features"/>
+    <s v="Remove finalize; use AutoCloseable and try-with-resources"/>
+    <s v="Manual-API-Change"/>
+    <s v="Refactor to supported APIs (try-with-resources/concurrency/public access)."/>
+    <s v="Low"/>
+    <n v="0.75"/>
+    <n v="16"/>
+    <n v="526"/>
+    <s v="1-fpms"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="(blank)"/>
+    <x v="0"/>
+    <s v="to verify runtime - New API ?"/>
+    <s v="to verify runtime - New API ?"/>
+    <s v="Dual-Safe-ResourceMgmt"/>
+    <s v="(blank)"/>
+    <s v="(blank)"/>
+    <s v="P006"/>
+    <s v="UT006"/>
+    <n v="526"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <s v="Set 5"/>
+    <s v="CORE (DATE - Legacy)"/>
+    <s v="Old Date"/>
+    <s v="Old Date class usage"/>
+    <s v="new\s+Date\s*\("/>
+    <s v="Medium"/>
+    <s v="Date/Time API"/>
+    <s v="Use java.time.LocalDate: LocalDate date = LocalDate.now();"/>
+    <s v="Semi-Auto"/>
+    <s v="Use java.time and add generics; basic refactor then review."/>
+    <s v="Medium"/>
+    <n v="0.5"/>
+    <n v="5"/>
+    <n v="1001"/>
+    <s v="1-fpms"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="(blank)"/>
+    <x v="0"/>
+    <s v="to verify runtime - New API ?"/>
+    <s v="to verify runtime - New API ?"/>
+    <s v="Dual-Safe-JavaTime"/>
+    <s v="(blank)"/>
+    <s v="(blank)"/>
+    <s v="P007"/>
+    <s v="UT007"/>
+    <n v="1001"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <s v="Set 5"/>
+    <s v="CORE (DATE - Legacy)"/>
+    <s v="SimpleDateFormat"/>
+    <s v="SimpleDateFormat (not thread-safe)"/>
+    <s v="new\s+SimpleDateFormat\s*\("/>
+    <s v="Medium"/>
+    <s v="Date/Time API"/>
+    <s v="Use DateTimeFormatter: DateTimeFormatter formatter = DateTimeFormatter.ofPattern(&quot;yyyy-MM-dd&quot;);"/>
+    <s v="Manual-API-Change"/>
+    <s v="Replace with DateTimeFormatter and thread-safe patterns."/>
+    <s v="Medium"/>
+    <n v="1.5"/>
+    <n v="15"/>
+    <n v="911"/>
+    <s v="1-fpms"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="(blank)"/>
+    <x v="0"/>
+    <s v="to verify runtime - New API ?"/>
+    <s v="to verify runtime - New API ?"/>
+    <s v="Dual-Safe-JavaTime"/>
+    <s v="(blank)"/>
+    <s v="(blank)"/>
+    <s v="P008"/>
+    <s v="UT008"/>
+    <n v="911"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <s v="Set 5"/>
+    <s v="CORE (DATE - Legacy)"/>
+    <s v="Calendar"/>
+    <s v="Calendar usage"/>
+    <s v="Calendar\.getInstance\s*\("/>
+    <s v="Medium"/>
+    <s v="Date/Time API"/>
+    <s v="Use LocalDateTime or ZonedDateTime"/>
+    <s v="Semi-Auto"/>
+    <s v="Use java.time and add generics; basic refactor then review."/>
+    <s v="Medium"/>
+    <n v="0.5"/>
+    <n v="4"/>
+    <n v="168"/>
+    <s v="1-fpms"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="(blank)"/>
+    <x v="0"/>
+    <s v="to verify runtime - New API ?"/>
+    <s v="to verify runtime - New API ?"/>
+    <s v="Dual-Safe-JavaTime"/>
+    <s v="(blank)"/>
+    <s v="(blank)"/>
+    <s v="P009"/>
+    <s v="UT009"/>
+    <n v="168"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <s v="Set 5"/>
+    <s v="CORE (DATE - Legacy)"/>
+    <s v="Timestamp"/>
+    <s v="java.sql.Date/Time/Timestamp"/>
+    <s v="java\.sql\.(Date|Time|Timestamp)"/>
+    <s v="Medium"/>
+    <s v="Date/Time API"/>
+    <s v="Use java.time API"/>
+    <s v="Semi-Auto"/>
+    <s v="Use java.time and add generics; basic refactor then review."/>
+    <s v="Medium"/>
+    <n v="0.5"/>
+    <n v="6"/>
+    <n v="4830"/>
+    <s v="1-fpms"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="(blank)"/>
+    <x v="0"/>
+    <s v="to verify runtime - New API ?"/>
+    <s v="to verify runtime - New API ?"/>
+    <s v="Dual-Safe-JavaTime"/>
+    <s v="(blank)"/>
+    <s v="(blank)"/>
+    <s v="P010"/>
+    <s v="UT010"/>
+    <n v="4830"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <s v="Set 6"/>
+    <s v="CORE (LANGUAGE - Generics)"/>
+    <s v="Raw List"/>
+    <s v="Raw types (pre-generics)"/>
+    <s v="\b(List|Set|Map|Collection|ArrayList|HashMap|HashSet)\b\s+[A-Za-z_]\w*\s*=\s*(?!new\s+\1\s*&lt;)"/>
+    <s v="Low"/>
+    <s v="Generics"/>
+    <s v="Use generics: List&lt;String&gt; list = new ArrayList&lt;&gt;();"/>
+    <s v="Semi-Auto"/>
+    <s v="Introduce generics / use diamond operator; compile &amp; fix warnings."/>
+    <s v="Low"/>
+    <n v="0.4"/>
+    <n v="13"/>
+    <n v="25025"/>
+    <s v="1-fpms"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="3"/>
+    <s v="(blank)"/>
+    <x v="0"/>
+    <s v="to verify runtime - New API ?"/>
+    <s v="to verify runtime - New API ?"/>
+    <s v="Dual-Safe-Language"/>
+    <s v="(blank)"/>
+    <s v="(blank)"/>
+    <s v="P011"/>
+    <s v="UT011"/>
+    <n v="25025"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <s v="Set 6"/>
+    <s v="CORE (LANGUAGE - Naming)"/>
+    <s v="Underscore"/>
+    <s v="Underscore as identifier (REMOVED in JDK 9+)"/>
+    <s v="\b_\b(?=\s*(=|;|\)))"/>
+    <s v="Low"/>
+    <s v="Language Changes"/>
+    <s v="Rename variable"/>
+    <s v="Auto-Replace"/>
+    <s v="Rename `_` identifier to a valid name."/>
+    <s v="Low"/>
+    <n v="0.1"/>
+    <n v="2"/>
+    <n v="1"/>
+    <s v="1-fpms"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="4"/>
+    <s v="(blank)"/>
+    <x v="0"/>
+    <s v="to verify runtime - New API ?"/>
+    <s v="to verify runtime - New API ?"/>
+    <s v="Dual-Safe-Language"/>
+    <s v="(blank)"/>
+    <s v="(blank)"/>
+    <s v="P012"/>
+    <s v="UT012"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <s v="Set 6"/>
+    <s v="CORE (LANGUAGE - Generics)"/>
+    <s v="DiamondOperator"/>
+    <s v="Diamond operator missing"/>
+    <s v="new\s+(ArrayList|HashMap|HashSet|LinkedList)&lt;[^&gt;]+&gt;\s*\(\s*\)(?!\s*;)"/>
+    <s v="Low"/>
+    <s v="Generics"/>
+    <s v="Add diamond operator: List&lt;String&gt; list = new ArrayList&lt;&gt;();"/>
+    <s v="Semi-Auto"/>
+    <s v="Introduce generics / use diamond operator; compile &amp; fix warnings."/>
+    <s v="Low"/>
+    <n v="0.4"/>
+    <n v="12"/>
+    <n v="7"/>
+    <s v="1-fpms"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="3"/>
+    <s v="(blank)"/>
+    <x v="0"/>
+    <s v="to verify runtime - New API ?"/>
+    <s v="to verify runtime - New API ?"/>
+    <s v="Dual-Safe-Language"/>
+    <s v="(blank)"/>
+    <s v="(blank)"/>
+    <s v="P013"/>
+    <s v="UT013"/>
+    <n v="7"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <s v="Set 7"/>
+    <s v="CORE (SECURITY - Deprecated)"/>
+    <s v="SecurityManager"/>
+    <s v="Security Manager (DEPRECATED JDK 17 Â removed JDK 21)"/>
+    <s v="System\.(get|set)SecurityManager|new\s+SecurityManager"/>
+    <s v="Critical"/>
+    <s v="Security"/>
+    <s v="Remove SecurityManager; use modern security frameworks"/>
+    <s v="Manual-API-Change"/>
+    <s v="Remove SecurityManager usages; rely on modern security boundaries."/>
+    <s v="High"/>
+    <n v="3"/>
+    <n v="84"/>
+    <n v="1"/>
+    <s v="1-fpms"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="4"/>
+    <s v="(blank)"/>
+    <x v="1"/>
+    <s v="NOT-SAFE"/>
+    <s v="to verify runtime - New API ?"/>
+    <s v="Dual-RemovedFeature"/>
+    <s v="(blank)"/>
+    <s v="(blank)"/>
+    <s v="P014"/>
+    <s v="UT014"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <s v="Set 8"/>
+    <s v="CORE (LANGUAGE - Reflection)"/>
+    <s v="ReflectionPrivate"/>
+    <s v="Reflection on private fields (will fail with modules)"/>
+    <s v="\.setAccessible\s*\(\s*true\s*\)"/>
+    <s v="High"/>
+    <s v="Reflection"/>
+    <s v="Use MethodHandles"/>
+    <s v="Manual-API-Change"/>
+    <s v="Refactor to supported APIs (try-with-resources/concurrency/public access)."/>
+    <s v="Medium"/>
+    <n v="1.5"/>
+    <n v="17"/>
+    <n v="9"/>
+    <s v="1-fpms"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="(blank)"/>
+    <x v="0"/>
+    <s v="to verify runtime - New API ?"/>
+    <s v="to verify runtime - New API ?"/>
+    <s v="Dual-Safe-ResourceMgmt"/>
+    <s v="(blank)"/>
+    <s v="(blank)"/>
+    <s v="P015"/>
+    <s v="UT015"/>
+    <n v="9"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <s v="Set 4"/>
+    <s v="JSP (CODE - Usage)"/>
+    <s v="Scriptlets used"/>
+    <s v="Scriptlets (&lt;% %&gt;) increase risk during migration; prefer taglibs/EL."/>
+    <s v="&lt;%[=!]?[\s\S]*?%&gt;"/>
+    <s v="Low"/>
+    <s v="Code Quality"/>
+    <s v="Refactor scriptlets to JSTL/EL or migrate to Thymeleaf."/>
+    <s v="Manual-API-Change"/>
+    <s v="Refactor scriptlets to taglibs/EL or migrate views (e.g. Thymeleaf)."/>
+    <s v="Medium"/>
+    <n v="1.5"/>
+    <n v="85"/>
+    <n v="94847"/>
+    <s v="1-fpms"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="4"/>
+    <s v="(blank)"/>
+    <x v="1"/>
+    <s v="NOT-SAFE"/>
+    <s v="to verify runtime - New API ?"/>
+    <s v="Dual-NeedsMigration"/>
+    <s v="(blank)"/>
+    <s v="(blank)"/>
+    <s v="P016"/>
+    <s v="UT016"/>
+    <n v="94847"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <s v="Set 2"/>
+    <s v="JSP (CODE - Usage)"/>
+    <s v="JSP internal/sun.* usage"/>
+    <s v="sun.* usage inside JSP should be removed"/>
+    <s v="\bsun\."/>
+    <s v="High"/>
+    <s v="Internal APIs"/>
+    <s v="Use supported JDK APIs (e.g. java.util.Base64)."/>
+    <s v="Auto-Refactor"/>
+    <s v="Replace internal classes with supported JDK APIs."/>
+    <s v="Low"/>
+    <n v="0.25"/>
+    <n v="1"/>
+    <n v="247"/>
+    <s v="1-fpms"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="4"/>
+    <s v="(blank)"/>
+    <x v="0"/>
+    <s v="to verify runtime - New API ?"/>
+    <s v="to verify runtime - New API ?"/>
+    <s v="Dual-Safe-InternalAPI"/>
+    <s v="(blank)"/>
+    <s v="(blank)"/>
+    <s v="P017"/>
+    <s v="UT017"/>
+    <n v="247"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <s v="Set 8"/>
+    <s v="SPRINGBOOT (JAVA-API - Reflection Restriction)"/>
+    <s v="setAccessible(true)"/>
+    <s v="Strong encapsulation breaks deep reflection"/>
+    <s v="\.setAccessible\s*\(\s*true\s*\)"/>
+    <s v="High"/>
+    <s v="Modules/Encapsulation"/>
+    <s v="Use public APIs / MethodHandles / --add-opens (last resort)."/>
+    <s v="Manual-API-Change"/>
+    <s v="Refactor to supported APIs (try-with-resources/concurrency/public access)."/>
+    <s v="Medium"/>
+    <n v="1.5"/>
+    <n v="21"/>
+    <n v="9"/>
+    <s v="1-fpms"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="(blank)"/>
+    <x v="0"/>
+    <s v="to verify runtime - New API ?"/>
+    <s v="to verify runtime - New API ?"/>
+    <s v="Dual-Safe-ResourceMgmt"/>
+    <s v="(blank)"/>
+    <s v="(blank)"/>
+    <s v="P018"/>
+    <s v="UT018"/>
+    <n v="9"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <s v="Set 11"/>
+    <s v="SPRINGBOOT (LOGGING - Legacy)"/>
+    <s v="Log4j 1.x usage"/>
+    <s v="Log4j 1.x is EOL / incompatible."/>
+    <s v="\borg\.apache\.log4j\."/>
+    <s v="High"/>
+    <s v="Logging"/>
+    <s v="Use SLF4J + Logback or Log4j2."/>
+    <s v="Manual-Remove/Replace"/>
+    <s v="Migrate Log4j 1.x to SLF4J + Logback or Log4j2."/>
+    <s v="Medium"/>
+    <n v="2"/>
+    <n v="87"/>
+    <n v="26"/>
+    <s v="1-fpms"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <s v="(blank)"/>
+    <x v="1"/>
+    <s v="NOT-SAFE"/>
+    <s v="to verify runtime - New API ?"/>
+    <s v="Dual-NeedsMigration"/>
+    <s v="(blank)"/>
+    <s v="(blank)"/>
+    <s v="P019"/>
+    <s v="UT019"/>
+    <n v="26"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <s v="Set 1"/>
+    <s v="SPRINGBOOT (JAVA-API - Moved/Removed)"/>
+    <s v="JAXB javax.xml.bind"/>
+    <s v="JAXB removed from JDK 11+."/>
+    <s v="\bjavax\.xml\.bind\."/>
+    <s v="High"/>
+    <s v="Removed APIs"/>
+    <s v="Dual-runtime: KEEP javax.xml.bind.* and add external JAXB (javax.*) dependencies (jaxb-api 2.3.x + jaxb-runtime 2.3.x) for JDK 11+."/>
+    <s v="Dependency-Add"/>
+    <s v="Externalize JAXB to javax.* artifacts; no package rename; run tests on JDK 8 and JDK 21."/>
+    <s v="Medium"/>
+    <n v="0.5"/>
+    <n v="24"/>
+    <n v="179"/>
+    <s v="1-fpms"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="5"/>
+    <s v="(blank)"/>
+    <x v="0"/>
+    <s v="to verify runtime - New API ?"/>
+    <s v="to verify runtime - New API ?"/>
+    <s v="Dual-Safe-JavaEE-Externalize"/>
+    <s v="(blank)"/>
+    <s v="(blank)"/>
+    <s v="P020"/>
+    <s v="UT020"/>
+    <n v="179"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <s v="Set 1"/>
+    <s v="SPRINGBOOT (JAVA-API - Removed)"/>
+    <s v="CORBA packages"/>
+    <s v="CORBA removed."/>
+    <s v="\b(javax\.rmi\.CORBA|org\.omg\.CORBA)\b"/>
+    <s v="Medium"/>
+    <s v="Removed APIs"/>
+    <s v="Remove CORBA."/>
+    <s v="Manual-Remove/Replace"/>
+    <s v="Remove legacy tech; redesign to HTTP/REST or RMI."/>
+    <s v="High"/>
+    <n v="4"/>
+    <n v="9"/>
+    <n v="1"/>
+    <s v="1-fpms"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="(blank)"/>
+    <x v="0"/>
+    <s v="to verify runtime - New API ?"/>
+    <s v="to verify runtime - New API ?"/>
+    <s v="Dual-Safe-SecurityUpdate"/>
+    <s v="(blank)"/>
+    <s v="(blank)"/>
+    <s v="P021"/>
+    <s v="UT021"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <s v="Set 1"/>
+    <s v="SPRINGBOOT (JAVA-API - Moved/Removed)"/>
+    <s v="JAXB annotations in models"/>
+    <s v="Move javax.xml.bind.annotation.* to Jakarta."/>
+    <s v="\bjavax\.xml\.bind\.annotation\."/>
+    <s v="High"/>
+    <s v="Removed APIs"/>
+    <s v="Dual-runtime: KEEP javax.xml.bind.* and add external JAXB (javax.*) dependencies (jaxb-api 2.3.x + jaxb-runtime 2.3.x) for JDK 11+."/>
+    <s v="Dependency-Add"/>
+    <s v="Externalize JAXB to javax.* artifacts; no package rename; run tests on JDK 8 and JDK 21."/>
+    <s v="Medium"/>
+    <n v="0.5"/>
+    <n v="23"/>
+    <n v="160"/>
+    <s v="1-fpms"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="5"/>
+    <s v="(blank)"/>
+    <x v="0"/>
+    <s v="to verify runtime - New API ?"/>
+    <s v="to verify runtime - New API ?"/>
+    <s v="Dual-Safe-JavaEE-Externalize"/>
+    <s v="(blank)"/>
+    <s v="(blank)"/>
+    <s v="P022"/>
+    <s v="UT022"/>
+    <n v="160"/>
+  </r>
+  <r>
+    <x v="22"/>
+    <s v="Set 3 - Third Party"/>
+    <s v="THIRD-PARTY (SSO jar)"/>
+    <s v="aacm.jar"/>
+    <s v="Third-party library present in application lib folder (exploded project)."/>
+    <s v="(?ms)(?:^\s*import\s+(?:static\s+)?(?:org\.bouncycastle|com\.tivoli|com\.tivoli\.pd|org\.apache\.axis|org\.bouncycastle\.jce|org\.bouncycastle\.asn1|org\.bouncycastle\.jce\.provider|org\.apache\.commons|com\.client|org\.bouncycastle\.crypto)(?:\.[\w$]+|\.\*)\s*;)|(?:&lt;%@\s*page\b[^%]*\bimport\s*=\s*\&quot;[^\&quot;]*\b(?:org\.bouncycastle|com\.tivoli|com\.tivoli\.pd|org\.apache\.axis|org\.bouncycastle\.jce|org\.bouncycastle\.asn1|org\.bouncycastle\.jce\.provider|org\.apache\.commons|com\.client|org\.bouncycastle\.crypto)\.)|(?:\b(?:org\.bouncycastle|com\.tivoli|com\.tivoli\.pd|org\.apache\.axis|org\.bouncycastle\.jce|org\.bouncycastle\.asn1|org\.bouncycastle\.jce\.provider|org\.apache\.commons|com\.client|org\.bouncycastle\.crypto)\.[A-Za-z_$][\w$]*\b)"/>
+    <s v="Medium"/>
+    <s v="Third-Party Dependencies"/>
+    <s v="Dual-runtime: manage this dependency in Maven/Gradle and upgrade to a maintained Java-8-baseline release; validate on JDK 8 and JDK 21."/>
+    <s v="Upgrade/Replace"/>
+    <s v="Replace exploded lib with build-managed dependency; choose a release that supports Java 8 and test on JDK 21."/>
+    <s v="Medium"/>
+    <n v="0.5"/>
+    <n v="96"/>
+    <n v="2513"/>
+    <s v="1-fpms"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="(blank)"/>
+    <x v="2"/>
+    <s v="to verify runtime - New JAR &amp; API ?"/>
+    <s v="to verify runtime - ExitingAPI / NewAPI ?"/>
+    <s v="Dual-Review"/>
+    <s v="(blank)"/>
+    <s v="(blank)"/>
+    <s v="P023"/>
+    <s v="UT023"/>
+    <n v="2513"/>
+  </r>
+  <r>
+    <x v="23"/>
+    <s v="Set 3 - Third Party"/>
+    <s v="THIRD-PARTY (CONCURRENCY jar)"/>
+    <s v="backport-util-concurrent.jar"/>
+    <s v="Third-party library present in application lib folder (exploded project)."/>
+    <s v="(?ms)(?:^\s*import\s+(?:static\s+)?(?:edu\.emory\.mathcs\.backport\.java)(?:\.[\w$]+|\.\*)\s*;)|(?:&lt;%@\s*page\b[^%]*\bimport\s*=\s*\&quot;[^\&quot;]*\b(?:edu\.emory\.mathcs\.backport\.java)\.)|(?:\b(?:edu\.emory\.mathcs\.backport\.java)\.[A-Za-z_$][\w$]*\b)"/>
+    <s v="Medium"/>
+    <s v="Third-Party Dependencies"/>
+    <s v="Dual-runtime: manage this dependency in Maven/Gradle and upgrade to a maintained Java-8-baseline release; validate on JDK 8 and JDK 21."/>
+    <s v="Upgrade/Replace"/>
+    <s v="Replace exploded lib with build-managed dependency; choose a release that supports Java 8 and test on JDK 21."/>
+    <s v="Medium"/>
+    <n v="0.5"/>
+    <n v="81"/>
+    <n v="2"/>
+    <s v="1-fpms"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="6"/>
+    <s v="(blank)"/>
+    <x v="3"/>
+    <s v="to verify runtime - New/Existing JAR &amp; New/Existing API ?"/>
+    <s v="to verify runtime - New/Existing JAR &amp; New/Existing API ?"/>
+    <s v="Dual-Review"/>
+    <s v="(blank)"/>
+    <s v="(blank)"/>
+    <s v="P024"/>
+    <s v="UT024"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="24"/>
+    <s v="Set 3 - Third Party"/>
+    <s v="THIRD-PARTY (SECURITY jar)"/>
+    <s v="bcpkix-jdk18on-1.76.jar"/>
+    <s v="Third-party library present in application lib folder (exploded project)."/>
+    <s v="(?ms)(?:^\s*import\s+(?:static\s+)?(?:org\.bouncycastle|org\.bouncycastle\.cms|org\.bouncycastle\.cert|org\.bouncycastle\.operator|org\.bouncycastle\.cms\.jcajce|org\.bouncycastle\.operator\.bc|org\.bouncycastle\.its|org\.bouncycastle\.tsp|org\.bouncycastle\.openssl|org\.bouncycastle\.est)(?:\.[\w$]+|\.\*)\s*;)|(?:&lt;%@\s*page\b[^%]*\bimport\s*=\s*\&quot;[^\&quot;]*\b(?:org\.bouncycastle|org\.bouncycastle\.cms|org\.bouncycastle\.cert|org\.bouncycastle\.operator|org\.bouncycastle\.cms\.jcajce|org\.bouncycastle\.operator\.bc|org\.bouncycastle\.its|org\.bouncycastle\.tsp|org\.bouncycastle\.openssl|org\.bouncycastle\.est)\.)|(?:\b(?:org\.bouncycastle|org\.bouncycastle\.cms|org\.bouncycastle\.cert|org\.bouncycastle\.operator|org\.bouncycastle\.cms\.jcajce|org\.bouncycastle\.operator\.bc|org\.bouncycastle\.its|org\.bouncycastle\.tsp|org\.bouncycastle\.openssl|org\.bouncycastle\.est)\.[A-Za-z_$][\w$]*\b)"/>
+    <s v="Medium"/>
+    <s v="Crypto Providers"/>
+    <s v="Dual-runtime: upgrade crypto providers to Java-8-baseline releases and validate provider configuration on JDK 8 and JDK 21."/>
+    <s v="Upgrade"/>
+    <s v="Upgrade provider jars; validate provider order/FIPS/TLS."/>
+    <s v="Medium"/>
+    <n v="1"/>
+    <n v="42"/>
+    <n v="1"/>
+    <s v="1-fpms"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="6"/>
+    <s v="(blank)"/>
+    <x v="3"/>
+    <s v="to verify runtime - New/Existing JAR &amp; New/Existing API ?"/>
+    <s v="to verify runtime - New/Existing JAR &amp; New/Existing API ?"/>
+    <s v="Dual-Crypto"/>
+    <s v="(blank)"/>
+    <s v="(blank)"/>
+    <s v="P025"/>
+    <s v="UT025"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="25"/>
+    <s v="Set 3 - Third Party"/>
+    <s v="THIRD-PARTY (SECURITY jar)"/>
+    <s v="bcprov-jdk14-143.jar"/>
+    <s v="Third-party library present in application lib folder (exploded project)."/>
+    <s v="(?ms)(?:^\s*import\s+(?:static\s+)?(?:org\.bouncycastle|org\.bouncycastle\.jce|org\.bouncycastle\.asn1|org\.bouncycastle\.jce\.provider|org\.bouncycastle\.crypto|org\.bouncycastle\.asn1\.x509|org\.bouncycastle\.jce\.provider\.symmetric|org\.bouncycastle\.crypto\.params|org\.bouncycastle\.crypto\.engines|org\.bouncycastle\.jce\.provider\.asymmetric)(?:\.[\w$]+|\.\*)\s*;)|(?:&lt;%@\s*page\b[^%]*\bimport\s*=\s*\&quot;[^\&quot;]*\b(?:org\.bouncycastle|org\.bouncycastle\.jce|org\.bouncycastle\.asn1|org\.bouncycastle\.jce\.provider|org\.bouncycastle\.crypto|org\.bouncycastle\.asn1\.x509|org\.bouncycastle\.jce\.provider\.symmetric|org\.bouncycastle\.crypto\.params|org\.bouncycastle\.crypto\.engines|org\.bouncycastle\.jce\.provider\.asymmetric)\.)|(?:\b(?:org\.bouncycastle|org\.bouncycastle\.jce|org\.bouncycastle\.asn1|org\.bouncycastle\.jce\.provider|org\.bouncycastle\.crypto|org\.bouncycastle\.asn1\.x509|org\.bouncycastle\.jce\.provider\.symmetric|org\.bouncycastle\.crypto\.params|org\.bouncycastle\.crypto\.engines|org\.bouncycastle\.jce\.provider\.asymmetric)\.[A-Za-z_$][\w$]*\b)"/>
+    <s v="Medium"/>
+    <s v="Crypto Providers"/>
+    <s v="Dual-runtime: upgrade crypto providers to Java-8-baseline releases and validate provider configuration on JDK 8 and JDK 21."/>
+    <s v="Upgrade"/>
+    <s v="Upgrade provider jars; validate provider order/FIPS/TLS."/>
+    <s v="Medium"/>
+    <n v="1"/>
+    <n v="43"/>
+    <n v="1"/>
+    <s v="1-fpms"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="6"/>
+    <s v="(blank)"/>
+    <x v="3"/>
+    <s v="to verify runtime - New/Existing JAR &amp; New/Existing API ?"/>
+    <s v="to verify runtime - New/Existing JAR &amp; New/Existing API ?"/>
+    <s v="Dual-Crypto"/>
+    <s v="(blank)"/>
+    <s v="(blank)"/>
+    <s v="P026"/>
+    <s v="UT026"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="26"/>
+    <s v="Set 3 - Third Party"/>
+    <s v="THIRD-PARTY (XML-DATA jar)"/>
+    <s v="castor-0.9.9.1.jar"/>
+    <s v="Third-party library present in application lib folder (exploded project)."/>
+    <s v="(?ms)(?:^\s*import\s+(?:static\s+)?(?:org\.exolab|org\.exolab\.castor|org\.exolab\.castor\.jdo|org\.exolab\.castor\.xml|org\.exolab\.castor\.mapping|org\.exolab\.castor\.builder|org\.exolab\.castor\.mapping\.xml|org\.exolab\.castor\.jdo\.engine|org\.exolab\.castor\.xml\.schema|org\.exolab\.castor\.builder\.binding)(?:\.[\w$]+|\.\*)\s*;)|(?:&lt;%@\s*page\b[^%]*\bimport\s*=\s*\&quot;[^\&quot;]*\b(?:org\.exolab|org\.exolab\.castor|org\.exolab\.castor\.jdo|org\.exolab\.castor\.xml|org\.exolab\.castor\.mapping|org\.exolab\.castor\.builder|org\.exolab\.castor\.mapping\.xml|org\.exolab\.castor\.jdo\.engine|org\.exolab\.castor\.xml\.schema|org\.exolab\.castor\.builder\.binding)\.)|(?:\b(?:org\.exolab|org\.exolab\.castor|org\.exolab\.castor\.jdo|org\.exolab\.castor\.xml|org\.exolab\.castor\.mapping|org\.exolab\.castor\.builder|org\.exolab\.castor\.mapping\.xml|org\.exolab\.castor\.jdo\.engine|org\.exolab\.castor\.xml\.schema|org\.exolab\.castor\.builder\.binding)\.[A-Za-z_$][\w$]*\b)"/>
+    <s v="Medium"/>
+    <s v="Third-Party Dependencies"/>
+    <s v="Dual-runtime: manage this dependency in Maven/Gradle and upgrade to a maintained Java-8-baseline release; validate on JDK 8 and JDK 21."/>
+    <s v="Upgrade/Replace"/>
+    <s v="Replace exploded lib with build-managed dependency; choose a release that supports Java 8 and test on JDK 21."/>
+    <s v="Medium"/>
+    <n v="0.5"/>
+    <n v="113"/>
+    <n v="5"/>
+    <s v="1-fpms"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="jackson-dataformat-xml-2.17.0.jar"/>
+    <x v="4"/>
+    <s v="to verify runtime - New JAR &amp; API ?"/>
+    <s v="to verify runtime - New JAR &amp; API ?"/>
+    <s v="Dual-Review"/>
+    <s v="(blank)"/>
+    <s v="(blank)"/>
+    <s v="P027"/>
+    <s v="UT027"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="27"/>
+    <s v="Set 3 - Third Party"/>
+    <s v="THIRD-PARTY (CGLIB jar)"/>
+    <s v="cglib-full-2.0.2.jar"/>
+    <s v="Third-party library present in application lib folder (exploded project)."/>
+    <s v="(?ms)(?:^\s*import\s+(?:static\s+)?(?:net\.sf\.cglib|net\.sf\.cglib\.core|net\.sf\.cglib\.transform|net\.sf\.cglib\.proxy|net\.sf\.cglib\.transform\.impl|net\.sf\.cglib\.reflect|net\.sf\.cglib\.beans|net\.sf\.cglib\.util|org\.objectweb\.asm|net\.sf\.cglib\.transform\.hook)(?:\.[\w$]+|\.\*)\s*;)|(?:&lt;%@\s*page\b[^%]*\bimport\s*=\s*\&quot;[^\&quot;]*\b(?:net\.sf\.cglib|net\.sf\.cglib\.core|net\.sf\.cglib\.transform|net\.sf\.cglib\.proxy|net\.sf\.cglib\.transform\.impl|net\.sf\.cglib\.reflect|net\.sf\.cglib\.beans|net\.sf\.cglib\.util|org\.objectweb\.asm|net\.sf\.cglib\.transform\.hook)\.)|(?:\b(?:net\.sf\.cglib|net\.sf\.cglib\.core|net\.sf\.cglib\.transform|net\.sf\.cglib\.proxy|net\.sf\.cglib\.transform\.impl|net\.sf\.cglib\.reflect|net\.sf\.cglib\.beans|net\.sf\.cglib\.util|org\.objectweb\.asm|net\.sf\.cglib\.transform\.hook)\.[A-Za-z_$][\w$]*\b)"/>
+    <s v="Medium"/>
+    <s v="Third-Party Dependencies"/>
+    <s v="Dual-runtime: manage this dependency in Maven/Gradle and upgrade to a maintained Java-8-baseline release; validate on JDK 8 and JDK 21."/>
+    <s v="Upgrade/Replace"/>
+    <s v="Replace exploded lib with build-managed dependency; choose a release that supports Java 8 and test on JDK 21."/>
+    <s v="Medium"/>
+    <n v="0.5"/>
+    <n v="74"/>
+    <n v="7"/>
+    <s v="1-fpms"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="6"/>
+    <s v="(blank)"/>
+    <x v="3"/>
+    <s v="to verify runtime - New/Existing JAR &amp; New/Existing API ?"/>
+    <s v="to verify runtime - New/Existing JAR &amp; New/Existing API ?"/>
+    <s v="Dual-Review"/>
+    <s v="(blank)"/>
+    <s v="(blank)"/>
+    <s v="P028"/>
+    <s v="UT028"/>
+    <n v="7"/>
+  </r>
+  <r>
+    <x v="28"/>
+    <s v="Set 3 - Third Party"/>
+    <s v="THIRD-PARTY (DB jar)"/>
+    <s v="classes12.jar"/>
+    <s v="Third-party library present in application lib folder (exploded project)."/>
+    <s v="(?ms)(?:^\s*import\s+(?:static\s+)?(?:oracle\.jdbc|oracle\.jdbc\.driver|oracle\.net|oracle\.sql|oracle\.net\.nl|oracle\.jdbc\.oracore|oracle\.net\.nl\.mesg|oracle\.jdbc\.pool|oracle\.jdbc\.rowset|oracle\.net\.ns)(?:\.[\w$]+|\.\*)\s*;)|(?:&lt;%@\s*page\b[^%]*\bimport\s*=\s*\&quot;[^\&quot;]*\b(?:oracle\.jdbc|oracle\.jdbc\.driver|oracle\.net|oracle\.sql|oracle\.net\.nl|oracle\.jdbc\.oracore|oracle\.net\.nl\.mesg|oracle\.jdbc\.pool|oracle\.jdbc\.rowset|oracle\.net\.ns)\.)|(?:\b(?:oracle\.jdbc|oracle\.jdbc\.driver|oracle\.net|oracle\.sql|oracle\.net\.nl|oracle\.jdbc\.oracore|oracle\.net\.nl\.mesg|oracle\.jdbc\.pool|oracle\.jdbc\.rowset|oracle\.net\.ns)\.[A-Za-z_$][\w$]*\b)"/>
+    <s v="High"/>
+    <s v="Driver Upgrade"/>
+    <s v="Dual-runtime: replace old Oracle JDBC jars with ojdbc8 (Java 8 baseline) and validate on JDK 21; avoid ojdbc11 if JDK 8 runtime must remain supported."/>
+    <s v="Upgrade"/>
+    <s v="Replace driver jar; validate TLS/timezone/NLS on both runtimes."/>
+    <s v="Medium"/>
+    <n v="1"/>
+    <n v="48"/>
+    <n v="33"/>
+    <s v="1-fpms"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="6"/>
+    <s v="(blank)"/>
+    <x v="3"/>
+    <s v="to verify runtime - New/Existing JAR &amp; New/Existing API ?"/>
+    <s v="to verify runtime - New/Existing JAR &amp; New/Existing API ?"/>
+    <s v="Dual-JDBC-Upgrade"/>
+    <s v="(blank)"/>
+    <s v="(blank)"/>
+    <s v="P029"/>
+    <s v="UT029"/>
+    <n v="33"/>
+  </r>
+  <r>
+    <x v="29"/>
+    <s v="Set 3 - Third Party"/>
+    <s v="THIRD-PARTY (IBM jar)"/>
+    <s v="com.ibm.mq.jar"/>
+    <s v="Third-party library present in application lib folder (exploded project)."/>
+    <s v="(?ms)(?:^\s*import\s+(?:static\s+)?(?:com\.ibm|com\.ibm\.mq|com\.ibm\.mq\.server|com\.ibm\.mq\.mqjd|com\.ibm\.mqservices|com\.ibm\.mq\.MQConnectionRequestInfo\$DefaultKeyObject|com\.ibm\.mq\.MQBindingsManagedConnectionFactoryJ11|com\.ibm\.mq\.MQSimpleConnectionManager\$PSAdapter|com\.ibm\.mq\.MQClientManagedConnectionFactoryJ11|com\.ibm\.mq\.MQBindingsManagedConnectionFactory)(?:\.[\w$]+|\.\*)\s*;)|(?:&lt;%@\s*page\b[^%]*\bimport\s*=\s*\&quot;[^\&quot;]*\b(?:com\.ibm|com\.ibm\.mq|com\.ibm\.mq\.server|com\.ibm\.mq\.mqjd|com\.ibm\.mqservices|com\.ibm\.mq\.MQConnectionRequestInfo\$DefaultKeyObject|com\.ibm\.mq\.MQBindingsManagedConnectionFactoryJ11|com\.ibm\.mq\.MQSimpleConnectionManager\$PSAdapter|com\.ibm\.mq\.MQClientManagedConnectionFactoryJ11|com\.ibm\.mq\.MQBindingsManagedConnectionFactory)\.)|(?:\b(?:com\.ibm|com\.ibm\.mq|com\.ibm\.mq\.server|com\.ibm\.mq\.mqjd|com\.ibm\.mqservices|com\.ibm\.mq\.MQConnectionRequestInfo\$DefaultKeyObject|com\.ibm\.mq\.MQBindingsManagedConnectionFactoryJ11|com\.ibm\.mq\.MQSimpleConnectionManager\$PSAdapter|com\.ibm\.mq\.MQClientManagedConnectionFactoryJ11|com\.ibm\.mq\.MQBindingsManagedConnectionFactory)\.[A-Za-z_$][\w$]*\b)"/>
+    <s v="Medium"/>
+    <s v="Third-Party Dependencies"/>
+    <s v="Dual-runtime: manage this dependency in Maven/Gradle and upgrade to a maintained Java-8-baseline release; validate on JDK 8 and JDK 21."/>
+    <s v="Upgrade/Replace"/>
+    <s v="Replace exploded lib with build-managed dependency; choose a release that supports Java 8 and test on JDK 21."/>
+    <s v="Medium"/>
+    <n v="0.5"/>
+    <n v="76"/>
+    <n v="39"/>
+    <s v="1-fpms"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="6"/>
+    <s v="(blank)"/>
+    <x v="3"/>
+    <s v="to verify runtime - New/Existing JAR &amp; New/Existing API ?"/>
+    <s v="to verify runtime - New/Existing JAR &amp; New/Existing API ?"/>
+    <s v="Dual-Review"/>
+    <s v="(blank)"/>
+    <s v="(blank)"/>
+    <s v="P030"/>
+    <s v="UT030"/>
+    <n v="39"/>
+  </r>
+  <r>
+    <x v="30"/>
+    <s v="Set 3 - Third Party"/>
+    <s v="THIRD-PARTY (IBM jar)"/>
+    <s v="com.ibm.mqbind.jar"/>
+    <s v="Third-party library present in application lib folder (exploded project)."/>
+    <s v="(?ms)(?:^\s*import\s+(?:static\s+)?(?:com\.ibm|com\.ibm\.mqbind|com\.ibm\.mqservices|com\.ibm\.mqservices\.MQInternalException|com\.ibm\.mqbind\.MQDistributionListItem|com\.ibm\.mqbind\.MQGetMessageOptions|com\.ibm\.mqbind\.MQPutMessageOptions|com\.ibm\.mqbind\.MQDistributionList|com\.ibm\.mqservices\.CallStackTrace|com\.ibm\.mqbind\.MQMessageTracker)(?:\.[\w$]+|\.\*)\s*;)|(?:&lt;%@\s*page\b[^%]*\bimport\s*=\s*\&quot;[^\&quot;]*\b(?:com\.ibm|com\.ibm\.mqbind|com\.ibm\.mqservices|com\.ibm\.mqservices\.MQInternalException|com\.ibm\.mqbind\.MQDistributionListItem|com\.ibm\.mqbind\.MQGetMessageOptions|com\.ibm\.mqbind\.MQPutMessageOptions|com\.ibm\.mqbind\.MQDistributionList|com\.ibm\.mqservices\.CallStackTrace|com\.ibm\.mqbind\.MQMessageTracker)\.)|(?:\b(?:com\.ibm|com\.ibm\.mqbind|com\.ibm\.mqservices|com\.ibm\.mqservices\.MQInternalException|com\.ibm\.mqbind\.MQDistributionListItem|com\.ibm\.mqbind\.MQGetMessageOptions|com\.ibm\.mqbind\.MQPutMessageOptions|com\.ibm\.mqbind\.MQDistributionList|com\.ibm\.mqservices\.CallStackTrace|com\.ibm\.mqbind\.MQMessageTracker)\.[A-Za-z_$][\w$]*\b)"/>
+    <s v="Medium"/>
+    <s v="Third-Party Dependencies"/>
+    <s v="Dual-runtime: manage this dependency in Maven/Gradle and upgrade to a maintained Java-8-baseline release; validate on JDK 8 and JDK 21."/>
+    <s v="Upgrade/Replace"/>
+    <s v="Replace exploded lib with build-managed dependency; choose a release that supports Java 8 and test on JDK 21."/>
+    <s v="Medium"/>
+    <n v="0.5"/>
+    <n v="77"/>
+    <n v="39"/>
+    <s v="1-fpms"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="6"/>
+    <s v="com.ibm.mq.allclient.jar version 9.3.1"/>
+    <x v="4"/>
+    <s v="to verify runtime - New JAR &amp; API ?"/>
+    <s v="to verify runtime - New JAR &amp; API ?"/>
+    <s v="Dual-Review"/>
+    <s v="(blank)"/>
+    <s v="(blank)"/>
+    <s v="P031"/>
+    <s v="UT031"/>
+    <n v="39"/>
+  </r>
+  <r>
+    <x v="31"/>
+    <s v="Set 3 - Third Party"/>
+    <s v="THIRD-PARTY (IBM jar)"/>
+    <s v="com.ibm.mqjms.jar"/>
+    <s v="Third-party library present in application lib folder (exploded project)."/>
+    <s v="(?ms)(?:^\s*import\s+(?:static\s+)?(?:com\.ibm|com\.ibm\.mq\.jms|com\.ibm\.mq\.jms\.admin|com\.ibm\.mq\.jms\.services|com\.ibm\.jms|com\.ibm\.mq\.jms\.MQConnectionConsumer\$MQConnectionConsumerMRH|com\.ibm\.mq\.jms\.ExceptionDispatchThread\$QueueElement|com\.ibm\.mq\.jms\.MQRRSTopicConnectionFactoryFactory|com\.ibm\.mq\.jms\.MulticastHeartbeatTimeoutException|com\.ibm\.mq\.jms\.MQRRSQueueConnectionFactoryFactory)(?:\.[\w$]+|\.\*)\s*;)|(?:&lt;%@\s*page\b[^%]*\bimport\s*=\s*\&quot;[^\&quot;]*\b(?:com\.ibm|com\.ibm\.mq\.jms|com\.ibm\.mq\.jms\.admin|com\.ibm\.mq\.jms\.services|com\.ibm\.jms|com\.ibm\.mq\.jms\.MQConnectionConsumer\$MQConnectionConsumerMRH|com\.ibm\.mq\.jms\.ExceptionDispatchThread\$QueueElement|com\.ibm\.mq\.jms\.MQRRSTopicConnectionFactoryFactory|com\.ibm\.mq\.jms\.MulticastHeartbeatTimeoutException|com\.ibm\.mq\.jms\.MQRRSQueueConnectionFactoryFactory)\.)|(?:\b(?:com\.ibm|com\.ibm\.mq\.jms|com\.ibm\.mq\.jms\.admin|com\.ibm\.mq\.jms\.services|com\.ibm\.jms|com\.ibm\.mq\.jms\.MQConnectionConsumer\$MQConnectionConsumerMRH|com\.ibm\.mq\.jms\.ExceptionDispatchThread\$QueueElement|com\.ibm\.mq\.jms\.MQRRSTopicConnectionFactoryFactory|com\.ibm\.mq\.jms\.MulticastHeartbeatTimeoutException|com\.ibm\.mq\.jms\.MQRRSQueueConnectionFactoryFactory)\.[A-Za-z_$][\w$]*\b)"/>
+    <s v="Medium"/>
+    <s v="Third-Party Dependencies"/>
+    <s v="Dual-runtime: manage this dependency in Maven/Gradle and upgrade to a maintained Java-8-baseline release; validate on JDK 8 and JDK 21."/>
+    <s v="Upgrade/Replace"/>
+    <s v="Replace exploded lib with build-managed dependency; choose a release that supports Java 8 and test on JDK 21."/>
+    <s v="Medium"/>
+    <n v="0.5"/>
+    <n v="78"/>
+    <n v="39"/>
+    <s v="1-fpms"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="6"/>
+    <s v="com.ibm.mq.allclient.jar version 9.3.1"/>
+    <x v="4"/>
+    <s v="to verify runtime - New JAR &amp; API ?"/>
+    <s v="to verify runtime - New JAR &amp; API ?"/>
+    <s v="Dual-Review"/>
+    <s v="(blank)"/>
+    <s v="(blank)"/>
+    <s v="P032"/>
+    <s v="UT032"/>
+    <n v="39"/>
+  </r>
+  <r>
+    <x v="32"/>
+    <s v="Set 3 - Third Party"/>
+    <s v="THIRD-PARTY (COMMON jar)"/>
+    <s v="commons-beanutils.jar"/>
+    <s v="Third-party library present in application lib folder (exploded project)."/>
+    <s v="(?ms)(?:^\s*import\s+(?:static\s+)?(?:org\.apache\.commons\.beanutils|org\.apache\.commons\.beanutils\.converters|org\.apache\.commons\.beanutils\.locale|org\.apache\.commons\.beanutils\.expression|org\.apache\.commons\.beanutils\.WeakFastHashMap\$CollectionView\$CollectionViewIterator|org\.apache\.commons\.beanutils\.MappedPropertyDescriptor\$MappedMethodReference|org\.apache\.commons\.beanutils\.SuppressPropertiesBeanIntrospector|org\.apache\.commons\.beanutils\.BaseDynaBeanMapDecorator\$MapEntry|org\.apache\.commons\.beanutils\.BeanPropertyValueEqualsPredicate|org\.apache\.commons\.beanutils\.BeanPropertyValueChangeClosure)(?:\.[\w$]+|\.\*)\s*;)|(?:&lt;%@\s*page\b[^%]*\bimport\s*=\s*\&quot;[^\&quot;]*\b(?:org\.apache\.commons\.beanutils|org\.apache\.commons\.beanutils\.converters|org\.apache\.commons\.beanutils\.locale|org\.apache\.commons\.beanutils\.expression|org\.apache\.commons\.beanutils\.WeakFastHashMap\$CollectionView\$CollectionViewIterator|org\.apache\.commons\.beanutils\.MappedPropertyDescriptor\$MappedMethodReference|org\.apache\.commons\.beanutils\.SuppressPropertiesBeanIntrospector|org\.apache\.commons\.beanutils\.BaseDynaBeanMapDecorator\$MapEntry|org\.apache\.commons\.beanutils\.BeanPropertyValueEqualsPredicate|org\.apache\.commons\.beanutils\.BeanPropertyValueChangeClosure)\.)|(?:\b(?:org\.apache\.commons\.beanutils|org\.apache\.commons\.beanutils\.converters|org\.apache\.commons\.beanutils\.locale|org\.apache\.commons\.beanutils\.expression|org\.apache\.commons\.beanutils\.WeakFastHashMap\$CollectionView\$CollectionViewIterator|org\.apache\.commons\.beanutils\.MappedPropertyDescriptor\$MappedMethodReference|org\.apache\.commons\.beanutils\.SuppressPropertiesBeanIntrospector|org\.apache\.commons\.beanutils\.BaseDynaBeanMapDecorator\$MapEntry|org\.apache\.commons\.beanutils\.BeanPropertyValueEqualsPredicate|org\.apache\.commons\.beanutils\.BeanPropertyValueChangeClosure)\.[A-Za-z_$][\w$]*\b)"/>
+    <s v="Medium"/>
+    <s v="Third-Party Dependencies"/>
+    <s v="Dual-runtime: manage this dependency in Maven/Gradle and upgrade to a maintained Java-8-baseline release; validate on JDK 8 and JDK 21."/>
+    <s v="Upgrade/Replace"/>
+    <s v="Replace exploded lib with build-managed dependency; choose a release that supports Java 8 and test on JDK 21."/>
+    <s v="Medium"/>
+    <n v="0.5"/>
+    <n v="57"/>
+    <n v="57"/>
+    <s v="1-fpms"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="6"/>
+    <s v="(blank)"/>
+    <x v="3"/>
+    <s v="to verify runtime - New/Existing JAR &amp; New/Existing API ?"/>
+    <s v="to verify runtime - New/Existing JAR &amp; New/Existing API ?"/>
+    <s v="Dual-Review;POM"/>
+    <s v="(blank)"/>
+    <s v="(blank)"/>
+    <s v="P033"/>
+    <s v="UT033"/>
+    <n v="57"/>
+  </r>
+  <r>
+    <x v="33"/>
+    <s v="Set 3 - Third Party"/>
+    <s v="THIRD-PARTY (COMMON jar)"/>
+    <s v="commons-betwixt-1.0-alpha-1.jar"/>
+    <s v="Third-party library present in application lib folder (exploded project)."/>
+    <s v="(?ms)(?:^\s*import\s+(?:static\s+)?(?:org\.apache\.commons\.betwixt|org\.apache\.commons\.betwixt\.io|org\.apache\.commons\.betwixt\.expression|org\.apache\.commons\.betwixt\.digester|org\.apache\.commons\.betwixt\.strategy|org\.apache\.commons\.betwixt\.registry|org\.apache\.commons\.betwixt\.AttributeDescriptor|org\.apache\.commons\.betwixt\.ElementDescriptor|org\.apache\.commons\.betwixt\.XMLIntrospector|org\.apache\.commons\.betwixt\.NodeDescriptor)(?:\.[\w$]+|\.\*)\s*;)|(?:&lt;%@\s*page\b[^%]*\bimport\s*=\s*\&quot;[^\&quot;]*\b(?:org\.apache\.commons\.betwixt|org\.apache\.commons\.betwixt\.io|org\.apache\.commons\.betwixt\.expression|org\.apache\.commons\.betwixt\.digester|org\.apache\.commons\.betwixt\.strategy|org\.apache\.commons\.betwixt\.registry|org\.apache\.commons\.betwixt\.AttributeDescriptor|org\.apache\.commons\.betwixt\.ElementDescriptor|org\.apache\.commons\.betwixt\.XMLIntrospector|org\.apache\.commons\.betwixt\.NodeDescriptor)\.)|(?:\b(?:org\.apache\.commons\.betwixt|org\.apache\.commons\.betwixt\.io|org\.apache\.commons\.betwixt\.expression|org\.apache\.commons\.betwixt\.digester|org\.apache\.commons\.betwixt\.strategy|org\.apache\.commons\.betwixt\.registry|org\.apache\.commons\.betwixt\.AttributeDescriptor|org\.apache\.commons\.betwixt\.ElementDescriptor|org\.apache\.commons\.betwixt\.XMLIntrospector|org\.apache\.commons\.betwixt\.NodeDescriptor)\.[A-Za-z_$][\w$]*\b)"/>
+    <s v="Medium"/>
+    <s v="Pre-Release/Alpha"/>
+    <s v="Dual-runtime: replace alpha/beta/snapshot libraries with stable maintained releases that support Java 8; validate on JDK 21."/>
+    <s v="Replace"/>
+    <s v="Upgrade to stable release; verify runtime and security."/>
+    <s v="Medium"/>
+    <n v="1"/>
+    <n v="26"/>
+    <n v="1"/>
+    <s v="1-fpms"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="7"/>
+    <s v="(blank)"/>
+    <x v="3"/>
+    <s v="to verify runtime - New/Existing JAR &amp; New/Existing API ?"/>
+    <s v="to verify runtime - New/Existing JAR &amp; New/Existing API ?"/>
+    <s v="Dual-Replace-PreRelease"/>
+    <s v="(blank)"/>
+    <s v="(blank)"/>
+    <s v="P034"/>
+    <s v="UT034"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="34"/>
+    <s v="Set 3 - Third Party"/>
+    <s v="THIRD-PARTY (COMMON jar)"/>
+    <s v="commons-codec-1.3.jar"/>
+    <s v="Third-party library present in application lib folder (exploded project)."/>
+    <s v="(?ms)(?:^\s*import\s+(?:static\s+)?(?:org\.apache\.commons\.codec|org\.apache\.commons\.codec\.language|org\.apache\.commons\.codec\.binary|org\.apache\.commons\.codec\.digest|org\.apache\.commons\.codec\.net|org\.apache\.commons\.codec\.StringEncoderComparator|org\.apache\.commons\.codec\.DecoderException|org\.apache\.commons\.codec\.EncoderException|org\.apache\.commons\.codec\.BinaryEncoder|org\.apache\.commons\.codec\.StringEncoder)(?:\.[\w$]+|\.\*)\s*;)|(?:&lt;%@\s*page\b[^%]*\bimport\s*=\s*\&quot;[^\&quot;]*\b(?:org\.apache\.commons\.codec|org\.apache\.commons\.codec\.language|org\.apache\.commons\.codec\.binary|org\.apache\.commons\.codec\.digest|org\.apache\.commons\.codec\.net|org\.apache\.commons\.codec\.StringEncoderComparator|org\.apache\.commons\.codec\.DecoderException|org\.apache\.commons\.codec\.EncoderException|org\.apache\.commons\.codec\.BinaryEncoder|org\.apache\.commons\.codec\.StringEncoder)\.)|(?:\b(?:org\.apache\.commons\.codec|org\.apache\.commons\.codec\.language|org\.apache\.commons\.codec\.binary|org\.apache\.commons\.codec\.digest|org\.apache\.commons\.codec\.net|org\.apache\.commons\.codec\.StringEncoderComparator|org\.apache\.commons\.codec\.DecoderException|org\.apache\.commons\.codec\.EncoderException|org\.apache\.commons\.codec\.BinaryEncoder|org\.apache\.commons\.codec\.StringEncoder)\.[A-Za-z_$][\w$]*\b)"/>
+    <s v="Medium"/>
+    <s v="Third-Party Dependencies"/>
+    <s v="Dual-runtime: manage this dependency in Maven/Gradle and upgrade to a maintained Java-8-baseline release; validate on JDK 8 and JDK 21."/>
+    <s v="Upgrade/Replace"/>
+    <s v="Replace exploded lib with build-managed dependency; choose a release that supports Java 8 and test on JDK 21."/>
+    <s v="Medium"/>
+    <n v="0.5"/>
+    <n v="58"/>
+    <n v="9"/>
+    <s v="1-fpms"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="6"/>
+    <s v="(blank)"/>
+    <x v="3"/>
+    <s v="to verify runtime - New/Existing JAR &amp; New/Existing API ?"/>
+    <s v="to verify runtime - New/Existing JAR &amp; New/Existing API ?"/>
+    <s v="Dual-Review"/>
+    <s v="(blank)"/>
+    <s v="(blank)"/>
+    <s v="P035"/>
+    <s v="UT035"/>
+    <n v="9"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <s v="Set 3 - Third Party"/>
+    <s v="THIRD-PARTY (COMMON jar)"/>
+    <s v="commons-collections-3.2.2.jar"/>
+    <s v="Third-party library present in application lib folder (exploded project)."/>
+    <s v="(?ms)(?:^\s*import\s+(?:static\s+)?(?:org\.apache\.commons\.collections|org\.apache\.commons\.collections\.map|org\.apache\.commons\.collections\.functors|org\.apache\.commons\.collections\.iterators|org\.apache\.commons\.collections\.list|org\.apache\.commons\.collections\.bidimap|org\.apache\.commons\.collections\.set|org\.apache\.commons\.collections\.bag|org\.apache\.commons\.collections\.buffer|org\.apache\.commons\.collections\.collection)(?:\.[\w$]+|\.\*)\s*;)|(?:&lt;%@\s*page\b[^%]*\bimport\s*=\s*\&quot;[^\&quot;]*\b(?:org\.apache\.commons\.collections|org\.apache\.commons\.collections\.map|org\.apache\.commons\.collections\.functors|org\.apache\.commons\.collections\.iterators|org\.apache\.commons\.collections\.list|org\.apache\.commons\.collections\.bidimap|org\.apache\.commons\.collections\.set|org\.apache\.commons\.collections\.bag|org\.apache\.commons\.collections\.buffer|org\.apache\.commons\.collections\.collection)\.)|(?:\b(?:org\.apache\.commons\.collections|org\.apache\.commons\.collections\.map|org\.apache\.commons\.collections\.functors|org\.apache\.commons\.collections\.iterators|org\.apache\.commons\.collections\.list|org\.apache\.commons\.collections\.bidimap|org\.apache\.commons\.collections\.set|org\.apache\.commons\.collections\.bag|org\.apache\.commons\.collections\.buffer|org\.apache\.commons\.collections\.collection)\.[A-Za-z_$][\w$]*\b)"/>
+    <s v="Medium"/>
+    <s v="Third-Party Dependencies"/>
+    <s v="Dual-runtime: manage this dependency in Maven/Gradle and upgrade to a maintained Java-8-baseline release; validate on JDK 8 and JDK 21."/>
+    <s v="Upgrade/Replace"/>
+    <s v="Replace exploded lib with build-managed dependency; choose a release that supports Java 8 and test on JDK 21."/>
+    <s v="Medium"/>
+    <n v="0.5"/>
+    <n v="59"/>
+    <n v="23"/>
+    <s v="1-fpms"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="6"/>
+    <s v="(blank)"/>
+    <x v="3"/>
+    <s v="to verify runtime - New/Existing JAR &amp; New/Existing API ?"/>
+    <s v="to verify runtime - New/Existing JAR &amp; New/Existing API ?"/>
+    <s v="Dual-Review"/>
+    <s v="(blank)"/>
+    <s v="(blank)"/>
+    <s v="P036"/>
+    <s v="UT036"/>
+    <n v="23"/>
+  </r>
+  <r>
+    <x v="36"/>
+    <s v="Set 3 - Third Party"/>
+    <s v="THIRD-PARTY (COMMON jar)"/>
+    <s v="commons-dbcp-1.2.1.jar"/>
+    <s v="Third-party library present in application lib folder (exploded project)."/>
+    <s v="(?ms)(?:^\s*import\s+(?:static\s+)?(?:org\.apache\.commons|org\.apache\.commons\.dbcp|org\.apache\.commons\.dbcp\.datasources|org\.apache\.commons\.dbcp\.cpdsadapter|org\.apache\.commons\.jocl|org\.apache\.commons\.dbcp\.PoolingDataSource\$PoolGuardConnectionWrapper|org\.apache\.commons\.dbcp\.PoolingDriver\$PoolGuardConnectionWrapper|org\.apache\.commons\.jocl\.JOCLContentHandler\$ConstructorDetails|org\.apache\.commons\.dbcp\.DriverManagerConnectionFactory|org\.apache\.commons\.dbcp\.DelegatingCallableStatement)(?:\.[\w$]+|\.\*)\s*;)|(?:&lt;%@\s*page\b[^%]*\bimport\s*=\s*\&quot;[^\&quot;]*\b(?:org\.apache\.commons|org\.apache\.commons\.dbcp|org\.apache\.commons\.dbcp\.datasources|org\.apache\.commons\.dbcp\.cpdsadapter|org\.apache\.commons\.jocl|org\.apache\.commons\.dbcp\.PoolingDataSource\$PoolGuardConnectionWrapper|org\.apache\.commons\.dbcp\.PoolingDriver\$PoolGuardConnectionWrapper|org\.apache\.commons\.jocl\.JOCLContentHandler\$ConstructorDetails|org\.apache\.commons\.dbcp\.DriverManagerConnectionFactory|org\.apache\.commons\.dbcp\.DelegatingCallableStatement)\.)|(?:\b(?:org\.apache\.commons|org\.apache\.commons\.dbcp|org\.apache\.commons\.dbcp\.datasources|org\.apache\.commons\.dbcp\.cpdsadapter|org\.apache\.commons\.jocl|org\.apache\.commons\.dbcp\.PoolingDataSource\$PoolGuardConnectionWrapper|org\.apache\.commons\.dbcp\.PoolingDriver\$PoolGuardConnectionWrapper|org\.apache\.commons\.jocl\.JOCLContentHandler\$ConstructorDetails|org\.apache\.commons\.dbcp\.DriverManagerConnectionFactory|org\.apache\.commons\.dbcp\.DelegatingCallableStatement)\.[A-Za-z_$][\w$]*\b)"/>
+    <s v="Medium"/>
+    <s v="Third-Party Dependencies"/>
+    <s v="Dual-runtime: manage this dependency in Maven/Gradle and upgrade to a maintained Java-8-baseline release; validate on JDK 8 and JDK 21."/>
+    <s v="Upgrade/Replace"/>
+    <s v="Replace exploded lib with build-managed dependency; choose a release that supports Java 8 and test on JDK 21."/>
+    <s v="Medium"/>
+    <n v="0.5"/>
+    <n v="60"/>
+    <n v="2512"/>
+    <s v="1-fpms"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="6"/>
+    <s v="(blank)"/>
+    <x v="3"/>
+    <s v="to verify runtime - New/Existing JAR &amp; New/Existing API ?"/>
+    <s v="to verify runtime - New/Existing JAR &amp; New/Existing API ?"/>
+    <s v="Dual-Review"/>
+    <s v="(blank)"/>
+    <s v="(blank)"/>
+    <s v="P037"/>
+    <s v="UT037"/>
+    <n v="2512"/>
+  </r>
+  <r>
+    <x v="37"/>
+    <s v="Set 3 - Third Party"/>
+    <s v="THIRD-PARTY (COMMON jar)"/>
+    <s v="commons-dbutils-1.0.jar"/>
+    <s v="Third-party library present in application lib folder (exploded project)."/>
+    <s v="(?ms)(?:^\s*import\s+(?:static\s+)?(?:org\.apache\.commons\.dbutils|org\.apache\.commons\.dbutils\.handlers|org\.apache\.commons\.dbutils\.wrappers|org\.apache\.commons\.dbutils\.BasicRowProcessor\$CaseInsensitiveHashMap|org\.apache\.commons\.dbutils\.BasicRowProcessor\$1|org\.apache\.commons\.dbutils\.ResultSetIterator|org\.apache\.commons\.dbutils\.BasicRowProcessor|org\.apache\.commons\.dbutils\.ResultSetHandler|org\.apache\.commons\.dbutils\.ProxyFactory|org\.apache\.commons\.dbutils\.RowProcessor)(?:\.[\w$]+|\.\*)\s*;)|(?:&lt;%@\s*page\b[^%]*\bimport\s*=\s*\&quot;[^\&quot;]*\b(?:org\.apache\.commons\.dbutils|org\.apache\.commons\.dbutils\.handlers|org\.apache\.commons\.dbutils\.wrappers|org\.apache\.commons\.dbutils\.BasicRowProcessor\$CaseInsensitiveHashMap|org\.apache\.commons\.dbutils\.BasicRowProcessor\$1|org\.apache\.commons\.dbutils\.ResultSetIterator|org\.apache\.commons\.dbutils\.BasicRowProcessor|org\.apache\.commons\.dbutils\.ResultSetHandler|org\.apache\.commons\.dbutils\.ProxyFactory|org\.apache\.commons\.dbutils\.RowProcessor)\.)|(?:\b(?:org\.apache\.commons\.dbutils|org\.apache\.commons\.dbutils\.handlers|org\.apache\.commons\.dbutils\.wrappers|org\.apache\.commons\.dbutils\.BasicRowProcessor\$CaseInsensitiveHashMap|org\.apache\.commons\.dbutils\.BasicRowProcessor\$1|org\.apache\.commons\.dbutils\.ResultSetIterator|org\.apache\.commons\.dbutils\.BasicRowProcessor|org\.apache\.commons\.dbutils\.ResultSetHandler|org\.apache\.commons\.dbutils\.ProxyFactory|org\.apache\.commons\.dbutils\.RowProcessor)\.[A-Za-z_$][\w$]*\b)"/>
+    <s v="Medium"/>
+    <s v="Third-Party Dependencies"/>
+    <s v="Dual-runtime: manage this dependency in Maven/Gradle and upgrade to a maintained Java-8-baseline release; validate on JDK 8 and JDK 21."/>
+    <s v="Upgrade/Replace"/>
+    <s v="Replace exploded lib with build-managed dependency; choose a release that supports Java 8 and test on JDK 21."/>
+    <s v="Medium"/>
+    <n v="0.5"/>
+    <n v="61"/>
+    <n v="6"/>
+    <s v="1-fpms"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="6"/>
+    <s v="(blank)"/>
+    <x v="3"/>
+    <s v="to verify runtime - New/Existing JAR &amp; New/Existing API ?"/>
+    <s v="to verify runtime - New/Existing JAR &amp; New/Existing API ?"/>
+    <s v="Dual-Review"/>
+    <s v="(blank)"/>
+    <s v="(blank)"/>
+    <s v="P038"/>
+    <s v="UT038"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="38"/>
+    <s v="Set 3 - Third Party"/>
+    <s v="THIRD-PARTY (COMMON jar)"/>
+    <s v="commons-fileupload.jar"/>
+    <s v="Third-party library present in application lib folder (exploded project)."/>
+    <s v="(?ms)(?:^\s*import\s+(?:static\s+)?(?:org\.apache\.commons\.fileupload|org\.apache\.commons\.fileupload\.util|org\.apache\.commons\.fileupload\.servlet|org\.apache\.commons\.fileupload\.portlet|org\.apache\.commons\.fileupload\.disk|org\.apache\.commons\.fileupload\.FileUploadBase\$FileItemIteratorImpl\$FileItemStreamImpl\$1|org\.apache\.commons\.fileupload\.FileUploadBase\$FileItemIteratorImpl\$FileItemStreamImpl|org\.apache\.commons\.fileupload\.FileUploadBase\$FileSizeLimitExceededException|org\.apache\.commons\.fileupload\.FileUploadBase\$InvalidContentTypeException|org\.apache\.commons\.fileupload\.FileUploadBase\$SizeLimitExceededException)(?:\.[\w$]+|\.\*)\s*;)|(?:&lt;%@\s*page\b[^%]*\bimport\s*=\s*\&quot;[^\&quot;]*\b(?:org\.apache\.commons\.fileupload|org\.apache\.commons\.fileupload\.util|org\.apache\.commons\.fileupload\.servlet|org\.apache\.commons\.fileupload\.portlet|org\.apache\.commons\.fileupload\.disk|org\.apache\.commons\.fileupload\.FileUploadBase\$FileItemIteratorImpl\$FileItemStreamImpl\$1|org\.apache\.commons\.fileupload\.FileUploadBase\$FileItemIteratorImpl\$FileItemStreamImpl|org\.apache\.commons\.fileupload\.FileUploadBase\$FileSizeLimitExceededException|org\.apache\.commons\.fileupload\.FileUploadBase\$InvalidContentTypeException|org\.apache\.commons\.fileupload\.FileUploadBase\$SizeLimitExceededException)\.)|(?:\b(?:org\.apache\.commons\.fileupload|org\.apache\.commons\.fileupload\.util|org\.apache\.commons\.fileupload\.servlet|org\.apache\.commons\.fileupload\.portlet|org\.apache\.commons\.fileupload\.disk|org\.apache\.commons\.fileupload\.FileUploadBase\$FileItemIteratorImpl\$FileItemStreamImpl\$1|org\.apache\.commons\.fileupload\.FileUploadBase\$FileItemIteratorImpl\$FileItemStreamImpl|org\.apache\.commons\.fileupload\.FileUploadBase\$FileSizeLimitExceededException|org\.apache\.commons\.fileupload\.FileUploadBase\$InvalidContentTypeException|org\.apache\.commons\.fileupload\.FileUploadBase\$SizeLimitExceededException)\.[A-Za-z_$][\w$]*\b)"/>
+    <s v="Medium"/>
+    <s v="Third-Party Dependencies"/>
+    <s v="Dual-runtime: manage this dependency in Maven/Gradle and upgrade to a maintained Java-8-baseline release; validate on JDK 8 and JDK 21."/>
+    <s v="Upgrade/Replace"/>
+    <s v="Replace exploded lib with build-managed dependency; choose a release that supports Java 8 and test on JDK 21."/>
+    <s v="Medium"/>
+    <n v="0.5"/>
+    <n v="62"/>
+    <n v="13"/>
+    <s v="1-fpms"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="6"/>
+    <s v="(blank)"/>
+    <x v="3"/>
+    <s v="to verify runtime - New/Existing JAR &amp; New/Existing API ?"/>
+    <s v="to verify runtime - New/Existing JAR &amp; New/Existing API ?"/>
+    <s v="Dual-Review"/>
+    <s v="(blank)"/>
+    <s v="(blank)"/>
+    <s v="P039"/>
+    <s v="UT039"/>
+    <n v="13"/>
+  </r>
+  <r>
+    <x v="39"/>
+    <s v="Set 3 - Third Party"/>
+    <s v="THIRD-PARTY (COMMON jar)"/>
+    <s v="commons-httpclient-3.0-beta1.jar"/>
+    <s v="Third-party library present in application lib folder (exploded project)."/>
+    <s v="(?ms)(?:^\s*import\s+(?:static\s+)?(?:org\.apache\.commons\.httpclient|org\.apache\.commons\.httpclient\.methods|org\.apache\.commons\.httpclient\.auth|org\.apache\.commons\.httpclient\.util|org\.apache\.commons\.httpclient\.protocol|org\.apache\.commons\.httpclient\.params|org\.apache\.commons\.httpclient\.cookie|org\.apache\.commons\.httpclient\.MultiThreadedHttpConnectionManager\$HttpConnectionWithReference|org\.apache\.commons\.httpclient\.MultiThreadedHttpConnectionManager\$HttpConnectionAdapter|org\.apache\.commons\.httpclient\.MultiThreadedHttpConnectionManager\$ReferenceQueueThread)(?:\.[\w$]+|\.\*)\s*;)|(?:&lt;%@\s*page\b[^%]*\bimport\s*=\s*\&quot;[^\&quot;]*\b(?:org\.apache\.commons\.httpclient|org\.apache\.commons\.httpclient\.methods|org\.apache\.commons\.httpclient\.auth|org\.apache\.commons\.httpclient\.util|org\.apache\.commons\.httpclient\.protocol|org\.apache\.commons\.httpclient\.params|org\.apache\.commons\.httpclient\.cookie|org\.apache\.commons\.httpclient\.MultiThreadedHttpConnectionManager\$HttpConnectionWithReference|org\.apache\.commons\.httpclient\.MultiThreadedHttpConnectionManager\$HttpConnectionAdapter|org\.apache\.commons\.httpclient\.MultiThreadedHttpConnectionManager\$ReferenceQueueThread)\.)|(?:\b(?:org\.apache\.commons\.httpclient|org\.apache\.commons\.httpclient\.methods|org\.apache\.commons\.httpclient\.auth|org\.apache\.commons\.httpclient\.util|org\.apache\.commons\.httpclient\.protocol|org\.apache\.commons\.httpclient\.params|org\.apache\.commons\.httpclient\.cookie|org\.apache\.commons\.httpclient\.MultiThreadedHttpConnectionManager\$HttpConnectionWithReference|org\.apache\.commons\.httpclient\.MultiThreadedHttpConnectionManager\$HttpConnectionAdapter|org\.apache\.commons\.httpclient\.MultiThreadedHttpConnectionManager\$ReferenceQueueThread)\.[A-Za-z_$][\w$]*\b)"/>
+    <s v="Medium"/>
+    <s v="HTTP Client Migration"/>
+    <s v="Dual-runtime: migrate from HttpClient 3.x APIs to HttpClient 4.5.x/5.x (Java 8+); refactor code; test on both runtimes."/>
+    <s v="Refactor"/>
+    <s v="Replace API usages; verify timeouts/pooling/TLS."/>
+    <s v="Medium"/>
+    <n v="1.5"/>
+    <n v="39"/>
+    <n v="12"/>
+    <s v="1-fpms"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="6"/>
+    <s v="(blank)"/>
+    <x v="3"/>
+    <s v="to verify runtime - New/Existing JAR &amp; New/Existing API ?"/>
+    <s v="to verify runtime - New/Existing JAR &amp; New/Existing API ?"/>
+    <s v="Dual-HttpClient-Refactor"/>
+    <s v="(blank)"/>
+    <s v="(blank)"/>
+    <s v="P040"/>
+    <s v="UT040"/>
+    <n v="12"/>
+  </r>
+  <r>
+    <x v="40"/>
+    <s v="Set 3 - Third Party"/>
+    <s v="THIRD-PARTY (COMMON jar)"/>
+    <s v="commons-lang-2.0.jar"/>
+    <s v="Third-party library present in application lib folder (exploded project)."/>
+    <s v="(?ms)(?:^\s*import\s+(?:static\s+)?(?:org\.apache\.commons\.lang|org\.apache\.commons\.lang\.time|org\.apache\.commons\.lang\.builder|org\.apache\.commons\.lang\.math|org\.apache\.commons\.lang\.exception|org\.apache\.commons\.lang\.enum|org\.apache\.commons\.lang\.Entities\$PrimitiveEntityMap|org\.apache\.commons\.lang\.IncompleteArgumentException|org\.apache\.commons\.lang\.Entities\$LookupEntityMap|org\.apache\.commons\.lang\.Entities\$BinaryEntityMap)(?:\.[\w$]+|\.\*)\s*;)|(?:&lt;%@\s*page\b[^%]*\bimport\s*=\s*\&quot;[^\&quot;]*\b(?:org\.apache\.commons\.lang|org\.apache\.commons\.lang\.time|org\.apache\.commons\.lang\.builder|org\.apache\.commons\.lang\.math|org\.apache\.commons\.lang\.exception|org\.apache\.commons\.lang\.enum|org\.apache\.commons\.lang\.Entities\$PrimitiveEntityMap|org\.apache\.commons\.lang\.IncompleteArgumentException|org\.apache\.commons\.lang\.Entities\$LookupEntityMap|org\.apache\.commons\.lang\.Entities\$BinaryEntityMap)\.)|(?:\b(?:org\.apache\.commons\.lang|org\.apache\.commons\.lang\.time|org\.apache\.commons\.lang\.builder|org\.apache\.commons\.lang\.math|org\.apache\.commons\.lang\.exception|org\.apache\.commons\.lang\.enum|org\.apache\.commons\.lang\.Entities\$PrimitiveEntityMap|org\.apache\.commons\.lang\.IncompleteArgumentException|org\.apache\.commons\.lang\.Entities\$LookupEntityMap|org\.apache\.commons\.lang\.Entities\$BinaryEntityMap)\.[A-Za-z_$][\w$]*\b)"/>
+    <s v="Medium"/>
+    <s v="Third-Party Dependencies"/>
+    <s v="Dual-runtime: manage this dependency in Maven/Gradle and upgrade to a maintained Java-8-baseline release; validate on JDK 8 and JDK 21."/>
+    <s v="Upgrade/Replace"/>
+    <s v="Replace exploded lib with build-managed dependency; choose a release that supports Java 8 and test on JDK 21."/>
+    <s v="Medium"/>
+    <n v="0.5"/>
+    <n v="63"/>
+    <n v="2361"/>
+    <s v="1-fpms"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="6"/>
+    <s v="(blank)"/>
+    <x v="3"/>
+    <s v="to verify runtime - New/Existing JAR &amp; New/Existing API ?"/>
+    <s v="to verify runtime - New/Existing JAR &amp; New/Existing API ?"/>
+    <s v="Dual-Review"/>
+    <s v="(blank)"/>
+    <s v="(blank)"/>
+    <s v="P041"/>
+    <s v="UT041"/>
+    <n v="2361"/>
+  </r>
+  <r>
+    <x v="41"/>
+    <s v="Set 3 - Third Party"/>
+    <s v="THIRD-PARTY (LOG4J jar)"/>
+    <s v="commons-logging.jar"/>
+    <s v="Third-party library present in application lib folder (exploded project)."/>
+    <s v="(?ms)(?:^\s*import\s+(?:static\s+)?(?:org\.apache\.commons\.logging|org\.apache\.commons\.logging\.impl|org\.apache\.commons\.logging\.LogConfigurationException|org\.apache\.commons\.logging\.package\-info|org\.apache\.commons\.logging\.LogFactory|org\.apache\.commons\.logging\.LogSource|org\.apache\.commons\.logging\.Log)(?:\.[\w$]+|\.\*)\s*;)|(?:&lt;%@\s*page\b[^%]*\bimport\s*=\s*\&quot;[^\&quot;]*\b(?:org\.apache\.commons\.logging|org\.apache\.commons\.logging\.impl|org\.apache\.commons\.logging\.LogConfigurationException|org\.apache\.commons\.logging\.package\-info|org\.apache\.commons\.logging\.LogFactory|org\.apache\.commons\.logging\.LogSource|org\.apache\.commons\.logging\.Log)\.)|(?:\b(?:org\.apache\.commons\.logging|org\.apache\.commons\.logging\.impl|org\.apache\.commons\.logging\.LogConfigurationException|org\.apache\.commons\.logging\.package\-info|org\.apache\.commons\.logging\.LogFactory|org\.apache\.commons\.logging\.LogSource|org\.apache\.commons\.logging\.Log)\.[A-Za-z_$][\w$]*\b)"/>
+    <s v="Medium"/>
+    <s v="Third-Party Dependencies"/>
+    <s v="Dual-runtime: manage this dependency in Maven/Gradle and upgrade to a maintained Java-8-baseline release; validate on JDK 8 and JDK 21."/>
+    <s v="Upgrade/Replace"/>
+    <s v="Replace exploded lib with build-managed dependency; choose a release that supports Java 8 and test on JDK 21."/>
+    <s v="Medium"/>
+    <n v="0.5"/>
+    <n v="68"/>
+    <n v="24"/>
+    <s v="1-fpms"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="6"/>
+    <s v="(blank)"/>
+    <x v="3"/>
+    <s v="to verify runtime - New/Existing JAR &amp; New/Existing API ?"/>
+    <s v="to verify runtime - New/Existing JAR &amp; New/Existing API ?"/>
+    <s v="Dual-Review"/>
+    <s v="(blank)"/>
+    <s v="(blank)"/>
+    <s v="P042"/>
+    <s v="UT042"/>
+    <n v="24"/>
+  </r>
+  <r>
+    <x v="42"/>
+    <s v="Set 3 - Third Party"/>
+    <s v="THIRD-PARTY (COMMON jar)"/>
+    <s v="commons-mail-alpha.jar"/>
+    <s v="Third-party library present in application lib folder (exploded project)."/>
+    <s v="(?ms)(?:^\s*import\s+(?:static\s+)?(?:org\.apache\.commons\.mail|org\.apache\.commons\.mail\.DefaultAuthenticator|org\.apache\.commons\.mail\.ByteArrayDataSource|org\.apache\.commons\.mail\.GenerateUniqueID|org\.apache\.commons\.mail\.EmailAttachment|org\.apache\.commons\.mail\.MultiPartEmail|org\.apache\.commons\.mail\.MailMessage|org\.apache\.commons\.mail\.SimpleEmail|org\.apache\.commons\.mail\.HtmlEmail|org\.apache\.commons\.mail\.Email)(?:\.[\w$]+|\.\*)\s*;)|(?:&lt;%@\s*page\b[^%]*\bimport\s*=\s*\&quot;[^\&quot;]*\b(?:org\.apache\.commons\.mail|org\.apache\.commons\.mail\.DefaultAuthenticator|org\.apache\.commons\.mail\.ByteArrayDataSource|org\.apache\.commons\.mail\.GenerateUniqueID|org\.apache\.commons\.mail\.EmailAttachment|org\.apache\.commons\.mail\.MultiPartEmail|org\.apache\.commons\.mail\.MailMessage|org\.apache\.commons\.mail\.SimpleEmail|org\.apache\.commons\.mail\.HtmlEmail|org\.apache\.commons\.mail\.Email)\.)|(?:\b(?:org\.apache\.commons\.mail|org\.apache\.commons\.mail\.DefaultAuthenticator|org\.apache\.commons\.mail\.ByteArrayDataSource|org\.apache\.commons\.mail\.GenerateUniqueID|org\.apache\.commons\.mail\.EmailAttachment|org\.apache\.commons\.mail\.MultiPartEmail|org\.apache\.commons\.mail\.MailMessage|org\.apache\.commons\.mail\.SimpleEmail|org\.apache\.commons\.mail\.HtmlEmail|org\.apache\.commons\.mail\.Email)\.[A-Za-z_$][\w$]*\b)"/>
+    <s v="Medium"/>
+    <s v="Pre-Release/Alpha"/>
+    <s v="Dual-runtime: replace alpha/beta/snapshot libraries with stable maintained releases that support Java 8; validate on JDK 21."/>
+    <s v="Replace"/>
+    <s v="Upgrade to stable release; verify runtime and security."/>
+    <s v="Medium"/>
+    <n v="1"/>
+    <n v="27"/>
+    <n v="1"/>
+    <s v="1-fpms"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="7"/>
+    <s v="(blank)"/>
+    <x v="3"/>
+    <s v="to verify runtime - New/Existing JAR &amp; New/Existing API ?"/>
+    <s v="to verify runtime - New/Existing JAR &amp; New/Existing API ?"/>
+    <s v="Dual-Replace-PreRelease"/>
+    <s v="(blank)"/>
+    <s v="(blank)"/>
+    <s v="P043"/>
+    <s v="UT043"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="43"/>
+    <s v="Set 3 - Third Party"/>
+    <s v="THIRD-PARTY (COMMON jar)"/>
+    <s v="commons-net-1.1.0.jar"/>
+    <s v="Third-party library present in application lib folder (exploded project)."/>
+    <s v="(?ms)(?:^\s*import\s+(?:static\s+)?(?:org\.apache\.commons\.net|org\.apache\.commons\.net\.ftp|org\.apache\.commons\.net\.telnet|org\.apache\.commons\.net\.io|org\.apache\.commons\.net\.tftp|org\.apache\.commons\.net\.nntp|org\.apache\.commons\.net\.smtp|org\.apache\.commons\.net\.pop3|org\.apache\.commons\.net\.bsd|org\.apache\.commons\.net\.MalformedServerReplyException)(?:\.[\w$]+|\.\*)\s*;)|(?:&lt;%@\s*page\b[^%]*\bimport\s*=\s*\&quot;[^\&quot;]*\b(?:org\.apache\.commons\.net|org\.apache\.commons\.net\.ftp|org\.apache\.commons\.net\.telnet|org\.apache\.commons\.net\.io|org\.apache\.commons\.net\.tftp|org\.apache\.commons\.net\.nntp|org\.apache\.commons\.net\.smtp|org\.apache\.commons\.net\.pop3|org\.apache\.commons\.net\.bsd|org\.apache\.commons\.net\.MalformedServerReplyException)\.)|(?:\b(?:org\.apache\.commons\.net|org\.apache\.commons\.net\.ftp|org\.apache\.commons\.net\.telnet|org\.apache\.commons\.net\.io|org\.apache\.commons\.net\.tftp|org\.apache\.commons\.net\.nntp|org\.apache\.commons\.net\.smtp|org\.apache\.commons\.net\.pop3|org\.apache\.commons\.net\.bsd|org\.apache\.commons\.net\.MalformedServerReplyException)\.[A-Za-z_$][\w$]*\b)"/>
+    <s v="Medium"/>
+    <s v="Third-Party Dependencies"/>
+    <s v="Dual-runtime: manage this dependency in Maven/Gradle and upgrade to a maintained Java-8-baseline release; validate on JDK 8 and JDK 21."/>
+    <s v="Upgrade/Replace"/>
+    <s v="Replace exploded lib with build-managed dependency; choose a release that supports Java 8 and test on JDK 21."/>
+    <s v="Medium"/>
+    <n v="0.5"/>
+    <n v="64"/>
+    <n v="4"/>
+    <s v="1-fpms"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="6"/>
+    <s v="(blank)"/>
+    <x v="3"/>
+    <s v="to verify runtime - New/Existing JAR &amp; New/Existing API ?"/>
+    <s v="to verify runtime - New/Existing JAR &amp; New/Existing API ?"/>
+    <s v="Dual-Review"/>
+    <s v="(blank)"/>
+    <s v="(blank)"/>
+    <s v="P044"/>
+    <s v="UT044"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="44"/>
+    <s v="Set 3 - Third Party"/>
+    <s v="THIRD-PARTY (CONCURRENCY jar)"/>
+    <s v="concurrent.jar"/>
+    <s v="Third-party library present in application lib folder (exploded project)."/>
+    <s v="(?ms)(?:^\s*import\s+(?:static\s+)?(?:EDU\.oswego\.cs\.dl\.util)(?:\.[\w$]+|\.\*)\s*;)|(?:&lt;%@\s*page\b[^%]*\bimport\s*=\s*\&quot;[^\&quot;]*\b(?:EDU\.oswego\.cs\.dl\.util)\.)|(?:\b(?:EDU\.oswego\.cs\.dl\.util)\.[A-Za-z_$][\w$]*\b)"/>
+    <s v="Medium"/>
+    <s v="Third-Party Dependencies"/>
+    <s v="Dual-runtime: manage this dependency in Maven/Gradle and upgrade to a maintained Java-8-baseline release; validate on JDK 8 and JDK 21."/>
+    <s v="Upgrade/Replace"/>
+    <s v="Replace exploded lib with build-managed dependency; choose a release that supports Java 8 and test on JDK 21."/>
+    <s v="Medium"/>
+    <n v="0.5"/>
+    <n v="103"/>
+    <n v="3"/>
+    <s v="1-fpms"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="JDK built?in concurrency package"/>
+    <x v="1"/>
+    <s v="NOT-SAFE"/>
+    <s v="to verify runtime - New JAR &amp; API ?"/>
+    <s v="Dual-Review"/>
+    <s v="(blank)"/>
+    <s v="(blank)"/>
+    <s v="P045"/>
+    <s v="UT045"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="45"/>
+    <s v="Set 3 - Third Party"/>
+    <s v="THIRD-PARTY (BARCODE jar)"/>
+    <s v="core-3.4.1.jar"/>
+    <s v="Third-party library present in application lib folder (exploded project)."/>
+    <s v="(?ms)(?:^\s*import\s+(?:static\s+)?(?:com\.google\.zxing|com\.google\.zxing\.oned|com\.google\.zxing\.qrcode|com\.google\.zxing\.client\.result|com\.google\.zxing\.oned\.rss|com\.google\.zxing\.pdf417|com\.google\.zxing\.datamatrix|com\.google\.zxing\.qrcode\.decoder|com\.google\.zxing\.common|com\.google\.zxing\.aztec)(?:\.[\w$]+|\.\*)\s*;)|(?:&lt;%@\s*page\b[^%]*\bimport\s*=\s*\&quot;[^\&quot;]*\b(?:com\.google\.zxing|com\.google\.zxing\.oned|com\.google\.zxing\.qrcode|com\.google\.zxing\.client\.result|com\.google\.zxing\.oned\.rss|com\.google\.zxing\.pdf417|com\.google\.zxing\.datamatrix|com\.google\.zxing\.qrcode\.decoder|com\.google\.zxing\.common|com\.google\.zxing\.aztec)\.)|(?:\b(?:com\.google\.zxing|com\.google\.zxing\.oned|com\.google\.zxing\.qrcode|com\.google\.zxing\.client\.result|com\.google\.zxing\.oned\.rss|com\.google\.zxing\.pdf417|com\.google\.zxing\.datamatrix|com\.google\.zxing\.qrcode\.decoder|com\.google\.zxing\.common|com\.google\.zxing\.aztec)\.[A-Za-z_$][\w$]*\b)"/>
+    <s v="Medium"/>
+    <s v="Third-Party Dependencies"/>
+    <s v="Dual-runtime: manage this dependency in Maven/Gradle and upgrade to a maintained Java-8-baseline release; validate on JDK 8 and JDK 21."/>
+    <s v="Upgrade/Replace"/>
+    <s v="Replace exploded lib with build-managed dependency; choose a release that supports Java 8 and test on JDK 21."/>
+    <s v="Medium"/>
+    <n v="0.5"/>
+    <n v="80"/>
+    <n v="6"/>
+    <s v="1-fpms"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="6"/>
+    <s v="(blank)"/>
+    <x v="3"/>
+    <s v="to verify runtime - New/Existing JAR &amp; New/Existing API ?"/>
+    <s v="to verify runtime - New/Existing JAR &amp; New/Existing API ?"/>
+    <s v="Dual-Review"/>
+    <s v="(blank)"/>
+    <s v="(blank)"/>
+    <s v="P046"/>
+    <s v="UT046"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="46"/>
+    <s v="Set 3 - Third Party"/>
+    <s v="THIRD-PARTY (DOM4J jar)"/>
+    <s v="dom4j-1.5-rc1.jar"/>
+    <s v="Third-party library present in application lib folder (exploded project)."/>
+    <s v="(?ms)(?:^\s*import\s+(?:static\s+)?(?:org\.dom4j|org\.dom4j\.tree|org\.dom4j\.io|org\.dom4j\.dom|org\.dom4j\.rule|org\.dom4j\.util|org\.dom4j\.persistence|org\.dom4j\.swing|org\.dom4j\.datatype|org\.dom4j\.bean)(?:\.[\w$]+|\.\*)\s*;)|(?:&lt;%@\s*page\b[^%]*\bimport\s*=\s*\&quot;[^\&quot;]*\b(?:org\.dom4j|org\.dom4j\.tree|org\.dom4j\.io|org\.dom4j\.dom|org\.dom4j\.rule|org\.dom4j\.util|org\.dom4j\.persistence|org\.dom4j\.swing|org\.dom4j\.datatype|org\.dom4j\.bean)\.)|(?:\b(?:org\.dom4j|org\.dom4j\.tree|org\.dom4j\.io|org\.dom4j\.dom|org\.dom4j\.rule|org\.dom4j\.util|org\.dom4j\.persistence|org\.dom4j\.swing|org\.dom4j\.datatype|org\.dom4j\.bean)\.[A-Za-z_$][\w$]*\b)"/>
+    <s v="Medium"/>
+    <s v="Third-Party Dependencies"/>
+    <s v="Dual-runtime: manage this dependency in Maven/Gradle and upgrade to a maintained Java-8-baseline release; validate on JDK 8 and JDK 21."/>
+    <s v="Upgrade/Replace"/>
+    <s v="Replace exploded lib with build-managed dependency; choose a release that supports Java 8 and test on JDK 21."/>
+    <s v="Medium"/>
+    <n v="0.5"/>
+    <n v="79"/>
+    <n v="14"/>
+    <s v="1-fpms"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="6"/>
+    <s v="(blank)"/>
+    <x v="3"/>
+    <s v="to verify runtime - New/Existing JAR &amp; New/Existing API ?"/>
+    <s v="to verify runtime - New/Existing JAR &amp; New/Existing API ?"/>
+    <s v="Dual-Review"/>
+    <s v="(blank)"/>
+    <s v="(blank)"/>
+    <s v="P047"/>
+    <s v="UT047"/>
+    <n v="14"/>
+  </r>
+  <r>
+    <x v="47"/>
+    <s v="Set 3 - Third Party"/>
+    <s v="THIRD-PARTY (CONCURRENCY jar)"/>
+    <s v="EDU.jar"/>
+    <s v="Third-party library present in application lib folder (exploded project)."/>
+    <s v="(?ms)(?:^\s*import\s+(?:static\s+)?(?:EDU\.oswego\.cs\.dl\.util)(?:\.[\w$]+|\.\*)\s*;)|(?:&lt;%@\s*page\b[^%]*\bimport\s*=\s*\&quot;[^\&quot;]*\b(?:EDU\.oswego\.cs\.dl\.util)\.)|(?:\b(?:EDU\.oswego\.cs\.dl\.util)\.[A-Za-z_$][\w$]*\b)"/>
+    <s v="Medium"/>
+    <s v="Third-Party Dependencies"/>
+    <s v="Dual-runtime: manage this dependency in Maven/Gradle and upgrade to a maintained Java-8-baseline release; validate on JDK 8 and JDK 21."/>
+    <s v="Upgrade/Replace"/>
+    <s v="Replace exploded lib with build-managed dependency; choose a release that supports Java 8 and test on JDK 21."/>
+    <s v="Medium"/>
+    <n v="0.5"/>
+    <n v="104"/>
+    <n v="3"/>
+    <s v="1-fpms"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="JDK built?in concurrency package"/>
+    <x v="1"/>
+    <s v="NOT-SAFE"/>
+    <s v="to verify runtime - New JAR &amp; API ?"/>
+    <s v="Dual-Review"/>
+    <s v="(blank)"/>
+    <s v="(blank)"/>
+    <s v="P048"/>
+    <s v="UT048"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="48"/>
+    <s v="Set 3 - Third Party"/>
+    <s v="THIRD-PARTY (FOP jar)"/>
+    <s v="fop.jar"/>
+    <s v="Third-party library present in application lib folder (exploded project)."/>
+    <s v="(?ms)(?:^\s*import\s+(?:static\s+)?(?:org\.apache\.fop|org\.apache\.fop\.fo|org\.apache\.fop\.fo\.properties|org\.apache\.fop\.fo\.flow|org\.apache\.fop\.render|org\.apache\.fop\.pdf|org\.apache\.fop\.layout|org\.apache\.fop\.viewer|org\.apache\.fop\.fo\.pagination|org\.apache\.fop\.mif)(?:\.[\w$]+|\.\*)\s*;)|(?:&lt;%@\s*page\b[^%]*\bimport\s*=\s*\&quot;[^\&quot;]*\b(?:org\.apache\.fop|org\.apache\.fop\.fo|org\.apache\.fop\.fo\.properties|org\.apache\.fop\.fo\.flow|org\.apache\.fop\.render|org\.apache\.fop\.pdf|org\.apache\.fop\.layout|org\.apache\.fop\.viewer|org\.apache\.fop\.fo\.pagination|org\.apache\.fop\.mif)\.)|(?:\b(?:org\.apache\.fop|org\.apache\.fop\.fo|org\.apache\.fop\.fo\.properties|org\.apache\.fop\.fo\.flow|org\.apache\.fop\.render|org\.apache\.fop\.pdf|org\.apache\.fop\.layout|org\.apache\.fop\.viewer|org\.apache\.fop\.fo\.pagination|org\.apache\.fop\.mif)\.[A-Za-z_$][\w$]*\b)"/>
+    <s v="Medium"/>
+    <s v="Third-Party Dependencies"/>
+    <s v="Dual-runtime: manage this dependency in Maven/Gradle and upgrade to a maintained Java-8-baseline release; validate on JDK 8 and JDK 21."/>
+    <s v="Upgrade/Replace"/>
+    <s v="Replace exploded lib with build-managed dependency; choose a release that supports Java 8 and test on JDK 21."/>
+    <s v="Medium"/>
+    <n v="0.5"/>
+    <n v="71"/>
+    <n v="88"/>
+    <s v="1-fpms"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="6"/>
+    <s v="(blank)"/>
+    <x v="3"/>
+    <s v="to verify runtime - New/Existing JAR &amp; New/Existing API ?"/>
+    <s v="to verify runtime - New/Existing JAR &amp; New/Existing API ?"/>
+    <s v="Dual-Review;POM"/>
+    <s v="(blank)"/>
+    <s v="(blank)"/>
+    <s v="P049"/>
+    <s v="UT049"/>
+    <n v="88"/>
+  </r>
+  <r>
+    <x v="49"/>
+    <s v="Set 3 - Third Party"/>
+    <s v="THIRD-PARTY (OC4J jar)"/>
+    <s v="framework-1.3.2.jar"/>
+    <s v="Third-party library present in application lib folder (exploded project)."/>
+    <s v="(?ms)(?:^\s*import\s+(?:static\s+)?(?:org\.identityconnectors|org\.identityconnectors\.framework|org\.identityconnectors\.framework\.common|org\.identityconnectors\.framework\.common\.objects|org\.identityconnectors\.common|org\.identityconnectors\.framework\.api|org\.identityconnectors\.framework\.spi|org\.identityconnectors\.framework\.api\.operations|org\.identityconnectors\.framework\.common\.exceptions|org\.identityconnectors\.framework\.spi\.operations)(?:\.[\w$]+|\.\*)\s*;)|(?:&lt;%@\s*page\b[^%]*\bimport\s*=\s*\&quot;[^\&quot;]*\b(?:org\.identityconnectors|org\.identityconnectors\.framework|org\.identityconnectors\.framework\.common|org\.identityconnectors\.framework\.common\.objects|org\.identityconnectors\.common|org\.identityconnectors\.framework\.api|org\.identityconnectors\.framework\.spi|org\.identityconnectors\.framework\.api\.operations|org\.identityconnectors\.framework\.common\.exceptions|org\.identityconnectors\.framework\.spi\.operations)\.)|(?:\b(?:org\.identityconnectors|org\.identityconnectors\.framework|org\.identityconnectors\.framework\.common|org\.identityconnectors\.framework\.common\.objects|org\.identityconnectors\.common|org\.identityconnectors\.framework\.api|org\.identityconnectors\.framework\.spi|org\.identityconnectors\.framework\.api\.operations|org\.identityconnectors\.framework\.common\.exceptions|org\.identityconnectors\.framework\.spi\.operations)\.[A-Za-z_$][\w$]*\b)"/>
+    <s v="Medium"/>
+    <s v="Third-Party Dependencies"/>
+    <s v="Dual-runtime: manage this dependency in Maven/Gradle and upgrade to a maintained Java-8-baseline release; validate on JDK 8 and JDK 21."/>
+    <s v="Upgrade/Replace"/>
+    <s v="Replace exploded lib with build-managed dependency; choose a release that supports Java 8 and test on JDK 21."/>
+    <s v="Medium"/>
+    <n v="0.5"/>
+    <n v="115"/>
+    <n v="30"/>
+    <s v="1-fpms"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="framework?1.4.2.jar"/>
+    <x v="4"/>
+    <s v="to verify runtime - New JAR &amp; API ?"/>
+    <s v="to verify runtime - New JAR &amp; API ?"/>
+    <s v="Dual-Review"/>
+    <s v="(blank)"/>
+    <s v="(blank)"/>
+    <s v="P050"/>
+    <s v="UT050"/>
+    <n v="30"/>
+  </r>
+  <r>
+    <x v="50"/>
+    <s v="Set 3 - Third Party"/>
+    <s v="THIRD-PARTY (INTERNAL jar)"/>
+    <s v="gel_ciom.jar"/>
+    <s v="Third-party library present in application lib folder (exploded project)."/>
+    <s v="(?ms)(?:^\s*import\s+(?:static\s+)?(?:com\.ebao\.ls\.ih\.eai)(?:\.[\w$]+|\.\*)\s*;)|(?:&lt;%@\s*page\b[^%]*\bimport\s*=\s*\&quot;[^\&quot;]*\b(?:com\.ebao\.ls\.ih\.eai)\.)|(?:\b(?:com\.ebao\.ls\.ih\.eai)\.[A-Za-z_$][\w$]*\b)"/>
+    <s v="Medium"/>
+    <s v="Third-Party Dependencies"/>
+    <s v="Dual-runtime: manage this dependency in Maven/Gradle and upgrade to a maintained Java-8-baseline release; validate on JDK 8 and JDK 21."/>
+    <s v="Upgrade/Replace"/>
+    <s v="Replace exploded lib with build-managed dependency; choose a release that supports Java 8 and test on JDK 21."/>
+    <s v="Medium"/>
+    <n v="0.5"/>
+    <n v="98"/>
+    <n v="5158"/>
+    <s v="1-fpms"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="(blank)"/>
+    <x v="2"/>
+    <s v="to verify runtime - New JAR &amp; API ?"/>
+    <s v="to verify runtime - ExitingAPI / NewAPI ?"/>
+    <s v="Dual-Review"/>
+    <s v="(blank)"/>
+    <s v="(blank)"/>
+    <s v="P051"/>
+    <s v="UT051"/>
+    <n v="5158"/>
+  </r>
+  <r>
+    <x v="51"/>
+    <s v="Set 3 - Third Party"/>
+    <s v="THIRD-PARTY (INTERNAL jar)"/>
+    <s v="gel_epay_online.jar"/>
+    <s v="Third-party library present in application lib folder (exploded project)."/>
+    <s v="(?ms)(?:^\s*import\s+(?:static\s+)?(?:com\.ebao\.ls\.ih\.epay)(?:\.[\w$]+|\.\*)\s*;)|(?:&lt;%@\s*page\b[^%]*\bimport\s*=\s*\&quot;[^\&quot;]*\b(?:com\.ebao\.ls\.ih\.epay)\.)|(?:\b(?:com\.ebao\.ls\.ih\.epay)\.[A-Za-z_$][\w$]*\b)"/>
+    <s v="Medium"/>
+    <s v="Third-Party Dependencies"/>
+    <s v="Dual-runtime: manage this dependency in Maven/Gradle and upgrade to a maintained Java-8-baseline release; validate on JDK 8 and JDK 21."/>
+    <s v="Upgrade/Replace"/>
+    <s v="Replace exploded lib with build-managed dependency; choose a release that supports Java 8 and test on JDK 21."/>
+    <s v="Medium"/>
+    <n v="0.5"/>
+    <n v="99"/>
+    <n v="62"/>
+    <s v="1-fpms"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="(blank)"/>
+    <x v="2"/>
+    <s v="to verify runtime - New JAR &amp; API ?"/>
+    <s v="to verify runtime - ExitingAPI / NewAPI ?"/>
+    <s v="Dual-Review"/>
+    <s v="(blank)"/>
+    <s v="(blank)"/>
+    <s v="P052"/>
+    <s v="UT052"/>
+    <n v="62"/>
+  </r>
+  <r>
+    <x v="52"/>
+    <s v="Set 3 - Third Party"/>
+    <s v="THIRD-PARTY (HIBERNATE jar)"/>
+    <s v="hibernate2.jar"/>
+    <s v="Third-party library present in application lib folder (exploded project)."/>
+    <s v="(?ms)(?:^\s*import\s+(?:static\s+)?(?:net\.sf\.hibernate|net\.sf\.hibernate\.type|net\.sf\.hibernate\.impl|net\.sf\.hibernate\.expression|net\.sf\.hibernate\.engine|net\.sf\.hibernate\.mapping|net\.sf\.hibernate\.cache|net\.sf\.hibernate\.dialect|net\.sf\.hibernate\.collection|net\.sf\.hibernate\.cfg)(?:\.[\w$]+|\.\*)\s*;)|(?:&lt;%@\s*page\b[^%]*\bimport\s*=\s*\&quot;[^\&quot;]*\b(?:net\.sf\.hibernate|net\.sf\.hibernate\.type|net\.sf\.hibernate\.impl|net\.sf\.hibernate\.expression|net\.sf\.hibernate\.engine|net\.sf\.hibernate\.mapping|net\.sf\.hibernate\.cache|net\.sf\.hibernate\.dialect|net\.sf\.hibernate\.collection|net\.sf\.hibernate\.cfg)\.)|(?:\b(?:net\.sf\.hibernate|net\.sf\.hibernate\.type|net\.sf\.hibernate\.impl|net\.sf\.hibernate\.expression|net\.sf\.hibernate\.engine|net\.sf\.hibernate\.mapping|net\.sf\.hibernate\.cache|net\.sf\.hibernate\.dialect|net\.sf\.hibernate\.collection|net\.sf\.hibernate\.cfg)\.[A-Za-z_$][\w$]*\b)"/>
+    <s v="Medium"/>
+    <s v="Third-Party Dependencies"/>
+    <s v="Dual-runtime: manage this dependency in Maven/Gradle and upgrade to a maintained Java-8-baseline release; validate on JDK 8 and JDK 21."/>
+    <s v="Upgrade/Replace"/>
+    <s v="Replace exploded lib with build-managed dependency; choose a release that supports Java 8 and test on JDK 21."/>
+    <s v="Medium"/>
+    <n v="0.5"/>
+    <n v="102"/>
+    <n v="3362"/>
+    <s v="1-fpms"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v=" Hibernate 6.1.jar"/>
+    <x v="1"/>
+    <s v="NOT-SAFE"/>
+    <s v="to verify runtime - New JAR &amp; API ?"/>
+    <s v="Dual-Review"/>
+    <s v="(blank)"/>
+    <s v="(blank)"/>
+    <s v="P053"/>
+    <s v="UT053"/>
+    <n v="3362"/>
+  </r>
+  <r>
+    <x v="53"/>
+    <s v="Set 3 - Third Party"/>
+    <s v="THIRD-PARTY (HTTP jar)"/>
+    <s v="httpclient.jar"/>
+    <s v="Third-party library present in application lib folder (exploded project)."/>
+    <s v="(?ms)(?:^\s*import\s+(?:static\s+)?(?:org\.apache\.http|org\.apache\.http\.impl|org\.apache\.http\.client|org\.apache\.http\.conn|org\.apache\.http\.impl\.conn|org\.apache\.http\.impl\.client|org\.apache\.http\.impl\.cookie|org\.apache\.http\.impl\.auth|org\.apache\.http\.client\.methods|org\.apache\.http\.auth)(?:\.[\w$]+|\.\*)\s*;)|(?:&lt;%@\s*page\b[^%]*\bimport\s*=\s*\&quot;[^\&quot;]*\b(?:org\.apache\.http|org\.apache\.http\.impl|org\.apache\.http\.client|org\.apache\.http\.conn|org\.apache\.http\.impl\.conn|org\.apache\.http\.impl\.client|org\.apache\.http\.impl\.cookie|org\.apache\.http\.impl\.auth|org\.apache\.http\.client\.methods|org\.apache\.http\.auth)\.)|(?:\b(?:org\.apache\.http|org\.apache\.http\.impl|org\.apache\.http\.client|org\.apache\.http\.conn|org\.apache\.http\.impl\.conn|org\.apache\.http\.impl\.client|org\.apache\.http\.impl\.cookie|org\.apache\.http\.impl\.auth|org\.apache\.http\.client\.methods|org\.apache\.http\.auth)\.[A-Za-z_$][\w$]*\b)"/>
+    <s v="Medium"/>
+    <s v="HTTP Client Migration"/>
+    <s v="Dual-runtime: migrate from HttpClient 3.x APIs to HttpClient 4.5.x/5.x (Java 8+); refactor code; test on both runtimes."/>
+    <s v="Refactor"/>
+    <s v="Replace API usages; verify timeouts/pooling/TLS."/>
+    <s v="Medium"/>
+    <n v="1.5"/>
+    <n v="89"/>
+    <n v="10"/>
+    <s v="1-fpms"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="(blank)"/>
+    <x v="1"/>
+    <s v="NOT-SAFE"/>
+    <s v="to verify runtime - New JAR &amp; API ?"/>
+    <s v="Dual-HttpClient-Refactor"/>
+    <s v="(blank)"/>
+    <s v="(blank)"/>
+    <s v="P054"/>
+    <s v="UT054"/>
+    <n v="10"/>
+  </r>
+  <r>
+    <x v="54"/>
+    <s v="Set 3 - Third Party"/>
+    <s v="THIRD-PARTY (HTTP jar)"/>
+    <s v="httpcore.jar"/>
+    <s v="Third-party library present in application lib folder (exploded project)."/>
+    <s v="(?ms)(?:^\s*import\s+(?:static\s+)?(?:org\.apache\.http|org\.apache\.http\.impl|org\.apache\.http\.protocol|org\.apache\.http\.impl\.io|org\.apache\.http\.message|org\.apache\.http\.params|org\.apache\.http\.entity|org\.apache\.http\.util|org\.apache\.http\.pool|org\.apache\.http\.config)(?:\.[\w$]+|\.\*)\s*;)|(?:&lt;%@\s*page\b[^%]*\bimport\s*=\s*\&quot;[^\&quot;]*\b(?:org\.apache\.http|org\.apache\.http\.impl|org\.apache\.http\.protocol|org\.apache\.http\.impl\.io|org\.apache\.http\.message|org\.apache\.http\.params|org\.apache\.http\.entity|org\.apache\.http\.util|org\.apache\.http\.pool|org\.apache\.http\.config)\.)|(?:\b(?:org\.apache\.http|org\.apache\.http\.impl|org\.apache\.http\.protocol|org\.apache\.http\.impl\.io|org\.apache\.http\.message|org\.apache\.http\.params|org\.apache\.http\.entity|org\.apache\.http\.util|org\.apache\.http\.pool|org\.apache\.http\.config)\.[A-Za-z_$][\w$]*\b)"/>
+    <s v="Medium"/>
+    <s v="Third-Party Dependencies"/>
+    <s v="Dual-runtime: manage this dependency in Maven/Gradle and upgrade to a maintained Java-8-baseline release; validate on JDK 8 and JDK 21."/>
+    <s v="Upgrade/Replace"/>
+    <s v="Replace exploded lib with build-managed dependency; choose a release that supports Java 8 and test on JDK 21."/>
+    <s v="Medium"/>
+    <n v="0.5"/>
+    <n v="67"/>
+    <n v="10"/>
+    <s v="1-fpms"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="6"/>
+    <s v="(blank)"/>
+    <x v="3"/>
+    <s v="to verify runtime - New/Existing JAR &amp; New/Existing API ?"/>
+    <s v="to verify runtime - New/Existing JAR &amp; New/Existing API ?"/>
+    <s v="Dual-Review"/>
+    <s v="(blank)"/>
+    <s v="(blank)"/>
+    <s v="P055"/>
+    <s v="UT055"/>
+    <n v="10"/>
+  </r>
+  <r>
+    <x v="55"/>
+    <s v="Set 3 - Third Party"/>
+    <s v="THIRD-PARTY (IBM jar)"/>
+    <s v="ibmjcefips.jar"/>
+    <s v="Third-party library present in application lib folder (exploded project)."/>
+    <s v="(?ms)(?:^\s*import\s+(?:static\s+)?(?:com\.ibm|com\.ibm\.crypto\.fips\.provider|com\.ibm\.Copyright)(?:\.[\w$]+|\.\*)\s*;)|(?:&lt;%@\s*page\b[^%]*\bimport\s*=\s*\&quot;[^\&quot;]*\b(?:com\.ibm|com\.ibm\.crypto\.fips\.provider|com\.ibm\.Copyright)\.)|(?:\b(?:com\.ibm|com\.ibm\.crypto\.fips\.provider|com\.ibm\.Copyright)\.[A-Za-z_$][\w$]*\b)"/>
+    <s v="Medium"/>
+    <s v="Crypto Providers"/>
+    <s v="Dual-runtime: upgrade crypto providers to Java-8-baseline releases and validate provider configuration on JDK 8 and JDK 21."/>
+    <s v="Upgrade"/>
+    <s v="Upgrade provider jars; validate provider order/FIPS/TLS."/>
+    <s v="Medium"/>
+    <n v="1"/>
+    <n v="38"/>
+    <n v="39"/>
+    <s v="1-fpms"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="6"/>
+    <s v="bc-fips-1.0.2.5.jar,bctls-fips-1.0.20"/>
+    <x v="1"/>
+    <s v="NOT-SAFE"/>
+    <s v="to verify runtime - New JAR &amp; API ?"/>
+    <s v="Dual-Crypto"/>
+    <s v="(blank)"/>
+    <s v="(blank)"/>
+    <s v="P056"/>
+    <s v="UT056"/>
+    <n v="39"/>
+  </r>
+  <r>
+    <x v="56"/>
+    <s v="Set 3 - Third Party"/>
+    <s v="THIRD-PARTY (IBM jar)"/>
+    <s v="ibmjceprovider.jar"/>
+    <s v="Third-party library present in application lib folder (exploded project)."/>
+    <s v="(?ms)(?:^\s*import\s+(?:static\s+)?(?:com\.ibm|com\.ibm\.crypto|com\.ibm\.crypto\.provider|com\.ibm\.crypto\.tools|com\.ibm\.crypto\.provider\.safkeyring|com\.ibm\.crypto\.provider\.PBEWithSHAAnd2KeyTripleDESCipher|com\.ibm\.crypto\.provider\.PBEWithSHAAnd3KeyTripleDESCipher|com\.ibm\.crypto\.provider\.PBEWithSHA1AndTripleDESCipher|com\.ibm\.crypto\.provider\.PBEWithMD2AndTripleDESCipher|com\.ibm\.crypto\.provider\.PBEWithMD5AndTripleDESCipher)(?:\.[\w$]+|\.\*)\s*;)|(?:&lt;%@\s*page\b[^%]*\bimport\s*=\s*\&quot;[^\&quot;]*\b(?:com\.ibm|com\.ibm\.crypto|com\.ibm\.crypto\.provider|com\.ibm\.crypto\.tools|com\.ibm\.crypto\.provider\.safkeyring|com\.ibm\.crypto\.provider\.PBEWithSHAAnd2KeyTripleDESCipher|com\.ibm\.crypto\.provider\.PBEWithSHAAnd3KeyTripleDESCipher|com\.ibm\.crypto\.provider\.PBEWithSHA1AndTripleDESCipher|com\.ibm\.crypto\.provider\.PBEWithMD2AndTripleDESCipher|com\.ibm\.crypto\.provider\.PBEWithMD5AndTripleDESCipher)\.)|(?:\b(?:com\.ibm|com\.ibm\.crypto|com\.ibm\.crypto\.provider|com\.ibm\.crypto\.tools|com\.ibm\.crypto\.provider\.safkeyring|com\.ibm\.crypto\.provider\.PBEWithSHAAnd2KeyTripleDESCipher|com\.ibm\.crypto\.provider\.PBEWithSHAAnd3KeyTripleDESCipher|com\.ibm\.crypto\.provider\.PBEWithSHA1AndTripleDESCipher|com\.ibm\.crypto\.provider\.PBEWithMD2AndTripleDESCipher|com\.ibm\.crypto\.provider\.PBEWithMD5AndTripleDESCipher)\.[A-Za-z_$][\w$]*\b)"/>
+    <s v="Medium"/>
+    <s v="Crypto Providers"/>
+    <s v="Dual-runtime: upgrade crypto providers to Java-8-baseline releases and validate provider configuration on JDK 8 and JDK 21."/>
+    <s v="Upgrade"/>
+    <s v="Upgrade provider jars; validate provider order/FIPS/TLS."/>
+    <s v="Medium"/>
+    <n v="1"/>
+    <n v="51"/>
+    <n v="39"/>
+    <s v="1-fpms"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="6"/>
+    <s v="bc-fips-1.0.2.5.jar,bctls-fips-1.0.20"/>
+    <x v="4"/>
+    <s v="to verify runtime - New JAR &amp; API ?"/>
+    <s v="to verify runtime - New JAR &amp; API ?"/>
+    <s v="Dual-Crypto"/>
+    <s v="(blank)"/>
+    <s v="(blank)"/>
+    <s v="P057"/>
+    <s v="UT057"/>
+    <n v="39"/>
+  </r>
+  <r>
+    <x v="57"/>
+    <s v="Set 3 - Third Party"/>
+    <s v="THIRD-PARTY (IBM jar)"/>
+    <s v="ibmjsseprovider2.jar"/>
+    <s v="Third-party library present in application lib folder (exploded project)."/>
+    <s v="(?ms)(?:^\s*import\s+(?:static\s+)?(?:com\.ibm|com\.ibm\.jsse2|com\.ibm\.net\.ssl\.www2|com\.ibm\.jsse2\.util|com\.ibm\.jsse|com\.ibm\.compat|com\.ibm\.jsse2\.ProtoSSLEngineResult\$Status|com\.ibm\.jsse2\.SSLServerSocketFactoryImpl|com\.ibm\.jsse2\.HostnameVerifierIgnore|com\.ibm\.jsse2\.SSLSocketFactoryImpl)(?:\.[\w$]+|\.\*)\s*;)|(?:&lt;%@\s*page\b[^%]*\bimport\s*=\s*\&quot;[^\&quot;]*\b(?:com\.ibm|com\.ibm\.jsse2|com\.ibm\.net\.ssl\.www2|com\.ibm\.jsse2\.util|com\.ibm\.jsse|com\.ibm\.compat|com\.ibm\.jsse2\.ProtoSSLEngineResult\$Status|com\.ibm\.jsse2\.SSLServerSocketFactoryImpl|com\.ibm\.jsse2\.HostnameVerifierIgnore|com\.ibm\.jsse2\.SSLSocketFactoryImpl)\.)|(?:\b(?:com\.ibm|com\.ibm\.jsse2|com\.ibm\.net\.ssl\.www2|com\.ibm\.jsse2\.util|com\.ibm\.jsse|com\.ibm\.compat|com\.ibm\.jsse2\.ProtoSSLEngineResult\$Status|com\.ibm\.jsse2\.SSLServerSocketFactoryImpl|com\.ibm\.jsse2\.HostnameVerifierIgnore|com\.ibm\.jsse2\.SSLSocketFactoryImpl)\.[A-Za-z_$][\w$]*\b)"/>
+    <s v="Medium"/>
+    <s v="Crypto Providers"/>
+    <s v="Dual-runtime: upgrade crypto providers to Java-8-baseline releases and validate provider configuration on JDK 8 and JDK 21."/>
+    <s v="Upgrade"/>
+    <s v="Upgrade provider jars; validate provider order/FIPS/TLS."/>
+    <s v="Medium"/>
+    <n v="1"/>
+    <n v="52"/>
+    <n v="39"/>
+    <s v="1-fpms"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="6"/>
+    <s v="bc-fips-1.0.2.5.jar,bctls-fips-1.0.20.jar"/>
+    <x v="4"/>
+    <s v="to verify runtime - New JAR &amp; API ?"/>
+    <s v="to verify runtime - New JAR &amp; API ?"/>
+    <s v="Dual-Crypto"/>
+    <s v="(blank)"/>
+    <s v="(blank)"/>
+    <s v="P058"/>
+    <s v="UT058"/>
+    <n v="39"/>
+  </r>
+  <r>
+    <x v="58"/>
+    <s v="Set 3 - Third Party"/>
+    <s v="THIRD-PARTY (PDF jar)"/>
+    <s v="itext-1.3.jar"/>
+    <s v="Third-party library present in application lib folder (exploded project)."/>
+    <s v="(?ms)(?:^\s*import\s+(?:static\s+)?(?:com\.lowagie|com\.lowagie\.text|com\.lowagie\.text\.pdf|com\.lowagie\.text\.pdf\.codec|com\.lowagie\.text\.rtf|com\.lowagie\.bc\.asn1|com\.lowagie\.tools|com\.lowagie\.text\.html|com\.lowagie\.text\.pdf\.hyphenation|com\.lowagie\.text\.xml)(?:\.[\w$]+|\.\*)\s*;)|(?:&lt;%@\s*page\b[^%]*\bimport\s*=\s*\&quot;[^\&quot;]*\b(?:com\.lowagie|com\.lowagie\.text|com\.lowagie\.text\.pdf|com\.lowagie\.text\.pdf\.codec|com\.lowagie\.text\.rtf|com\.lowagie\.bc\.asn1|com\.lowagie\.tools|com\.lowagie\.text\.html|com\.lowagie\.text\.pdf\.hyphenation|com\.lowagie\.text\.xml)\.)|(?:\b(?:com\.lowagie|com\.lowagie\.text|com\.lowagie\.text\.pdf|com\.lowagie\.text\.pdf\.codec|com\.lowagie\.text\.rtf|com\.lowagie\.bc\.asn1|com\.lowagie\.tools|com\.lowagie\.text\.html|com\.lowagie\.text\.pdf\.hyphenation|com\.lowagie\.text\.xml)\.[A-Za-z_$][\w$]*\b)"/>
+    <s v="Medium"/>
+    <s v="Third-Party Dependencies"/>
+    <s v="Dual-runtime: manage this dependency in Maven/Gradle and upgrade to a maintained Java-8-baseline release; validate on JDK 8 and JDK 21."/>
+    <s v="Upgrade/Replace"/>
+    <s v="Replace exploded lib with build-managed dependency; choose a release that supports Java 8 and test on JDK 21."/>
+    <s v="Medium"/>
+    <n v="0.5"/>
+    <n v="40"/>
+    <n v="20"/>
+    <s v="1-fpms"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="6"/>
+    <s v="(blank)"/>
+    <x v="3"/>
+    <s v="to verify runtime - New/Existing JAR &amp; New/Existing API ?"/>
+    <s v="to verify runtime - New/Existing JAR &amp; New/Existing API ?"/>
+    <s v="Dual-Review"/>
+    <s v="(blank)"/>
+    <s v="(blank)"/>
+    <s v="P059"/>
+    <s v="UT059"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <x v="59"/>
+    <s v="Set 3 - Third Party"/>
+    <s v="THIRD-PARTY (JACKSON jar)"/>
+    <s v="jackson-annotations-2.8.8.jar"/>
+    <s v="Third-party library present in application lib folder (exploded project)."/>
+    <s v="(?ms)(?:^\s*import\s+(?:static\s+)?(?:com\.fasterxml\.jackson\.annotation|com\.fasterxml\.jackson\.annotation\.ObjectIdGenerators\$IntSequenceGenerator|com\.fasterxml\.jackson\.annotation\.ObjectIdGenerators\$PropertyGenerator|com\.fasterxml\.jackson\.annotation\.ObjectIdGenerators\$StringIdGenerator|com\.fasterxml\.jackson\.annotation\.ObjectIdGenerators\$UUIDGenerator|com\.fasterxml\.jackson\.annotation\.JsonIgnoreProperties\$Value|com\.fasterxml\.jackson\.annotation\.JsonAutoDetect\$Visibility|com\.fasterxml\.jackson\.annotation\.JacksonAnnotationsInside|com\.fasterxml\.jackson\.annotation\.ObjectIdGenerators\$Base|com\.fasterxml\.jackson\.annotation\.ObjectIdGenerators\$None)(?:\.[\w$]+|\.\*)\s*;)|(?:&lt;%@\s*page\b[^%]*\bimport\s*=\s*\&quot;[^\&quot;]*\b(?:com\.fasterxml\.jackson\.annotation|com\.fasterxml\.jackson\.annotation\.ObjectIdGenerators\$IntSequenceGenerator|com\.fasterxml\.jackson\.annotation\.ObjectIdGenerators\$PropertyGenerator|com\.fasterxml\.jackson\.annotation\.ObjectIdGenerators\$StringIdGenerator|com\.fasterxml\.jackson\.annotation\.ObjectIdGenerators\$UUIDGenerator|com\.fasterxml\.jackson\.annotation\.JsonIgnoreProperties\$Value|com\.fasterxml\.jackson\.annotation\.JsonAutoDetect\$Visibility|com\.fasterxml\.jackson\.annotation\.JacksonAnnotationsInside|com\.fasterxml\.jackson\.annotation\.ObjectIdGenerators\$Base|com\.fasterxml\.jackson\.annotation\.ObjectIdGenerators\$None)\.)|(?:\b(?:com\.fasterxml\.jackson\.annotation|com\.fasterxml\.jackson\.annotation\.ObjectIdGenerators\$IntSequenceGenerator|com\.fasterxml\.jackson\.annotation\.ObjectIdGenerators\$PropertyGenerator|com\.fasterxml\.jackson\.annotation\.ObjectIdGenerators\$StringIdGenerator|com\.fasterxml\.jackson\.annotation\.ObjectIdGenerators\$UUIDGenerator|com\.fasterxml\.jackson\.annotation\.JsonIgnoreProperties\$Value|com\.fasterxml\.jackson\.annotation\.JsonAutoDetect\$Visibility|com\.fasterxml\.jackson\.annotation\.JacksonAnnotationsInside|com\.fasterxml\.jackson\.annotation\.ObjectIdGenerators\$Base|com\.fasterxml\.jackson\.annotation\.ObjectIdGenerators\$None)\.[A-Za-z_$][\w$]*\b)"/>
+    <s v="Medium"/>
+    <s v="JSON Binding"/>
+    <s v="Dual-runtime: upgrade Jackson to 2.15+ (Java 8 compatible) and keep modules aligned; validate on JDK 21."/>
+    <s v="Upgrade"/>
+    <s v="Upgrade jackson-* modules together; run regression tests."/>
+    <s v="Medium"/>
+    <n v="1"/>
+    <n v="44"/>
+    <n v="18"/>
+    <s v="1-fpms"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="6"/>
+    <s v="(blank)"/>
+    <x v="3"/>
+    <s v="to verify runtime - New/Existing JAR &amp; New/Existing API ?"/>
+    <s v="to verify runtime - New/Existing JAR &amp; New/Existing API ?"/>
+    <s v="Dual-Jackson"/>
+    <s v="(blank)"/>
+    <s v="(blank)"/>
+    <s v="P060"/>
+    <s v="UT060"/>
+    <n v="18"/>
+  </r>
+  <r>
+    <x v="60"/>
+    <s v="Set 3 - Third Party"/>
+    <s v="THIRD-PARTY (JACKSON jar)"/>
+    <s v="jackson-core-2.8.8.jar"/>
+    <s v="Third-party library present in application lib folder (exploded project)."/>
+    <s v="(?ms)(?:^\s*import\s+(?:static\s+)?(?:com\.fasterxml\.jackson\.core|com\.fasterxml\.jackson\.core\.util|com\.fasterxml\.jackson\.core\.io|com\.fasterxml\.jackson\.core\.json|com\.fasterxml\.jackson\.core\.sym|com\.fasterxml\.jackson\.core\.format|com\.fasterxml\.jackson\.core\.filter|com\.fasterxml\.jackson\.core\.base|com\.fasterxml\.jackson\.core\.type|com\.fasterxml\.jackson\.core\.JsonGenerationException)(?:\.[\w$]+|\.\*)\s*;)|(?:&lt;%@\s*page\b[^%]*\bimport\s*=\s*\&quot;[^\&quot;]*\b(?:com\.fasterxml\.jackson\.core|com\.fasterxml\.jackson\.core\.util|com\.fasterxml\.jackson\.core\.io|com\.fasterxml\.jackson\.core\.json|com\.fasterxml\.jackson\.core\.sym|com\.fasterxml\.jackson\.core\.format|com\.fasterxml\.jackson\.core\.filter|com\.fasterxml\.jackson\.core\.base|com\.fasterxml\.jackson\.core\.type|com\.fasterxml\.jackson\.core\.JsonGenerationException)\.)|(?:\b(?:com\.fasterxml\.jackson\.core|com\.fasterxml\.jackson\.core\.util|com\.fasterxml\.jackson\.core\.io|com\.fasterxml\.jackson\.core\.json|com\.fasterxml\.jackson\.core\.sym|com\.fasterxml\.jackson\.core\.format|com\.fasterxml\.jackson\.core\.filter|com\.fasterxml\.jackson\.core\.base|com\.fasterxml\.jackson\.core\.type|com\.fasterxml\.jackson\.core\.JsonGenerationException)\.[A-Za-z_$][\w$]*\b)"/>
+    <s v="Medium"/>
+    <s v="JSON Binding"/>
+    <s v="Dual-runtime: upgrade Jackson to 2.15+ (Java 8 compatible) and keep modules aligned; validate on JDK 21."/>
+    <s v="Upgrade"/>
+    <s v="Upgrade jackson-* modules together; run regression tests."/>
+    <s v="Medium"/>
+    <n v="1"/>
+    <n v="45"/>
+    <n v="16"/>
+    <s v="1-fpms"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="6"/>
+    <s v="(blank)"/>
+    <x v="3"/>
+    <s v="to verify runtime - New/Existing JAR &amp; New/Existing API ?"/>
+    <s v="to verify runtime - New/Existing JAR &amp; New/Existing API ?"/>
+    <s v="Dual-Jackson"/>
+    <s v="(blank)"/>
+    <s v="(blank)"/>
+    <s v="P061"/>
+    <s v="UT061"/>
+    <n v="16"/>
+  </r>
+  <r>
+    <x v="61"/>
+    <s v="Set 3 - Third Party"/>
+    <s v="THIRD-PARTY (JACKSON jar)"/>
+    <s v="jackson-databind-2.8.8.1.jar"/>
+    <s v="Third-party library present in application lib folder (exploded project)."/>
+    <s v="(?ms)(?:^\s*import\s+(?:static\s+)?(?:com\.fasterxml\.jackson\.databind|com\.fasterxml\.jackson\.databind\.deser|com\.fasterxml\.jackson\.databind\.ser|com\.fasterxml\.jackson\.databind\.util|com\.fasterxml\.jackson\.databind\.introspect|com\.fasterxml\.jackson\.databind\.node|com\.fasterxml\.jackson\.databind\.jsonFormatVisitors|com\.fasterxml\.jackson\.databind\.jsontype|com\.fasterxml\.jackson\.databind\.type|com\.fasterxml\.jackson\.databind\.annotation)(?:\.[\w$]+|\.\*)\s*;)|(?:&lt;%@\s*page\b[^%]*\bimport\s*=\s*\&quot;[^\&quot;]*\b(?:com\.fasterxml\.jackson\.databind|com\.fasterxml\.jackson\.databind\.deser|com\.fasterxml\.jackson\.databind\.ser|com\.fasterxml\.jackson\.databind\.util|com\.fasterxml\.jackson\.databind\.introspect|com\.fasterxml\.jackson\.databind\.node|com\.fasterxml\.jackson\.databind\.jsonFormatVisitors|com\.fasterxml\.jackson\.databind\.jsontype|com\.fasterxml\.jackson\.databind\.type|com\.fasterxml\.jackson\.databind\.annotation)\.)|(?:\b(?:com\.fasterxml\.jackson\.databind|com\.fasterxml\.jackson\.databind\.deser|com\.fasterxml\.jackson\.databind\.ser|com\.fasterxml\.jackson\.databind\.util|com\.fasterxml\.jackson\.databind\.introspect|com\.fasterxml\.jackson\.databind\.node|com\.fasterxml\.jackson\.databind\.jsonFormatVisitors|com\.fasterxml\.jackson\.databind\.jsontype|com\.fasterxml\.jackson\.databind\.type|com\.fasterxml\.jackson\.databind\.annotation)\.[A-Za-z_$][\w$]*\b)"/>
+    <s v="Medium"/>
+    <s v="JSON Binding"/>
+    <s v="Dual-runtime: upgrade Jackson to 2.15+ (Java 8 compatible) and keep modules aligned; validate on JDK 21."/>
+    <s v="Upgrade"/>
+    <s v="Upgrade jackson-* modules together; run regression tests."/>
+    <s v="Medium"/>
+    <n v="1"/>
+    <n v="46"/>
+    <n v="43"/>
+    <s v="1-fpms"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="6"/>
+    <s v="(blank)"/>
+    <x v="3"/>
+    <s v="to verify runtime - New/Existing JAR &amp; New/Existing API ?"/>
+    <s v="to verify runtime - New/Existing JAR &amp; New/Existing API ?"/>
+    <s v="Dual-Jackson"/>
+    <s v="(blank)"/>
+    <s v="(blank)"/>
+    <s v="P062"/>
+    <s v="UT062"/>
+    <n v="43"/>
+  </r>
+  <r>
+    <x v="62"/>
+    <s v="Set 3 - Third Party"/>
+    <s v="THIRD-PARTY (JACKSON jar)"/>
+    <s v="jackson-databind-2.8.8.jar"/>
+    <s v="Third-party library present in application lib folder (exploded project)."/>
+    <s v="(?ms)(?:^\s*import\s+(?:static\s+)?(?:com\.fasterxml\.jackson\.databind|com\.fasterxml\.jackson\.databind\.deser|com\.fasterxml\.jackson\.databind\.ser|com\.fasterxml\.jackson\.databind\.util|com\.fasterxml\.jackson\.databind\.introspect|com\.fasterxml\.jackson\.databind\.node|com\.fasterxml\.jackson\.databind\.jsonFormatVisitors|com\.fasterxml\.jackson\.databind\.jsontype|com\.fasterxml\.jackson\.databind\.type|com\.fasterxml\.jackson\.databind\.annotation)(?:\.[\w$]+|\.\*)\s*;)|(?:&lt;%@\s*page\b[^%]*\bimport\s*=\s*\&quot;[^\&quot;]*\b(?:com\.fasterxml\.jackson\.databind|com\.fasterxml\.jackson\.databind\.deser|com\.fasterxml\.jackson\.databind\.ser|com\.fasterxml\.jackson\.databind\.util|com\.fasterxml\.jackson\.databind\.introspect|com\.fasterxml\.jackson\.databind\.node|com\.fasterxml\.jackson\.databind\.jsonFormatVisitors|com\.fasterxml\.jackson\.databind\.jsontype|com\.fasterxml\.jackson\.databind\.type|com\.fasterxml\.jackson\.databind\.annotation)\.)|(?:\b(?:com\.fasterxml\.jackson\.databind|com\.fasterxml\.jackson\.databind\.deser|com\.fasterxml\.jackson\.databind\.ser|com\.fasterxml\.jackson\.databind\.util|com\.fasterxml\.jackson\.databind\.introspect|com\.fasterxml\.jackson\.databind\.node|com\.fasterxml\.jackson\.databind\.jsonFormatVisitors|com\.fasterxml\.jackson\.databind\.jsontype|com\.fasterxml\.jackson\.databind\.type|com\.fasterxml\.jackson\.databind\.annotation)\.[A-Za-z_$][\w$]*\b)"/>
+    <s v="Medium"/>
+    <s v="JSON Binding"/>
+    <s v="Dual-runtime: upgrade Jackson to 2.15+ (Java 8 compatible) and keep modules aligned; validate on JDK 21."/>
+    <s v="Upgrade"/>
+    <s v="Upgrade jackson-* modules together; run regression tests."/>
+    <s v="Medium"/>
+    <n v="1"/>
+    <n v="47"/>
+    <n v="43"/>
+    <s v="1-fpms"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="6"/>
+    <s v="(blank)"/>
+    <x v="3"/>
+    <s v="to verify runtime - New/Existing JAR &amp; New/Existing API ?"/>
+    <s v="to verify runtime - New/Existing JAR &amp; New/Existing API ?"/>
+    <s v="Dual-Jackson"/>
+    <s v="(blank)"/>
+    <s v="(blank)"/>
+    <s v="P063"/>
+    <s v="UT063"/>
+    <n v="43"/>
+  </r>
+  <r>
+    <x v="63"/>
+    <s v="Set 3 - Third Party"/>
+    <s v="THIRD-PARTY (CSV jar)"/>
+    <s v="javacsv.jar"/>
+    <s v="Third-party library present in application lib folder (exploded project)."/>
+    <s v="(?ms)(?:^\s*import\s+(?:static\s+)?(?:com\.csvreader|com\.csvreader\.CsvReader\$RawRecordBuffer|com\.csvreader\.CsvReader\$StaticSettings|com\.csvreader\.CsvReader\$ComplexEscape|com\.csvreader\.CsvReader\$HeadersHolder|com\.csvreader\.CsvReader\$UserSettings|com\.csvreader\.CsvWriter\$UserSettings|com\.csvreader\.CsvReader\$ColumnBuffer|com\.csvreader\.CsvReader\$DataBuffer|com\.csvreader\.CsvWriter\$Letters)(?:\.[\w$]+|\.\*)\s*;)|(?:&lt;%@\s*page\b[^%]*\bimport\s*=\s*\&quot;[^\&quot;]*\b(?:com\.csvreader|com\.csvreader\.CsvReader\$RawRecordBuffer|com\.csvreader\.CsvReader\$StaticSettings|com\.csvreader\.CsvReader\$ComplexEscape|com\.csvreader\.CsvReader\$HeadersHolder|com\.csvreader\.CsvReader\$UserSettings|com\.csvreader\.CsvWriter\$UserSettings|com\.csvreader\.CsvReader\$ColumnBuffer|com\.csvreader\.CsvReader\$DataBuffer|com\.csvreader\.CsvWriter\$Letters)\.)|(?:\b(?:com\.csvreader|com\.csvreader\.CsvReader\$RawRecordBuffer|com\.csvreader\.CsvReader\$StaticSettings|com\.csvreader\.CsvReader\$ComplexEscape|com\.csvreader\.CsvReader\$HeadersHolder|com\.csvreader\.CsvReader\$UserSettings|com\.csvreader\.CsvWriter\$UserSettings|com\.csvreader\.CsvReader\$ColumnBuffer|com\.csvreader\.CsvReader\$DataBuffer|com\.csvreader\.CsvWriter\$Letters)\.[A-Za-z_$][\w$]*\b)"/>
+    <s v="Medium"/>
+    <s v="Third-Party Dependencies"/>
+    <s v="Dual-runtime: manage this dependency in Maven/Gradle and upgrade to a maintained Java-8-baseline release; validate on JDK 8 and JDK 21."/>
+    <s v="Upgrade/Replace"/>
+    <s v="Replace exploded lib with build-managed dependency; choose a release that supports Java 8 and test on JDK 21."/>
+    <s v="Medium"/>
+    <n v="0.5"/>
+    <n v="101"/>
+    <n v="8"/>
+    <s v="1-fpms"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="OpenCSV and Apache Commons CSV"/>
+    <x v="1"/>
+    <s v="NOT-SAFE"/>
+    <s v="to verify runtime - New JAR &amp; API ?"/>
+    <s v="Dual-Review"/>
+    <s v="(blank)"/>
+    <s v="(blank)"/>
+    <s v="P064"/>
+    <s v="UT064"/>
+    <n v="8"/>
+  </r>
+  <r>
+    <x v="64"/>
+    <s v="Set 3 - Third Party"/>
+    <s v="THIRD-PARTY (BARCODE jar)"/>
+    <s v="javase-3.4.1.jar"/>
+    <s v="Third-party library present in application lib folder (exploded project)."/>
+    <s v="(?ms)(?:^\s*import\s+(?:static\s+)?(?:com\.google\.zxing\.client\.j2se)(?:\.[\w$]+|\.\*)\s*;)|(?:&lt;%@\s*page\b[^%]*\bimport\s*=\s*\&quot;[^\&quot;]*\b(?:com\.google\.zxing\.client\.j2se)\.)|(?:\b(?:com\.google\.zxing\.client\.j2se)\.[A-Za-z_$][\w$]*\b)"/>
+    <s v="Medium"/>
+    <s v="Third-Party Dependencies"/>
+    <s v="Dual-runtime: manage this dependency in Maven/Gradle and upgrade to a maintained Java-8-baseline release; validate on JDK 8 and JDK 21."/>
+    <s v="Upgrade/Replace"/>
+    <s v="Replace exploded lib with build-managed dependency; choose a release that supports Java 8 and test on JDK 21."/>
+    <s v="Medium"/>
+    <n v="0.5"/>
+    <n v="41"/>
+    <n v="1"/>
+    <s v="1-fpms"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="6"/>
+    <s v="(blank)"/>
+    <x v="3"/>
+    <s v="to verify runtime - New/Existing JAR &amp; New/Existing API ?"/>
+    <s v="to verify runtime - New/Existing JAR &amp; New/Existing API ?"/>
+    <s v="Dual-Review"/>
+    <s v="(blank)"/>
+    <s v="(blank)"/>
+    <s v="P065"/>
+    <s v="UT065"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="65"/>
+    <s v="Set 3 - Third Party"/>
+    <s v="THIRD-PARTY (COMMON jar)"/>
+    <s v="jcommon-0.9.5.jar"/>
+    <s v="Third-party library present in application lib folder (exploded project)."/>
+    <s v="(?ms)(?:^\s*import\s+(?:static\s+)?(?:org\.jfree|org\.jfree\.xml|org\.jfree\.ui|org\.jfree\.util|org\.jfree\.xml\.factory\.objects|org\.jfree\.base|org\.jfree\.ui\.about|org\.jfree\.xml\.generator|org\.jfree\.xml\.writer|org\.jfree\.xml\.parser)(?:\.[\w$]+|\.\*)\s*;)|(?:&lt;%@\s*page\b[^%]*\bimport\s*=\s*\&quot;[^\&quot;]*\b(?:org\.jfree|org\.jfree\.xml|org\.jfree\.ui|org\.jfree\.util|org\.jfree\.xml\.factory\.objects|org\.jfree\.base|org\.jfree\.ui\.about|org\.jfree\.xml\.generator|org\.jfree\.xml\.writer|org\.jfree\.xml\.parser)\.)|(?:\b(?:org\.jfree|org\.jfree\.xml|org\.jfree\.ui|org\.jfree\.util|org\.jfree\.xml\.factory\.objects|org\.jfree\.base|org\.jfree\.ui\.about|org\.jfree\.xml\.generator|org\.jfree\.xml\.writer|org\.jfree\.xml\.parser)\.[A-Za-z_$][\w$]*\b)"/>
+    <s v="Medium"/>
+    <s v="Third-Party Dependencies"/>
+    <s v="Dual-runtime: manage this dependency in Maven/Gradle and upgrade to a maintained Java-8-baseline release; validate on JDK 8 and JDK 21."/>
+    <s v="Upgrade/Replace"/>
+    <s v="Replace exploded lib with build-managed dependency; choose a release that supports Java 8 and test on JDK 21."/>
+    <s v="Medium"/>
+    <n v="0.5"/>
+    <n v="105"/>
+    <n v="14"/>
+    <s v="1-fpms"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="JFreeChart 1.5.1"/>
+    <x v="4"/>
+    <s v="to verify runtime - New JAR &amp; API ?"/>
+    <s v="to verify runtime - New JAR &amp; API ?"/>
+    <s v="Dual-Review"/>
+    <s v="(blank)"/>
+    <s v="(blank)"/>
+    <s v="P066"/>
+    <s v="UT066"/>
+    <n v="14"/>
+  </r>
+  <r>
+    <x v="66"/>
+    <s v="Set 3 - Third Party"/>
+    <s v="THIRD-PARTY (SSH jar)"/>
+    <s v="jcraft.jar"/>
+    <s v="Third-party library present in application lib folder (exploded project)."/>
+    <s v="(?ms)(?:^\s*import\s+(?:static\s+)?(?:com\.jcraft\.jsch|com\.jcraft\.jsch\.jce|com\.jcraft\.jsch\.jcraft|com\.jcraft\.jsch\.ChannelSftp\$RequestQueue\$OutOfOrderException|com\.jcraft\.jsch\.ChannelForwardedTCPIP\$ConfigDaemon|com\.jcraft\.jsch\.ChannelForwardedTCPIP\$ConfigLHost|com\.jcraft\.jsch\.ChannelSftp\$RequestQueue\$Request|com\.jcraft\.jsch\.ChannelForwardedTCPIP\$Config|com\.jcraft\.jsch\.ChannelSftp\$LsEntrySelector|com\.jcraft\.jsch\.Channel\$PassiveOutputStream)(?:\.[\w$]+|\.\*)\s*;)|(?:&lt;%@\s*page\b[^%]*\bimport\s*=\s*\&quot;[^\&quot;]*\b(?:com\.jcraft\.jsch|com\.jcraft\.jsch\.jce|com\.jcraft\.jsch\.jcraft|com\.jcraft\.jsch\.ChannelSftp\$RequestQueue\$OutOfOrderException|com\.jcraft\.jsch\.ChannelForwardedTCPIP\$ConfigDaemon|com\.jcraft\.jsch\.ChannelForwardedTCPIP\$ConfigLHost|com\.jcraft\.jsch\.ChannelSftp\$RequestQueue\$Request|com\.jcraft\.jsch\.ChannelForwardedTCPIP\$Config|com\.jcraft\.jsch\.ChannelSftp\$LsEntrySelector|com\.jcraft\.jsch\.Channel\$PassiveOutputStream)\.)|(?:\b(?:com\.jcraft\.jsch|com\.jcraft\.jsch\.jce|com\.jcraft\.jsch\.jcraft|com\.jcraft\.jsch\.ChannelSftp\$RequestQueue\$OutOfOrderException|com\.jcraft\.jsch\.ChannelForwardedTCPIP\$ConfigDaemon|com\.jcraft\.jsch\.ChannelForwardedTCPIP\$ConfigLHost|com\.jcraft\.jsch\.ChannelSftp\$RequestQueue\$Request|com\.jcraft\.jsch\.ChannelForwardedTCPIP\$Config|com\.jcraft\.jsch\.ChannelSftp\$LsEntrySelector|com\.jcraft\.jsch\.Channel\$PassiveOutputStream)\.[A-Za-z_$][\w$]*\b)"/>
+    <s v="Medium"/>
+    <s v="Third-Party Dependencies"/>
+    <s v="Dual-runtime: manage this dependency in Maven/Gradle and upgrade to a maintained Java-8-baseline release; validate on JDK 8 and JDK 21."/>
+    <s v="Upgrade/Replace"/>
+    <s v="Replace exploded lib with build-managed dependency; choose a release that supports Java 8 and test on JDK 21."/>
+    <s v="Medium"/>
+    <n v="0.5"/>
+    <n v="107"/>
+    <n v="5"/>
+    <s v="1-fpms"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="jsch-0.2.17"/>
+    <x v="4"/>
+    <s v="to verify runtime - New JAR &amp; API ?"/>
+    <s v="to verify runtime - New JAR &amp; API ?"/>
+    <s v="Dual-Review"/>
+    <s v="(blank)"/>
+    <s v="(blank)"/>
+    <s v="P067"/>
+    <s v="UT067"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="67"/>
+    <s v="Set 3 - Third Party"/>
+    <s v="THIRD-PARTY (JDOM jar)"/>
+    <s v="jdom.jar"/>
+    <s v="Third-party library present in application lib folder (exploded project)."/>
+    <s v="(?ms)(?:^\s*import\s+(?:static\s+)?(?:org\.jdom|org\.jdom\.output|org\.jdom\.transform|org\.jdom\.adapters|org\.jdom\.filter|org\.jdom\.input|org\.jdom\.xpath|org\.jdom\.transform\.JDOMResult\$FragmentHandler|org\.jdom\.transform\.JDOMResult\$DocumentBuilder|org\.jdom\.transform\.JDOMSource\$JDOMInputSource)(?:\.[\w$]+|\.\*)\s*;)|(?:&lt;%@\s*page\b[^%]*\bimport\s*=\s*\&quot;[^\&quot;]*\b(?:org\.jdom|org\.jdom\.output|org\.jdom\.transform|org\.jdom\.adapters|org\.jdom\.filter|org\.jdom\.input|org\.jdom\.xpath|org\.jdom\.transform\.JDOMResult\$FragmentHandler|org\.jdom\.transform\.JDOMResult\$DocumentBuilder|org\.jdom\.transform\.JDOMSource\$JDOMInputSource)\.)|(?:\b(?:org\.jdom|org\.jdom\.output|org\.jdom\.transform|org\.jdom\.adapters|org\.jdom\.filter|org\.jdom\.input|org\.jdom\.xpath|org\.jdom\.transform\.JDOMResult\$FragmentHandler|org\.jdom\.transform\.JDOMResult\$DocumentBuilder|org\.jdom\.transform\.JDOMSource\$JDOMInputSource)\.[A-Za-z_$][\w$]*\b)"/>
+    <s v="Medium"/>
+    <s v="Third-Party Dependencies"/>
+    <s v="Dual-runtime: manage this dependency in Maven/Gradle and upgrade to a maintained Java-8-baseline release; validate on JDK 8 and JDK 21."/>
+    <s v="Upgrade/Replace"/>
+    <s v="Replace exploded lib with build-managed dependency; choose a release that supports Java 8 and test on JDK 21."/>
+    <s v="Medium"/>
+    <n v="0.5"/>
+    <n v="69"/>
+    <n v="207"/>
+    <s v="1-fpms"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="6"/>
+    <s v="(blank)"/>
+    <x v="3"/>
+    <s v="to verify runtime - New/Existing JAR &amp; New/Existing API ?"/>
+    <s v="to verify runtime - New/Existing JAR &amp; New/Existing API ?"/>
+    <s v="Dual-Review;POM"/>
+    <s v="(blank)"/>
+    <s v="(blank)"/>
+    <s v="P068"/>
+    <s v="UT068"/>
+    <n v="207"/>
+  </r>
+  <r>
+    <x v="68"/>
+    <s v="Set 3 - Third Party"/>
+    <s v="THIRD-PARTY (CHART jar)"/>
+    <s v="jfreechart-0.9.20.jar"/>
+    <s v="Third-party library present in application lib folder (exploded project)."/>
+    <s v="(?ms)(?:^\s*import\s+(?:static\s+)?(?:org\.jfree|org\.jfree\.chart|org\.jfree\.data|org\.jfree\.chart\.renderer|org\.jfree\.chart\.axis|org\.jfree\.chart\.plot|org\.jfree\.chart\.labels|org\.jfree\.data\.time|org\.jfree\.chart\.event|org\.jfree\.data\.statistics)(?:\.[\w$]+|\.\*)\s*;)|(?:&lt;%@\s*page\b[^%]*\bimport\s*=\s*\&quot;[^\&quot;]*\b(?:org\.jfree|org\.jfree\.chart|org\.jfree\.data|org\.jfree\.chart\.renderer|org\.jfree\.chart\.axis|org\.jfree\.chart\.plot|org\.jfree\.chart\.labels|org\.jfree\.data\.time|org\.jfree\.chart\.event|org\.jfree\.data\.statistics)\.)|(?:\b(?:org\.jfree|org\.jfree\.chart|org\.jfree\.data|org\.jfree\.chart\.renderer|org\.jfree\.chart\.axis|org\.jfree\.chart\.plot|org\.jfree\.chart\.labels|org\.jfree\.data\.time|org\.jfree\.chart\.event|org\.jfree\.data\.statistics)\.[A-Za-z_$][\w$]*\b)"/>
+    <s v="Medium"/>
+    <s v="Third-Party Dependencies"/>
+    <s v="Dual-runtime: manage this dependency in Maven/Gradle and upgrade to a maintained Java-8-baseline release; validate on JDK 8 and JDK 21."/>
+    <s v="Upgrade/Replace"/>
+    <s v="Replace exploded lib with build-managed dependency; choose a release that supports Java 8 and test on JDK 21."/>
+    <s v="Medium"/>
+    <n v="0.5"/>
+    <n v="75"/>
+    <n v="14"/>
+    <s v="1-fpms"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="6"/>
+    <s v="jfreechart-1.5.4.jar"/>
+    <x v="4"/>
+    <s v="to verify runtime - New JAR &amp; API ?"/>
+    <s v="to verify runtime - New JAR &amp; API ?"/>
+    <s v="Dual-Review"/>
+    <s v="(blank)"/>
+    <s v="(blank)"/>
+    <s v="P069"/>
+    <s v="UT069"/>
+    <n v="14"/>
+  </r>
+  <r>
+    <x v="69"/>
+    <s v="Set 3 - Third Party"/>
+    <s v="THIRD-PARTY (FTP jar)"/>
+    <s v="jftp.jar"/>
+    <s v="Third-party library present in application lib folder (exploded project)."/>
+    <s v="(?ms)(?:^\s*import\s+(?:static\s+)?(?:com\.sshtools\.j2ssh|net\.sf\.jftp|org\.apache\.commons|org\.apache\.commons\.httpclient|com\.sshtools\.j2ssh\.transport|jcifs\.smb|net\.sf\.jftp\.gui|org\.apache\.log4j|org\.apache\.webdav\.lib|net\.sourceforge\.mlf\.metouia)(?:\.[\w$]+|\.\*)\s*;)|(?:&lt;%@\s*page\b[^%]*\bimport\s*=\s*\&quot;[^\&quot;]*\b(?:com\.sshtools\.j2ssh|net\.sf\.jftp|org\.apache\.commons|org\.apache\.commons\.httpclient|com\.sshtools\.j2ssh\.transport|jcifs\.smb|net\.sf\.jftp\.gui|org\.apache\.log4j|org\.apache\.webdav\.lib|net\.sourceforge\.mlf\.metouia)\.)|(?:\b(?:com\.sshtools\.j2ssh|net\.sf\.jftp|org\.apache\.commons|org\.apache\.commons\.httpclient|com\.sshtools\.j2ssh\.transport|jcifs\.smb|net\.sf\.jftp\.gui|org\.apache\.log4j|org\.apache\.webdav\.lib|net\.sourceforge\.mlf\.metouia)\.[A-Za-z_$][\w$]*\b)"/>
+    <s v="Medium"/>
+    <s v="Third-Party Dependencies"/>
+    <s v="Dual-runtime: manage this dependency in Maven/Gradle and upgrade to a maintained Java-8-baseline release; validate on JDK 8 and JDK 21."/>
+    <s v="Upgrade/Replace"/>
+    <s v="Replace exploded lib with build-managed dependency; choose a release that supports Java 8 and test on JDK 21."/>
+    <s v="Medium"/>
+    <n v="0.5"/>
+    <n v="100"/>
+    <n v="2541"/>
+    <s v="1-fpms"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="jsch-0.2.17.jar"/>
+    <x v="1"/>
+    <s v="NOT-SAFE"/>
+    <s v="to verify runtime - New JAR &amp; API ?"/>
+    <s v="Dual-Review"/>
+    <s v="(blank)"/>
+    <s v="(blank)"/>
+    <s v="P070"/>
+    <s v="UT070"/>
+    <n v="2541"/>
+  </r>
+  <r>
+    <x v="70"/>
+    <s v="Set 3 - Third Party"/>
+    <s v="THIRD-PARTY (JSON jar)"/>
+    <s v="json.jar"/>
+    <s v="Third-party library present in application lib folder (exploded project)."/>
+    <s v="(?ms)(?:^\s*import\s+(?:static\s+)?(?:org\.json|org\.json\.JSONPointerException|org\.json\.JSONPointer\$Builder|org\.json\.JSONObject\$Null|org\.json\.JSONException|org\.json\.JSONObject\$1|org\.json\.JSONStringer|org\.json\.JSONPointer|org\.json\.HTTPTokener|org\.json\.JSONTokener)(?:\.[\w$]+|\.\*)\s*;)|(?:&lt;%@\s*page\b[^%]*\bimport\s*=\s*\&quot;[^\&quot;]*\b(?:org\.json|org\.json\.JSONPointerException|org\.json\.JSONPointer\$Builder|org\.json\.JSONObject\$Null|org\.json\.JSONException|org\.json\.JSONObject\$1|org\.json\.JSONStringer|org\.json\.JSONPointer|org\.json\.HTTPTokener|org\.json\.JSONTokener)\.)|(?:\b(?:org\.json|org\.json\.JSONPointerException|org\.json\.JSONPointer\$Builder|org\.json\.JSONObject\$Null|org\.json\.JSONException|org\.json\.JSONObject\$1|org\.json\.JSONStringer|org\.json\.JSONPointer|org\.json\.HTTPTokener|org\.json\.JSONTokener)\.[A-Za-z_$][\w$]*\b)"/>
+    <s v="Medium"/>
+    <s v="Third-Party Dependencies"/>
+    <s v="Dual-runtime: manage this dependency in Maven/Gradle and upgrade to a maintained Java-8-baseline release; validate on JDK 8 and JDK 21."/>
+    <s v="Upgrade/Replace"/>
+    <s v="Replace exploded lib with build-managed dependency; choose a release that supports Java 8 and test on JDK 21."/>
+    <s v="Medium"/>
+    <n v="0.5"/>
+    <n v="109"/>
+    <n v="28"/>
+    <s v="1-fpms"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="org.json:json library OR JACKSON"/>
+    <x v="4"/>
+    <s v="to verify runtime - New JAR &amp; API ?"/>
+    <s v="to verify runtime - New JAR &amp; API ?"/>
+    <s v="Dual-Review"/>
+    <s v="(blank)"/>
+    <s v="(blank)"/>
+    <s v="P071"/>
+    <s v="UT071"/>
+    <n v="28"/>
+  </r>
+  <r>
+    <x v="71"/>
+    <s v="Set 3 - Third Party"/>
+    <s v="THIRD-PARTY (DB jar)"/>
+    <s v="jt400.jar"/>
+    <s v="Third-party library present in application lib folder (exploded project)."/>
+    <s v="(?ms)(?:^\s*import\s+(?:static\s+)?(?:com\.ibm\.as400|com\.ibm\.as400\.access|com\.ibm\.as400\.vaccess|com\.ibm\.as400\.resource|com\.ibm\.as400\.util|com\.ibm\.as400\.util\.commtrace|com\.ibm\.as400\.data|com\.ibm\.as400\.security|com\.ibm\.as400\.security\.auth|com\.ibm\.as400\.micro)(?:\.[\w$]+|\.\*)\s*;)|(?:&lt;%@\s*page\b[^%]*\bimport\s*=\s*\&quot;[^\&quot;]*\b(?:com\.ibm\.as400|com\.ibm\.as400\.access|com\.ibm\.as400\.vaccess|com\.ibm\.as400\.resource|com\.ibm\.as400\.util|com\.ibm\.as400\.util\.commtrace|com\.ibm\.as400\.data|com\.ibm\.as400\.security|com\.ibm\.as400\.security\.auth|com\.ibm\.as400\.micro)\.)|(?:\b(?:com\.ibm\.as400|com\.ibm\.as400\.access|com\.ibm\.as400\.vaccess|com\.ibm\.as400\.resource|com\.ibm\.as400\.util|com\.ibm\.as400\.util\.commtrace|com\.ibm\.as400\.data|com\.ibm\.as400\.security|com\.ibm\.as400\.security\.auth|com\.ibm\.as400\.micro)\.[A-Za-z_$][\w$]*\b)"/>
+    <s v="Medium"/>
+    <s v="Third-Party Dependencies"/>
+    <s v="Dual-runtime: manage this dependency in Maven/Gradle and upgrade to a maintained Java-8-baseline release; validate on JDK 8 and JDK 21."/>
+    <s v="Upgrade/Replace"/>
+    <s v="Replace exploded lib with build-managed dependency; choose a release that supports Java 8 and test on JDK 21."/>
+    <s v="Medium"/>
+    <n v="0.5"/>
+    <n v="70"/>
+    <n v="1"/>
+    <s v="1-fpms"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="6"/>
+    <s v="(blank)"/>
+    <x v="3"/>
+    <s v="to verify runtime - New/Existing JAR &amp; New/Existing API ?"/>
+    <s v="to verify runtime - New/Existing JAR &amp; New/Existing API ?"/>
+    <s v="Dual-Review"/>
+    <s v="(blank)"/>
+    <s v="(blank)"/>
+    <s v="P072"/>
+    <s v="UT072"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="72"/>
+    <s v="Set 3 - Third Party"/>
+    <s v="THIRD-PARTY (TEST jar)"/>
+    <s v="junit.jar"/>
+    <s v="Third-party library present in application lib folder (exploded project)."/>
+    <s v="(?ms)(?:^\s*import\s+(?:static\s+)?(?:junit\.swingui|junit\.awtui|junit\.runner|junit\.framework|junit\.extensions|junit\.textui|junit\.swingui\.DefaultFailureDetailView\$StackTraceListModel|junit\.swingui\.DefaultFailureDetailView\$StackEntryRenderer|junit\.swingui\.FailureRunView\$FailureListCellRenderer|junit\.swingui\.TestSuitePanel\$TestTreeCellRenderer)(?:\.[\w$]+|\.\*)\s*;)|(?:&lt;%@\s*page\b[^%]*\bimport\s*=\s*\&quot;[^\&quot;]*\b(?:junit\.swingui|junit\.awtui|junit\.runner|junit\.framework|junit\.extensions|junit\.textui|junit\.swingui\.DefaultFailureDetailView\$StackTraceListModel|junit\.swingui\.DefaultFailureDetailView\$StackEntryRenderer|junit\.swingui\.FailureRunView\$FailureListCellRenderer|junit\.swingui\.TestSuitePanel\$TestTreeCellRenderer)\.)|(?:\b(?:junit\.swingui|junit\.awtui|junit\.runner|junit\.framework|junit\.extensions|junit\.textui|junit\.swingui\.DefaultFailureDetailView\$StackTraceListModel|junit\.swingui\.DefaultFailureDetailView\$StackEntryRenderer|junit\.swingui\.FailureRunView\$FailureListCellRenderer|junit\.swingui\.TestSuitePanel\$TestTreeCellRenderer)\.[A-Za-z_$][\w$]*\b)"/>
+    <s v="Medium"/>
+    <s v="Third-Party Dependencies"/>
+    <s v="Dual-runtime: manage this dependency in Maven/Gradle and upgrade to a maintained Java-8-baseline release; validate on JDK 8 and JDK 21."/>
+    <s v="Upgrade/Replace"/>
+    <s v="Replace exploded lib with build-managed dependency; choose a release that supports Java 8 and test on JDK 21."/>
+    <s v="Medium"/>
+    <n v="0.5"/>
+    <n v="110"/>
+    <n v="37"/>
+    <s v="1-fpms"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="JUnit 5"/>
+    <x v="4"/>
+    <s v="to verify runtime - New JAR &amp; API ?"/>
+    <s v="to verify runtime - New JAR &amp; API ?"/>
+    <s v="Dual-Review"/>
+    <s v="(blank)"/>
+    <s v="(blank)"/>
+    <s v="P073"/>
+    <s v="UT073"/>
+    <n v="37"/>
+  </r>
+  <r>
+    <x v="73"/>
+    <s v="Set 3 - Third Party"/>
+    <s v="THIRD-PARTY (EXCEL jar)"/>
+    <s v="jxl.jar"/>
+    <s v="Third-party library present in application lib folder (exploded project)."/>
+    <s v="(?ms)(?:^\s*import\s+(?:static\s+)?(?:jxl\.write|jxl\.biff|jxl\.write\.biff|jxl\.read\.biff|jxl\.biff\.formula|jxl\.biff\.drawing|jxl\.format|jxl\.demo|common\.log|jxl\.write\.biff\.WritableSheetImpl\$ColumnInfoComparator)(?:\.[\w$]+|\.\*)\s*;)|(?:&lt;%@\s*page\b[^%]*\bimport\s*=\s*\&quot;[^\&quot;]*\b(?:jxl\.write|jxl\.biff|jxl\.write\.biff|jxl\.read\.biff|jxl\.biff\.formula|jxl\.biff\.drawing|jxl\.format|jxl\.demo|common\.log|jxl\.write\.biff\.WritableSheetImpl\$ColumnInfoComparator)\.)|(?:\b(?:jxl\.write|jxl\.biff|jxl\.write\.biff|jxl\.read\.biff|jxl\.biff\.formula|jxl\.biff\.drawing|jxl\.format|jxl\.demo|common\.log|jxl\.write\.biff\.WritableSheetImpl\$ColumnInfoComparator)\.[A-Za-z_$][\w$]*\b)"/>
+    <s v="Medium"/>
+    <s v="Third-Party Dependencies"/>
+    <s v="Dual-runtime: manage this dependency in Maven/Gradle and upgrade to a maintained Java-8-baseline release; validate on JDK 8 and JDK 21."/>
+    <s v="Upgrade/Replace"/>
+    <s v="Replace exploded lib with build-managed dependency; choose a release that supports Java 8 and test on JDK 21."/>
+    <s v="Medium"/>
+    <n v="0.5"/>
+    <n v="108"/>
+    <n v="28"/>
+    <s v="1-fpms"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="(poi + poi-ooxml)"/>
+    <x v="4"/>
+    <s v="to verify runtime - New JAR &amp; API ?"/>
+    <s v="to verify runtime - New JAR &amp; API ?"/>
+    <s v="Dual-Review"/>
+    <s v="(blank)"/>
+    <s v="(blank)"/>
+    <s v="P074"/>
+    <s v="UT074"/>
+    <n v="28"/>
+  </r>
+  <r>
+    <x v="74"/>
+    <s v="Set 3 - Third Party"/>
+    <s v="THIRD-PARTY (LOG4J jar)"/>
+    <s v="log4j-1.2.5.jar"/>
+    <s v="Third-party library present in application lib folder (exploded project)."/>
+    <s v="(?ms)(?:^\s*import\s+(?:static\s+)?(?:org\.apache\.log4j|org\.apache\.log4j\.lf5|org\.apache\.log4j\.lf5\.viewer|org\.apache\.log4j\.helpers|org\.apache\.log4j\.chainsaw|org\.apache\.log4j\.spi|org\.apache\.log4j\.net|org\.apache\.log4j\.varia|org\.apache\.log4j\.lf5\.util|org\.apache\.log4j\.jmx)(?:\.[\w$]+|\.\*)\s*;)|(?:&lt;%@\s*page\b[^%]*\bimport\s*=\s*\&quot;[^\&quot;]*\b(?:org\.apache\.log4j|org\.apache\.log4j\.lf5|org\.apache\.log4j\.lf5\.viewer|org\.apache\.log4j\.helpers|org\.apache\.log4j\.chainsaw|org\.apache\.log4j\.spi|org\.apache\.log4j\.net|org\.apache\.log4j\.varia|org\.apache\.log4j\.lf5\.util|org\.apache\.log4j\.jmx)\.)|(?:\b(?:org\.apache\.log4j|org\.apache\.log4j\.lf5|org\.apache\.log4j\.lf5\.viewer|org\.apache\.log4j\.helpers|org\.apache\.log4j\.chainsaw|org\.apache\.log4j\.spi|org\.apache\.log4j\.net|org\.apache\.log4j\.varia|org\.apache\.log4j\.lf5\.util|org\.apache\.log4j\.jmx)\.[A-Za-z_$][\w$]*\b)"/>
+    <s v="High"/>
+    <s v="Security/EOL"/>
+    <s v="Dual-runtime: remove Log4j 1.x and use Log4j 2.17.x (Java 8+) or SLF4J+Logback; ensure only one backend on classpath."/>
+    <s v="Migrate"/>
+    <s v="Replace log4j-1.x jar, update config, retest logging."/>
+    <s v="High"/>
+    <n v="1.5"/>
+    <n v="36"/>
+    <n v="25"/>
+    <s v="1-fpms"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="8"/>
+    <s v="(blank)"/>
+    <x v="3"/>
+    <s v="to verify runtime - New/Existing JAR &amp; New/Existing API ?"/>
+    <s v="to verify runtime - New/Existing JAR &amp; New/Existing API ?"/>
+    <s v="Dual-Log4jMigration"/>
+    <s v="(blank)"/>
+    <s v="(blank)"/>
+    <s v="P075"/>
+    <s v="UT075"/>
+    <n v="25"/>
+  </r>
+  <r>
+    <x v="75"/>
+    <s v="Set 3 - Third Party"/>
+    <s v="THIRD-PARTY (LOG4J jar)"/>
+    <s v="log4j-api-2.17.1.jar"/>
+    <s v="Third-party library present in application lib folder (exploded project)."/>
+    <s v="(?ms)(?:^\s*import\s+(?:static\s+)?(?:org\.apache\.logging\.log4j|org\.apache\.logging\.log4j\.util|org\.apache\.logging\.log4j\.message|org\.apache\.logging\.log4j\.spi|org\.apache\.logging\.log4j\.internal|org\.apache\.logging\.log4j\.status|org\.apache\.logging\.log4j\.simple|org\.apache\.logging\.log4j\.ThreadContext\$EmptyThreadContextStack|org\.apache\.logging\.log4j\.ThreadContext\$NoOpThreadContextStack|org\.apache\.logging\.log4j\.CloseableThreadContext\$Instance)(?:\.[\w$]+|\.\*)\s*;)|(?:&lt;%@\s*page\b[^%]*\bimport\s*=\s*\&quot;[^\&quot;]*\b(?:org\.apache\.logging\.log4j|org\.apache\.logging\.log4j\.util|org\.apache\.logging\.log4j\.message|org\.apache\.logging\.log4j\.spi|org\.apache\.logging\.log4j\.internal|org\.apache\.logging\.log4j\.status|org\.apache\.logging\.log4j\.simple|org\.apache\.logging\.log4j\.ThreadContext\$EmptyThreadContextStack|org\.apache\.logging\.log4j\.ThreadContext\$NoOpThreadContextStack|org\.apache\.logging\.log4j\.CloseableThreadContext\$Instance)\.)|(?:\b(?:org\.apache\.logging\.log4j|org\.apache\.logging\.log4j\.util|org\.apache\.logging\.log4j\.message|org\.apache\.logging\.log4j\.spi|org\.apache\.logging\.log4j\.internal|org\.apache\.logging\.log4j\.status|org\.apache\.logging\.log4j\.simple|org\.apache\.logging\.log4j\.ThreadContext\$EmptyThreadContextStack|org\.apache\.logging\.log4j\.ThreadContext\$NoOpThreadContextStack|org\.apache\.logging\.log4j\.CloseableThreadContext\$Instance)\.[A-Za-z_$][\w$]*\b)"/>
+    <s v="Low"/>
+    <s v="Logging Backend"/>
+    <s v="Keep Log4j2; ensure api/core versions aligned and no Log4j 1.x remains."/>
+    <s v="No-Change/Align"/>
+    <s v="Validate consistent Log4j2 version and configuration."/>
+    <s v="Low"/>
+    <n v="0.25"/>
+    <n v="34"/>
+    <n v="2"/>
+    <s v="1-fpms"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="7"/>
+    <s v="(blank)"/>
+    <x v="3"/>
+    <s v="to verify runtime - New/Existing JAR &amp; New/Existing API ?"/>
+    <s v="to verify runtime - New/Existing JAR &amp; New/Existing API ?"/>
+    <s v="Dual-Log4j2"/>
+    <s v="(blank)"/>
+    <s v="(blank)"/>
+    <s v="P076"/>
+    <s v="UT076"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="76"/>
+    <s v="Set 3 - Third Party"/>
+    <s v="THIRD-PARTY (SECURITY jar)"/>
+    <s v="not-yet-commons-ssl-0.3.10.jar"/>
+    <s v="Third-party library present in application lib folder (exploded project)."/>
+    <s v="(?ms)(?:^\s*import\s+(?:static\s+)?(?:org\.apache\.commons|org\.apache\.commons\.ssl|org\.apache\.commons\.ssl\.asn1|org\.apache\.commons\.ssl\.rmi|org\.apache\.commons\.httpclient\.contrib|org\.apache\.commons\.ssl\.util|org\.apache\.commons\.ssl\.Certificates\$SerializableComparator|org\.apache\.commons\.ssl\.HostnameVerifier\$AbstractVerifier|org\.apache\.commons\.ssl\.ProbablyBadPasswordException|org\.apache\.commons\.ssl\.SSLProxyServer\$ProxyRunnable)(?:\.[\w$]+|\.\*)\s*;)|(?:&lt;%@\s*page\b[^%]*\bimport\s*=\s*\&quot;[^\&quot;]*\b(?:org\.apache\.commons|org\.apache\.commons\.ssl|org\.apache\.commons\.ssl\.asn1|org\.apache\.commons\.ssl\.rmi|org\.apache\.commons\.httpclient\.contrib|org\.apache\.commons\.ssl\.util|org\.apache\.commons\.ssl\.Certificates\$SerializableComparator|org\.apache\.commons\.ssl\.HostnameVerifier\$AbstractVerifier|org\.apache\.commons\.ssl\.ProbablyBadPasswordException|org\.apache\.commons\.ssl\.SSLProxyServer\$ProxyRunnable)\.)|(?:\b(?:org\.apache\.commons|org\.apache\.commons\.ssl|org\.apache\.commons\.ssl\.asn1|org\.apache\.commons\.ssl\.rmi|org\.apache\.commons\.httpclient\.contrib|org\.apache\.commons\.ssl\.util|org\.apache\.commons\.ssl\.Certificates\$SerializableComparator|org\.apache\.commons\.ssl\.HostnameVerifier\$AbstractVerifier|org\.apache\.commons\.ssl\.ProbablyBadPasswordException|org\.apache\.commons\.ssl\.SSLProxyServer\$ProxyRunnable)\.[A-Za-z_$][\w$]*\b)"/>
+    <s v="Medium"/>
+    <s v="Pre-Release/Alpha"/>
+    <s v="Dual-runtime: replace alpha/beta/snapshot libraries with stable maintained releases that support Java 8; validate on JDK 21."/>
+    <s v="Replace"/>
+    <s v="Upgrade to stable release; verify runtime and security."/>
+    <s v="Medium"/>
+    <n v="1"/>
+    <n v="28"/>
+    <n v="2512"/>
+    <s v="1-fpms"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="7"/>
+    <s v="(blank)"/>
+    <x v="3"/>
+    <s v="to verify runtime - New/Existing JAR &amp; New/Existing API ?"/>
+    <s v="to verify runtime - New/Existing JAR &amp; New/Existing API ?"/>
+    <s v="Dual-Replace-PreRelease"/>
+    <s v="(blank)"/>
+    <s v="(blank)"/>
+    <s v="P077"/>
+    <s v="UT077"/>
+    <n v="2512"/>
+  </r>
+  <r>
+    <x v="77"/>
+    <s v="Set 3 - Third Party"/>
+    <s v="THIRD-PARTY (OC4J jar)"/>
+    <s v="oc4j.jar"/>
+    <s v="Third-party library present in application lib folder (exploded project)."/>
+    <s v="(?ms)(?:^\s*import\s+(?:static\s+)?(?:com\.evermind|com\.evermind\.server|com\.evermind\.client|com\.evermind\.server\.jms|com\.evermind\.gui|com\.evermind\.server\.ejb|com\.evermind\.server\.http|oracle\.oc4j|com\.evermind\.server\.jms\.filter|com\.evermind\.gui\.server)(?:\.[\w$]+|\.\*)\s*;)|(?:&lt;%@\s*page\b[^%]*\bimport\s*=\s*\&quot;[^\&quot;]*\b(?:com\.evermind|com\.evermind\.server|com\.evermind\.client|com\.evermind\.server\.jms|com\.evermind\.gui|com\.evermind\.server\.ejb|com\.evermind\.server\.http|oracle\.oc4j|com\.evermind\.server\.jms\.filter|com\.evermind\.gui\.server)\.)|(?:\b(?:com\.evermind|com\.evermind\.server|com\.evermind\.client|com\.evermind\.server\.jms|com\.evermind\.gui|com\.evermind\.server\.ejb|com\.evermind\.server\.http|oracle\.oc4j|com\.evermind\.server\.jms\.filter|com\.evermind\.gui\.server)\.[A-Za-z_$][\w$]*\b)"/>
+    <s v="High"/>
+    <s v="App Server EOL"/>
+    <s v="OC4J is obsolete; move runtime to a supported javax.* container (e.g., Tomcat 9) to keep dual-runtime compatibility."/>
+    <s v="Replace"/>
+    <s v="Remove OC4J-specific libs and migrate deployment; validate on JDK 8 and JDK 21."/>
+    <s v="High"/>
+    <n v="3"/>
+    <n v="92"/>
+    <n v="7"/>
+    <s v="1-fpms"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+    <s v="(blank)"/>
+    <x v="1"/>
+    <s v="NOT-SAFE"/>
+    <s v="to verify runtime - New JAR &amp; API ?"/>
+    <s v="Dual-AppServerMigration"/>
+    <s v="(blank)"/>
+    <s v="(blank)"/>
+    <s v="P078"/>
+    <s v="UT078"/>
+    <n v="7"/>
+  </r>
+  <r>
+    <x v="78"/>
+    <s v="Set 3 - Third Party"/>
+    <s v="THIRD-PARTY (OC4J jar)"/>
+    <s v="oc4jclient.jar"/>
+    <s v="Third-party library present in application lib folder (exploded project)."/>
+    <s v="(?ms)(?:^\s*import\s+(?:static\s+)?(?:com\.evermind|com\.evermind\.server|EDU\.oswego\.cs\.dl\.util|com\.evermind\.server\.ejb|com\.evermind\.server\.jms|com\.evermind\.util|com\.evermind\.server\.rmi|com\.evermind\.bytecode|oracle\.oc4j|oracle\.oc4j\.admin\.management)(?:\.[\w$]+|\.\*)\s*;)|(?:&lt;%@\s*page\b[^%]*\bimport\s*=\s*\&quot;[^\&quot;]*\b(?:com\.evermind|com\.evermind\.server|EDU\.oswego\.cs\.dl\.util|com\.evermind\.server\.ejb|com\.evermind\.server\.jms|com\.evermind\.util|com\.evermind\.server\.rmi|com\.evermind\.bytecode|oracle\.oc4j|oracle\.oc4j\.admin\.management)\.)|(?:\b(?:com\.evermind|com\.evermind\.server|EDU\.oswego\.cs\.dl\.util|com\.evermind\.server\.ejb|com\.evermind\.server\.jms|com\.evermind\.util|com\.evermind\.server\.rmi|com\.evermind\.bytecode|oracle\.oc4j|oracle\.oc4j\.admin\.management)\.[A-Za-z_$][\w$]*\b)"/>
+    <s v="High"/>
+    <s v="App Server EOL"/>
+    <s v="OC4J is obsolete; move runtime to a supported javax.* container (e.g., Tomcat 9) to keep dual-runtime compatibility."/>
+    <s v="Replace"/>
+    <s v="Remove OC4J-specific libs and migrate deployment; validate on JDK 8 and JDK 21."/>
+    <s v="High"/>
+    <n v="3"/>
+    <n v="93"/>
+    <n v="10"/>
+    <s v="1-fpms"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+    <s v="(blank)"/>
+    <x v="1"/>
+    <s v="NOT-SAFE"/>
+    <s v="to verify runtime - New JAR &amp; API ?"/>
+    <s v="Dual-AppServerMigration"/>
+    <s v="(blank)"/>
+    <s v="(blank)"/>
+    <s v="P079"/>
+    <s v="UT079"/>
+    <n v="10"/>
+  </r>
+  <r>
+    <x v="79"/>
+    <s v="Set 3 - Third Party"/>
+    <s v="THIRD-PARTY (DB jar)"/>
+    <s v="ojdbc14.jar"/>
+    <s v="Third-party library present in application lib folder (exploded project)."/>
+    <s v="(?ms)(?:^\s*import\s+(?:static\s+)?(?:oracle\.jdbc|oracle\.jdbc\.driver|oracle\.net|oracle\.sql|oracle\.net\.nl|oracle\.jdbc\.oracore|oracle\.net\.nl\.mesg|oracle\.jdbc\.pool|oracle\.jdbc\.rowset|oracle\.net\.ns)(?:\.[\w$]+|\.\*)\s*;)|(?:&lt;%@\s*page\b[^%]*\bimport\s*=\s*\&quot;[^\&quot;]*\b(?:oracle\.jdbc|oracle\.jdbc\.driver|oracle\.net|oracle\.sql|oracle\.net\.nl|oracle\.jdbc\.oracore|oracle\.net\.nl\.mesg|oracle\.jdbc\.pool|oracle\.jdbc\.rowset|oracle\.net\.ns)\.)|(?:\b(?:oracle\.jdbc|oracle\.jdbc\.driver|oracle\.net|oracle\.sql|oracle\.net\.nl|oracle\.jdbc\.oracore|oracle\.net\.nl\.mesg|oracle\.jdbc\.pool|oracle\.jdbc\.rowset|oracle\.net\.ns)\.[A-Za-z_$][\w$]*\b)"/>
+    <s v="High"/>
+    <s v="Driver Upgrade"/>
+    <s v="Dual-runtime: replace old Oracle JDBC jars with ojdbc8 (Java 8 baseline) and validate on JDK 21; avoid ojdbc11 if JDK 8 runtime must remain supported."/>
+    <s v="Upgrade"/>
+    <s v="Replace driver jar; validate TLS/timezone/NLS on both runtimes."/>
+    <s v="Medium"/>
+    <n v="1"/>
+    <n v="49"/>
+    <n v="33"/>
+    <s v="1-fpms"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="6"/>
+    <s v="(blank)"/>
+    <x v="3"/>
+    <s v="to verify runtime - New/Existing JAR &amp; New/Existing API ?"/>
+    <s v="to verify runtime - New/Existing JAR &amp; New/Existing API ?"/>
+    <s v="Dual-JDBC-Upgrade"/>
+    <s v="(blank)"/>
+    <s v="(blank)"/>
+    <s v="P080"/>
+    <s v="UT080"/>
+    <n v="33"/>
+  </r>
+  <r>
+    <x v="80"/>
+    <s v="Set 3 - Third Party"/>
+    <s v="THIRD-PARTY (DB jar)"/>
+    <s v="ojdbc6.jar"/>
+    <s v="Third-party library present in application lib folder (exploded project)."/>
+    <s v="(?ms)(?:^\s*import\s+(?:static\s+)?(?:oracle\.jdbc|oracle\.jdbc\.driver|oracle\.net|oracle\.jdbc\.proxy|oracle\.sql|oracle\.jdbc\.internal|oracle\.jdbc\.replay|oracle\.jdbc\.replay\.driver|oracle\.net\.jdbc|oracle\.net\.jdbc\.nl)(?:\.[\w$]+|\.\*)\s*;)|(?:&lt;%@\s*page\b[^%]*\bimport\s*=\s*\&quot;[^\&quot;]*\b(?:oracle\.jdbc|oracle\.jdbc\.driver|oracle\.net|oracle\.jdbc\.proxy|oracle\.sql|oracle\.jdbc\.internal|oracle\.jdbc\.replay|oracle\.jdbc\.replay\.driver|oracle\.net\.jdbc|oracle\.net\.jdbc\.nl)\.)|(?:\b(?:oracle\.jdbc|oracle\.jdbc\.driver|oracle\.net|oracle\.jdbc\.proxy|oracle\.sql|oracle\.jdbc\.internal|oracle\.jdbc\.replay|oracle\.jdbc\.replay\.driver|oracle\.net\.jdbc|oracle\.net\.jdbc\.nl)\.[A-Za-z_$][\w$]*\b)"/>
+    <s v="Medium"/>
+    <s v="Driver Upgrade"/>
+    <s v="Dual-runtime: replace old Oracle JDBC jars with ojdbc8 (Java 8 baseline) and validate on JDK 21; avoid ojdbc11 if JDK 8 runtime must remain supported."/>
+    <s v="Upgrade"/>
+    <s v="Replace driver jar; validate TLS/timezone/NLS on both runtimes."/>
+    <s v="Medium"/>
+    <n v="0.75"/>
+    <n v="50"/>
+    <n v="33"/>
+    <s v="1-fpms"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="6"/>
+    <s v="(blank)"/>
+    <x v="3"/>
+    <s v="to verify runtime - New/Existing JAR &amp; New/Existing API ?"/>
+    <s v="to verify runtime - New/Existing JAR &amp; New/Existing API ?"/>
+    <s v="Dual-JDBC-Upgrade"/>
+    <s v="(blank)"/>
+    <s v="(blank)"/>
+    <s v="P081"/>
+    <s v="UT081"/>
+    <n v="33"/>
+  </r>
+  <r>
+    <x v="81"/>
+    <s v="Set 3 - Third Party"/>
+    <s v="THIRD-PARTY (POI jar)"/>
+    <s v="poi-3.8-20120326.jar"/>
+    <s v="Third-party library present in application lib folder (exploded project)."/>
+    <s v="(?ms)(?:^\s*import\s+(?:static\s+)?(?:org\.apache\.poi|org\.apache\.poi\.ss|org\.apache\.poi\.hssf|org\.apache\.poi\.ss\.formula|org\.apache\.poi\.hssf\.record|org\.apache\.poi\.ss\.usermodel|org\.apache\.poi\.poifs|org\.apache\.poi\.hssf\.util|org\.apache\.poi\.hssf\.usermodel|org\.apache\.poi\.hpsf)(?:\.[\w$]+|\.\*)\s*;)|(?:&lt;%@\s*page\b[^%]*\bimport\s*=\s*\&quot;[^\&quot;]*\b(?:org\.apache\.poi|org\.apache\.poi\.ss|org\.apache\.poi\.hssf|org\.apache\.poi\.ss\.formula|org\.apache\.poi\.hssf\.record|org\.apache\.poi\.ss\.usermodel|org\.apache\.poi\.poifs|org\.apache\.poi\.hssf\.util|org\.apache\.poi\.hssf\.usermodel|org\.apache\.poi\.hpsf)\.)|(?:\b(?:org\.apache\.poi|org\.apache\.poi\.ss|org\.apache\.poi\.hssf|org\.apache\.poi\.ss\.formula|org\.apache\.poi\.hssf\.record|org\.apache\.poi\.ss\.usermodel|org\.apache\.poi\.poifs|org\.apache\.poi\.hssf\.util|org\.apache\.poi\.hssf\.usermodel|org\.apache\.poi\.hpsf)\.[A-Za-z_$][\w$]*\b)"/>
+    <s v="Medium"/>
+    <s v="Third-Party Dependencies"/>
+    <s v="Dual-runtime: manage this dependency in Maven/Gradle and upgrade to a maintained Java-8-baseline release; validate on JDK 8 and JDK 21."/>
+    <s v="Upgrade/Replace"/>
+    <s v="Replace exploded lib with build-managed dependency; choose a release that supports Java 8 and test on JDK 21."/>
+    <s v="Medium"/>
+    <n v="0.5"/>
+    <n v="72"/>
+    <n v="43"/>
+    <s v="1-fpms"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="6"/>
+    <s v="(blank)"/>
+    <x v="3"/>
+    <s v="to verify runtime - New/Existing JAR &amp; New/Existing API ?"/>
+    <s v="to verify runtime - New/Existing JAR &amp; New/Existing API ?"/>
+    <s v="Dual-Review"/>
+    <s v="(blank)"/>
+    <s v="(blank)"/>
+    <s v="P082"/>
+    <s v="UT082"/>
+    <n v="43"/>
+  </r>
+  <r>
+    <x v="82"/>
+    <s v="Set 3 - Third Party"/>
+    <s v="THIRD-PARTY (POI jar)"/>
+    <s v="poi-ooxml-3.8-20120326.jar"/>
+    <s v="Third-party library present in application lib folder (exploded project)."/>
+    <s v="(?ms)(?:^\s*import\s+(?:static\s+)?(?:org\.apache\.poi|org\.apache\.poi\.xslf|org\.apache\.poi\.xssf|org\.apache\.poi\.xslf\.usermodel|org\.apache\.poi\.xssf\.usermodel|org\.apache\.poi\.xslf\.model|org\.apache\.poi\.openxml4j|org\.apache\.poi\.xwpf|org\.apache\.poi\.xwpf\.usermodel|org\.apache\.poi\.openxml4j\.opc)(?:\.[\w$]+|\.\*)\s*;)|(?:&lt;%@\s*page\b[^%]*\bimport\s*=\s*\&quot;[^\&quot;]*\b(?:org\.apache\.poi|org\.apache\.poi\.xslf|org\.apache\.poi\.xssf|org\.apache\.poi\.xslf\.usermodel|org\.apache\.poi\.xssf\.usermodel|org\.apache\.poi\.xslf\.model|org\.apache\.poi\.openxml4j|org\.apache\.poi\.xwpf|org\.apache\.poi\.xwpf\.usermodel|org\.apache\.poi\.openxml4j\.opc)\.)|(?:\b(?:org\.apache\.poi|org\.apache\.poi\.xslf|org\.apache\.poi\.xssf|org\.apache\.poi\.xslf\.usermodel|org\.apache\.poi\.xssf\.usermodel|org\.apache\.poi\.xslf\.model|org\.apache\.poi\.openxml4j|org\.apache\.poi\.xwpf|org\.apache\.poi\.xwpf\.usermodel|org\.apache\.poi\.openxml4j\.opc)\.[A-Za-z_$][\w$]*\b)"/>
+    <s v="Medium"/>
+    <s v="Third-Party Dependencies"/>
+    <s v="Dual-runtime: manage this dependency in Maven/Gradle and upgrade to a maintained Java-8-baseline release; validate on JDK 8 and JDK 21."/>
+    <s v="Upgrade/Replace"/>
+    <s v="Replace exploded lib with build-managed dependency; choose a release that supports Java 8 and test on JDK 21."/>
+    <s v="Medium"/>
+    <n v="0.5"/>
+    <n v="73"/>
+    <n v="43"/>
+    <s v="1-fpms"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="6"/>
+    <s v="(blank)"/>
+    <x v="3"/>
+    <s v="to verify runtime - New/Existing JAR &amp; New/Existing API ?"/>
+    <s v="to verify runtime - New/Existing JAR &amp; New/Existing API ?"/>
+    <s v="Dual-Review"/>
+    <s v="(blank)"/>
+    <s v="(blank)"/>
+    <s v="P083"/>
+    <s v="UT083"/>
+    <n v="43"/>
+  </r>
+  <r>
+    <x v="83"/>
+    <s v="Set 3 - Third Party"/>
+    <s v="THIRD-PARTY (SCHEDULER jar)"/>
+    <s v="quartz.jar"/>
+    <s v="Third-party library present in application lib folder (exploded project)."/>
+    <s v="(?ms)(?:^\s*import\s+(?:static\s+)?(?:org\.quartz|org\.quartz\.impl|org\.quartz\.impl\.jdbcjobstore|org\.quartz\.core|org\.quartz\.simpl|org\.quartz\.utils|org\.quartz\.xml|org\.quartz\.jobs|org\.quartz\.spi|org\.quartz\.ee)(?:\.[\w$]+|\.\*)\s*;)|(?:&lt;%@\s*page\b[^%]*\bimport\s*=\s*\&quot;[^\&quot;]*\b(?:org\.quartz|org\.quartz\.impl|org\.quartz\.impl\.jdbcjobstore|org\.quartz\.core|org\.quartz\.simpl|org\.quartz\.utils|org\.quartz\.xml|org\.quartz\.jobs|org\.quartz\.spi|org\.quartz\.ee)\.)|(?:\b(?:org\.quartz|org\.quartz\.impl|org\.quartz\.impl\.jdbcjobstore|org\.quartz\.core|org\.quartz\.simpl|org\.quartz\.utils|org\.quartz\.xml|org\.quartz\.jobs|org\.quartz\.spi|org\.quartz\.ee)\.[A-Za-z_$][\w$]*\b)"/>
+    <s v="Medium"/>
+    <s v="Third-Party Dependencies"/>
+    <s v="Dual-runtime: manage this dependency in Maven/Gradle and upgrade to a maintained Java-8-baseline release; validate on JDK 8 and JDK 21."/>
+    <s v="Upgrade/Replace"/>
+    <s v="Replace exploded lib with build-managed dependency; choose a release that supports Java 8 and test on JDK 21."/>
+    <s v="Medium"/>
+    <n v="0.5"/>
+    <n v="114"/>
+    <n v="17"/>
+    <s v="1-fpms"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="Quartz Scheduler 2.3.2"/>
+    <x v="4"/>
+    <s v="to verify runtime - New JAR &amp; API ?"/>
+    <s v="to verify runtime - New JAR &amp; API ?"/>
+    <s v="Dual-Review"/>
+    <s v="(blank)"/>
+    <s v="(blank)"/>
+    <s v="P084"/>
+    <s v="UT084"/>
+    <n v="17"/>
+  </r>
+  <r>
+    <x v="84"/>
+    <s v="Set 3 - Third Party"/>
+    <s v="THIRD-PARTY (SPRING jar)"/>
+    <s v="spring-beans.jar"/>
+    <s v="Third-party library present in application lib folder (exploded project)."/>
+    <s v="(?ms)(?:^\s*import\s+(?:static\s+)?(?:org\.springframework\.beans|org\.springframework\.beans\.factory|org\.springframework\.beans\.factory\.support|org\.springframework\.beans\.factory\.config|org\.springframework\.beans\.factory\.xml|org\.springframework\.beans\.propertyeditors|org\.springframework\.beans\.factory\.annotation|org\.springframework\.beans\.factory\.parsing|org\.springframework\.beans\.factory\.groovy|org\.springframework\.beans\.factory\.access)(?:\.[\w$]+|\.\*)\s*;)|(?:&lt;%@\s*page\b[^%]*\bimport\s*=\s*\&quot;[^\&quot;]*\b(?:org\.springframework\.beans|org\.springframework\.beans\.factory|org\.springframework\.beans\.factory\.support|org\.springframework\.beans\.factory\.config|org\.springframework\.beans\.factory\.xml|org\.springframework\.beans\.propertyeditors|org\.springframework\.beans\.factory\.annotation|org\.springframework\.beans\.factory\.parsing|org\.springframework\.beans\.factory\.groovy|org\.springframework\.beans\.factory\.access)\.)|(?:\b(?:org\.springframework\.beans|org\.springframework\.beans\.factory|org\.springframework\.beans\.factory\.support|org\.springframework\.beans\.factory\.config|org\.springframework\.beans\.factory\.xml|org\.springframework\.beans\.propertyeditors|org\.springframework\.beans\.factory\.annotation|org\.springframework\.beans\.factory\.parsing|org\.springframework\.beans\.factory\.groovy|org\.springframework\.beans\.factory\.access)\.[A-Za-z_$][\w$]*\b)"/>
+    <s v="Medium"/>
+    <s v="Framework Old Version"/>
+    <s v="Dual-runtime: move to Spring Framework 5.3.x line (Java 8 baseline) via Maven/Gradle BOM; avoid Spring 6/Jakarta-only."/>
+    <s v="Upgrade"/>
+    <s v="Adopt dependency management; upgrade Spring to 5.3.x; re-test on both runtimes."/>
+    <s v="Medium"/>
+    <n v="2"/>
+    <n v="53"/>
+    <n v="8"/>
+    <s v="1-fpms"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="6"/>
+    <s v="(blank)"/>
+    <x v="3"/>
+    <s v="to verify runtime - New/Existing JAR &amp; New/Existing API ?"/>
+    <s v="to verify runtime - New/Existing JAR &amp; New/Existing API ?"/>
+    <s v="Dual-Spring53"/>
+    <s v="(blank)"/>
+    <s v="(blank)"/>
+    <s v="P085"/>
+    <s v="UT085"/>
+    <n v="8"/>
+  </r>
+  <r>
+    <x v="85"/>
+    <s v="Set 3 - Third Party"/>
+    <s v="THIRD-PARTY (SPRING jar)"/>
+    <s v="spring-context.jar"/>
+    <s v="Third-party library present in application lib folder (exploded project)."/>
+    <s v="(?ms)(?:^\s*import\s+(?:static\s+)?(?:org\.springframework\.context|org\.springframework\.format|org\.springframework\.context\.annotation|org\.springframework\.cache|org\.springframework\.format\.datetime|org\.springframework\.jmx|org\.springframework\.scheduling|org\.springframework\.jmx\.export|org\.springframework\.context\.support|org\.springframework\.cache\.interceptor)(?:\.[\w$]+|\.\*)\s*;)|(?:&lt;%@\s*page\b[^%]*\bimport\s*=\s*\&quot;[^\&quot;]*\b(?:org\.springframework\.context|org\.springframework\.format|org\.springframework\.context\.annotation|org\.springframework\.cache|org\.springframework\.format\.datetime|org\.springframework\.jmx|org\.springframework\.scheduling|org\.springframework\.jmx\.export|org\.springframework\.context\.support|org\.springframework\.cache\.interceptor)\.)|(?:\b(?:org\.springframework\.context|org\.springframework\.format|org\.springframework\.context\.annotation|org\.springframework\.cache|org\.springframework\.format\.datetime|org\.springframework\.jmx|org\.springframework\.scheduling|org\.springframework\.jmx\.export|org\.springframework\.context\.support|org\.springframework\.cache\.interceptor)\.[A-Za-z_$][\w$]*\b)"/>
+    <s v="Medium"/>
+    <s v="Framework Old Version"/>
+    <s v="Dual-runtime: move to Spring Framework 5.3.x line (Java 8 baseline) via Maven/Gradle BOM; avoid Spring 6/Jakarta-only."/>
+    <s v="Upgrade"/>
+    <s v="Adopt dependency management; upgrade Spring to 5.3.x; re-test on both runtimes."/>
+    <s v="Medium"/>
+    <n v="2"/>
+    <n v="54"/>
+    <n v="1"/>
+    <s v="1-fpms"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="6"/>
+    <s v="(blank)"/>
+    <x v="3"/>
+    <s v="to verify runtime - New/Existing JAR &amp; New/Existing API ?"/>
+    <s v="to verify runtime - New/Existing JAR &amp; New/Existing API ?"/>
+    <s v="Dual-Spring53"/>
+    <s v="(blank)"/>
+    <s v="(blank)"/>
+    <s v="P086"/>
+    <s v="UT086"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="86"/>
+    <s v="Set 3 - Third Party"/>
+    <s v="THIRD-PARTY (SPRING jar)"/>
+    <s v="spring-core.jar"/>
+    <s v="Third-party library present in application lib folder (exploded project)."/>
+    <s v="(?ms)(?:^\s*import\s+(?:static\s+)?(?:org\.springframework\.core|org\.springframework\.cglib|org\.springframework\.util|org\.springframework\.cglib\.core|org\.springframework\.core\.convert|org\.springframework\.core\.convert\.support|org\.springframework\.cglib\.proxy|org\.springframework\.cglib\.transform|org\.springframework\.objenesis|org\.springframework\.core\.io)(?:\.[\w$]+|\.\*)\s*;)|(?:&lt;%@\s*page\b[^%]*\bimport\s*=\s*\&quot;[^\&quot;]*\b(?:org\.springframework\.core|org\.springframework\.cglib|org\.springframework\.util|org\.springframework\.cglib\.core|org\.springframework\.core\.convert|org\.springframework\.core\.convert\.support|org\.springframework\.cglib\.proxy|org\.springframework\.cglib\.transform|org\.springframework\.objenesis|org\.springframework\.core\.io)\.)|(?:\b(?:org\.springframework\.core|org\.springframework\.cglib|org\.springframework\.util|org\.springframework\.cglib\.core|org\.springframework\.core\.convert|org\.springframework\.core\.convert\.support|org\.springframework\.cglib\.proxy|org\.springframework\.cglib\.transform|org\.springframework\.objenesis|org\.springframework\.core\.io)\.[A-Za-z_$][\w$]*\b)"/>
+    <s v="Medium"/>
+    <s v="Framework Old Version"/>
+    <s v="Dual-runtime: move to Spring Framework 5.3.x line (Java 8 baseline) via Maven/Gradle BOM; avoid Spring 6/Jakarta-only."/>
+    <s v="Upgrade"/>
+    <s v="Adopt dependency management; upgrade Spring to 5.3.x; re-test on both runtimes."/>
+    <s v="Medium"/>
+    <n v="2"/>
+    <n v="55"/>
+    <n v="6"/>
+    <s v="1-fpms"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="6"/>
+    <s v="(blank)"/>
+    <x v="3"/>
+    <s v="to verify runtime - New/Existing JAR &amp; New/Existing API ?"/>
+    <s v="to verify runtime - New/Existing JAR &amp; New/Existing API ?"/>
+    <s v="Dual-Spring53"/>
+    <s v="(blank)"/>
+    <s v="(blank)"/>
+    <s v="P087"/>
+    <s v="UT087"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="87"/>
+    <s v="Set 3 - Third Party"/>
+    <s v="THIRD-PARTY (SPRING jar)"/>
+    <s v="spring-web.jar"/>
+    <s v="Third-party library present in application lib folder (exploded project)."/>
+    <s v="(?ms)(?:^\s*import\s+(?:static\s+)?(?:org\.springframework\.web|org\.springframework\.http|org\.springframework\.web\.context|org\.springframework\.http\.client|org\.springframework\.web\.bind|org\.springframework\.web\.util|org\.springframework\.http\.converter|org\.springframework\.web\.context\.request|org\.springframework\.web\.method|org\.springframework\.web\.context\.support)(?:\.[\w$]+|\.\*)\s*;)|(?:&lt;%@\s*page\b[^%]*\bimport\s*=\s*\&quot;[^\&quot;]*\b(?:org\.springframework\.web|org\.springframework\.http|org\.springframework\.web\.context|org\.springframework\.http\.client|org\.springframework\.web\.bind|org\.springframework\.web\.util|org\.springframework\.http\.converter|org\.springframework\.web\.context\.request|org\.springframework\.web\.method|org\.springframework\.web\.context\.support)\.)|(?:\b(?:org\.springframework\.web|org\.springframework\.http|org\.springframework\.web\.context|org\.springframework\.http\.client|org\.springframework\.web\.bind|org\.springframework\.web\.util|org\.springframework\.http\.converter|org\.springframework\.web\.context\.request|org\.springframework\.web\.method|org\.springframework\.web\.context\.support)\.[A-Za-z_$][\w$]*\b)"/>
+    <s v="Medium"/>
+    <s v="Framework Old Version"/>
+    <s v="Dual-runtime: move to Spring Framework 5.3.x line (Java 8 baseline) via Maven/Gradle BOM; avoid Spring 6/Jakarta-only."/>
+    <s v="Upgrade"/>
+    <s v="Adopt dependency management; upgrade Spring to 5.3.x; re-test on both runtimes."/>
+    <s v="Medium"/>
+    <n v="2"/>
+    <n v="56"/>
+    <n v="17"/>
+    <s v="1-fpms"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="6"/>
+    <s v="(blank)"/>
+    <x v="3"/>
+    <s v="to verify runtime - New/Existing JAR &amp; New/Existing API ?"/>
+    <s v="to verify runtime - New/Existing JAR &amp; New/Existing API ?"/>
+    <s v="Dual-Spring53"/>
+    <s v="(blank)"/>
+    <s v="(blank)"/>
+    <s v="P088"/>
+    <s v="UT088"/>
+    <n v="17"/>
+  </r>
+  <r>
+    <x v="88"/>
+    <s v="Set 3 - Third Party"/>
+    <s v="THIRD-PARTY (SSH jar)"/>
+    <s v="sshj-0.35.0.jar"/>
+    <s v="Third-party library present in application lib folder (exploded project)."/>
+    <s v="(?ms)(?:^\s*import\s+(?:static\s+)?(?:net\.schmizz|net\.schmizz\.sshj|net\.schmizz\.sshj\.transport|com\.hierynomus\.sshj|net\.schmizz\.sshj\.userauth|net\.schmizz\.sshj\.connection|net\.schmizz\.sshj\.common|net\.schmizz\.sshj\.connection\.channel|net\.schmizz\.sshj\.sftp|com\.hierynomus\.sshj\.transport)(?:\.[\w$]+|\.\*)\s*;)|(?:&lt;%@\s*page\b[^%]*\bimport\s*=\s*\&quot;[^\&quot;]*\b(?:net\.schmizz|net\.schmizz\.sshj|net\.schmizz\.sshj\.transport|com\.hierynomus\.sshj|net\.schmizz\.sshj\.userauth|net\.schmizz\.sshj\.connection|net\.schmizz\.sshj\.common|net\.schmizz\.sshj\.connection\.channel|net\.schmizz\.sshj\.sftp|com\.hierynomus\.sshj\.transport)\.)|(?:\b(?:net\.schmizz|net\.schmizz\.sshj|net\.schmizz\.sshj\.transport|com\.hierynomus\.sshj|net\.schmizz\.sshj\.userauth|net\.schmizz\.sshj\.connection|net\.schmizz\.sshj\.common|net\.schmizz\.sshj\.connection\.channel|net\.schmizz\.sshj\.sftp|com\.hierynomus\.sshj\.transport)\.[A-Za-z_$][\w$]*\b)"/>
+    <s v="Medium"/>
+    <s v="Third-Party Dependencies"/>
+    <s v="Dual-runtime: manage this dependency in Maven/Gradle and upgrade to a maintained Java-8-baseline release; validate on JDK 8 and JDK 21."/>
+    <s v="Upgrade/Replace"/>
+    <s v="Replace exploded lib with build-managed dependency; choose a release that supports Java 8 and test on JDK 21."/>
+    <s v="Medium"/>
+    <n v="0.5"/>
+    <n v="66"/>
+    <n v="7"/>
+    <s v="1-fpms"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="6"/>
+    <s v="(blank)"/>
+    <x v="3"/>
+    <s v="to verify runtime - New/Existing JAR &amp; New/Existing API ?"/>
+    <s v="to verify runtime - New/Existing JAR &amp; New/Existing API ?"/>
+    <s v="Dual-Review"/>
+    <s v="(blank)"/>
+    <s v="(blank)"/>
+    <s v="P089"/>
+    <s v="UT089"/>
+    <n v="7"/>
+  </r>
+  <r>
+    <x v="89"/>
+    <s v="Set 3 - Third Party"/>
+    <s v="THIRD-PARTY (SSO jar)"/>
+    <s v="SSOapiBean_client.jar"/>
+    <s v="Third-party library present in application lib folder (exploded project)."/>
+    <s v="(?ms)(?:^\s*import\s+(?:static\s+)?(?:com\.gelife|com\.gelife\.base|com\.gelife\.sso|com\.gelife\.sso\.common|com\.gelife\.base\.util|com\.gelife\.base\.common|com\.gelife\.base\.i18n|com\.gelife\.sso\.GELsso|com\.gelife\.sso\.event|com\.gelife\.base\.i18n\.MessageBundle\$EmptyResourceBundle)(?:\.[\w$]+|\.\*)\s*;)|(?:&lt;%@\s*page\b[^%]*\bimport\s*=\s*\&quot;[^\&quot;]*\b(?:com\.gelife|com\.gelife\.base|com\.gelife\.sso|com\.gelife\.sso\.common|com\.gelife\.base\.util|com\.gelife\.base\.common|com\.gelife\.base\.i18n|com\.gelife\.sso\.GELsso|com\.gelife\.sso\.event|com\.gelife\.base\.i18n\.MessageBundle\$EmptyResourceBundle)\.)|(?:\b(?:com\.gelife|com\.gelife\.base|com\.gelife\.sso|com\.gelife\.sso\.common|com\.gelife\.base\.util|com\.gelife\.base\.common|com\.gelife\.base\.i18n|com\.gelife\.sso\.GELsso|com\.gelife\.sso\.event|com\.gelife\.base\.i18n\.MessageBundle\$EmptyResourceBundle)\.[A-Za-z_$][\w$]*\b)"/>
+    <s v="Medium"/>
+    <s v="Third-Party Dependencies"/>
+    <s v="Dual-runtime: manage this dependency in Maven/Gradle and upgrade to a maintained Java-8-baseline release; validate on JDK 8 and JDK 21."/>
+    <s v="Upgrade/Replace"/>
+    <s v="Replace exploded lib with build-managed dependency; choose a release that supports Java 8 and test on JDK 21."/>
+    <s v="Medium"/>
+    <n v="0.5"/>
+    <n v="97"/>
+    <n v="18"/>
+    <s v="1-fpms"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="(blank)"/>
+    <x v="2"/>
+    <s v="to verify runtime - New JAR &amp; API ?"/>
+    <s v="to verify runtime - ExitingAPI / NewAPI ?"/>
+    <s v="Dual-Review"/>
+    <s v="(blank)"/>
+    <s v="(blank)"/>
+    <s v="P090"/>
+    <s v="UT090"/>
+    <n v="18"/>
+  </r>
+  <r>
+    <x v="90"/>
+    <s v="Set 3 - Third Party"/>
+    <s v="THIRD-PARTY (STRUTS NES jar)"/>
+    <s v="struts.jar"/>
+    <s v="Third-party library present in application lib folder (exploded project)."/>
+    <s v="(?ms)(?:^\s*import\s+(?:static\s+)?(?:org\.apache\.struts|org\.apache\.struts\.taglib|org\.apache\.struts\.taglib\.nested|org\.apache\.struts\.tiles|org\.apache\.struts\.taglib\.html|org\.apache\.struts\.action|org\.apache\.struts\.taglib\.tiles|org\.apache\.struts\.config|org\.apache\.struts\.taglib\.logic|org\.apache\.struts\.taglib\.bean)(?:\.[\w$]+|\.\*)\s*;)|(?:&lt;%@\s*page\b[^%]*\bimport\s*=\s*\&quot;[^\&quot;]*\b(?:org\.apache\.struts|org\.apache\.struts\.taglib|org\.apache\.struts\.taglib\.nested|org\.apache\.struts\.tiles|org\.apache\.struts\.taglib\.html|org\.apache\.struts\.action|org\.apache\.struts\.taglib\.tiles|org\.apache\.struts\.config|org\.apache\.struts\.taglib\.logic|org\.apache\.struts\.taglib\.bean)\.)|(?:\b(?:org\.apache\.struts|org\.apache\.struts\.taglib|org\.apache\.struts\.taglib\.nested|org\.apache\.struts\.tiles|org\.apache\.struts\.taglib\.html|org\.apache\.struts\.action|org\.apache\.struts\.taglib\.tiles|org\.apache\.struts\.config|org\.apache\.struts\.taglib\.logic|org\.apache\.struts\.taglib\.bean)\.[A-Za-z_$][\w$]*\b)"/>
+    <s v="High"/>
+    <s v="Framework EOL"/>
+    <s v="Struts 1.x is obsolete; dual-runtime goal requires migrating away from Struts 1 (e.g., Spring MVC on javax.* container) or another maintained framework."/>
+    <s v="Rewrite"/>
+    <s v="Framework migration required; large code/config changes; regression testing on both runtimes."/>
+    <s v="High"/>
+    <n v="5"/>
+    <n v="94"/>
+    <n v="7314"/>
+    <s v="1-fpms"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+    <s v="(blank)"/>
+    <x v="1"/>
+    <s v="NOT-SAFE"/>
+    <s v="to verify runtime - New JAR &amp; API ?"/>
+    <s v="Dual-FrameworkMigration"/>
+    <s v="(blank)"/>
+    <s v="(blank)"/>
+    <s v="P091"/>
+    <s v="UT091"/>
+    <n v="7314"/>
+  </r>
+  <r>
+    <x v="91"/>
+    <s v="Set 3 - Third Party"/>
+    <s v="THIRD-PARTY (XML jar)"/>
+    <s v="xalan-2.7.3.jar"/>
+    <s v="Third-party library present in application lib folder (exploded project)."/>
+    <s v="(?ms)(?:^\s*import\s+(?:static\s+)?(?:org\.apache\.xalan|org\.apache\.bcel|org\.apache\.xalan\.xsltc|org\.apache\.xml|org\.apache\.bcel\.generic|org\.apache\.xpath|org\.apache\.xalan\.xsltc\.compiler|org\.apache\.xml\.dtm|org\.apache\.xml\.dtm\.ref|org\.apache\.bcel\.classfile)(?:\.[\w$]+|\.\*)\s*;)|(?:&lt;%@\s*page\b[^%]*\bimport\s*=\s*\&quot;[^\&quot;]*\b(?:org\.apache\.xalan|org\.apache\.bcel|org\.apache\.xalan\.xsltc|org\.apache\.xml|org\.apache\.bcel\.generic|org\.apache\.xpath|org\.apache\.xalan\.xsltc\.compiler|org\.apache\.xml\.dtm|org\.apache\.xml\.dtm\.ref|org\.apache\.bcel\.classfile)\.)|(?:\b(?:org\.apache\.xalan|org\.apache\.bcel|org\.apache\.xalan\.xsltc|org\.apache\.xml|org\.apache\.bcel\.generic|org\.apache\.xpath|org\.apache\.xalan\.xsltc\.compiler|org\.apache\.xml\.dtm|org\.apache\.xml\.dtm\.ref|org\.apache\.bcel\.classfile)\.[A-Za-z_$][\w$]*\b)"/>
+    <s v="Medium"/>
+    <s v="XML Parser/XSLT"/>
+    <s v="Dual-runtime: remove/upgrade bundled legacy XML parser/XSLT jars; prefer JDK JAXP; validate on JDK 8 and JDK 21."/>
+    <s v="Replace/Remove"/>
+    <s v="Remove redundant jars unless required; upgrade if needed; re-test."/>
+    <s v="Medium"/>
+    <n v="1"/>
+    <n v="31"/>
+    <n v="14"/>
+    <s v="1-fpms"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="7"/>
+    <s v="(blank)"/>
+    <x v="3"/>
+    <s v="to verify runtime - New/Existing JAR &amp; New/Existing API ?"/>
+    <s v="to verify runtime - New/Existing JAR &amp; New/Existing API ?"/>
+    <s v="Dual-XML-Align"/>
+    <s v="(blank)"/>
+    <s v="(blank)"/>
+    <s v="P092"/>
+    <s v="UT092"/>
+    <n v="14"/>
+  </r>
+  <r>
+    <x v="92"/>
+    <s v="Set 3 - Third Party"/>
+    <s v="THIRD-PARTY (XML jar)"/>
+    <s v="xalan-j_2_6_0.jar"/>
+    <s v="Third-party library present in application lib folder (exploded project)."/>
+    <s v="(?ms)(?:^\s*import\s+(?:static\s+)?(?:org\.apache\.xml|org\.apache\.xalan|org\.apache\.xpath|org\.apache\.xml\.dtm|org\.apache\.xml\.dtm\.ref|org\.apache\.xml\.utils|org\.apache\.xalan\.templates|org\.apache\.xpath\.functions|org\.apache\.xml\.serializer|org\.apache\.xalan\.lib)(?:\.[\w$]+|\.\*)\s*;)|(?:&lt;%@\s*page\b[^%]*\bimport\s*=\s*\&quot;[^\&quot;]*\b(?:org\.apache\.xml|org\.apache\.xalan|org\.apache\.xpath|org\.apache\.xml\.dtm|org\.apache\.xml\.dtm\.ref|org\.apache\.xml\.utils|org\.apache\.xalan\.templates|org\.apache\.xpath\.functions|org\.apache\.xml\.serializer|org\.apache\.xalan\.lib)\.)|(?:\b(?:org\.apache\.xml|org\.apache\.xalan|org\.apache\.xpath|org\.apache\.xml\.dtm|org\.apache\.xml\.dtm\.ref|org\.apache\.xml\.utils|org\.apache\.xalan\.templates|org\.apache\.xpath\.functions|org\.apache\.xml\.serializer|org\.apache\.xalan\.lib)\.[A-Za-z_$][\w$]*\b)"/>
+    <s v="Medium"/>
+    <s v="XML Parser/XSLT"/>
+    <s v="Dual-runtime: remove/upgrade bundled legacy XML parser/XSLT jars; prefer JDK JAXP; validate on JDK 8 and JDK 21."/>
+    <s v="Replace/Remove"/>
+    <s v="Remove redundant jars unless required; upgrade if needed; re-test."/>
+    <s v="Medium"/>
+    <n v="1"/>
+    <n v="32"/>
+    <n v="14"/>
+    <s v="1-fpms"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="7"/>
+    <s v="(blank)"/>
+    <x v="3"/>
+    <s v="to verify runtime - New/Existing JAR &amp; New/Existing API ?"/>
+    <s v="to verify runtime - New/Existing JAR &amp; New/Existing API ?"/>
+    <s v="Dual-XML-Align"/>
+    <s v="(blank)"/>
+    <s v="(blank)"/>
+    <s v="P093"/>
+    <s v="UT093"/>
+    <n v="14"/>
+  </r>
+  <r>
+    <x v="93"/>
+    <s v="Set 3 - Third Party"/>
+    <s v="THIRD-PARTY (XML jar)"/>
+    <s v="xalan.jar"/>
+    <s v="Third-party library present in application lib folder (exploded project)."/>
+    <s v="(?ms)(?:^\s*import\s+(?:static\s+)?(?:org\.apache\.xalan|org\.apache\.xml|org\.apache\.xpath|org\.apache\.xml\.dtm|org\.apache\.xml\.dtm\.ref|org\.apache\.xml\.utils|org\.apache\.xalan\.templates|org\.apache\.xpath\.functions|org\.apache\.xpath\.axes|org\.apache\.xalan\.transformer)(?:\.[\w$]+|\.\*)\s*;)|(?:&lt;%@\s*page\b[^%]*\bimport\s*=\s*\&quot;[^\&quot;]*\b(?:org\.apache\.xalan|org\.apache\.xml|org\.apache\.xpath|org\.apache\.xml\.dtm|org\.apache\.xml\.dtm\.ref|org\.apache\.xml\.utils|org\.apache\.xalan\.templates|org\.apache\.xpath\.functions|org\.apache\.xpath\.axes|org\.apache\.xalan\.transformer)\.)|(?:\b(?:org\.apache\.xalan|org\.apache\.xml|org\.apache\.xpath|org\.apache\.xml\.dtm|org\.apache\.xml\.dtm\.ref|org\.apache\.xml\.utils|org\.apache\.xalan\.templates|org\.apache\.xpath\.functions|org\.apache\.xpath\.axes|org\.apache\.xalan\.transformer)\.[A-Za-z_$][\w$]*\b)"/>
+    <s v="Medium"/>
+    <s v="XML Parser/XSLT"/>
+    <s v="Dual-runtime: remove/upgrade bundled legacy XML parser/XSLT jars; prefer JDK JAXP; validate on JDK 8 and JDK 21."/>
+    <s v="Replace/Remove"/>
+    <s v="Remove redundant jars unless required; upgrade if needed; re-test."/>
+    <s v="Medium"/>
+    <n v="1"/>
+    <n v="30"/>
+    <n v="14"/>
+    <s v="1-fpms"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="7"/>
+    <s v="(blank)"/>
+    <x v="3"/>
+    <s v="to verify runtime - New/Existing JAR &amp; New/Existing API ?"/>
+    <s v="to verify runtime - New/Existing JAR &amp; New/Existing API ?"/>
+    <s v="Dual-XML-Align"/>
+    <s v="(blank)"/>
+    <s v="(blank)"/>
+    <s v="P094"/>
+    <s v="UT094"/>
+    <n v="14"/>
+  </r>
+  <r>
+    <x v="94"/>
+    <s v="Set 3 - Third Party"/>
+    <s v="THIRD-PARTY (XML jar)"/>
+    <s v="xerces.jar"/>
+    <s v="Third-party library present in application lib folder (exploded project)."/>
+    <s v="(?ms)(?:^\s*import\s+(?:static\s+)?(?:org\.apache\.xerces|org\.apache\.xerces\.impl|org\.apache\.xerces\.impl\.xs|org\.apache\.wml|org\.apache\.xerces\.dom|org\.apache\.xerces\.impl\.dv|org\.apache\.html\.dom|org\.apache\.xerces\.util|org\.apache\.wml\.dom|org\.apache\.xerces\.impl\.xpath)(?:\.[\w$]+|\.\*)\s*;)|(?:&lt;%@\s*page\b[^%]*\bimport\s*=\s*\&quot;[^\&quot;]*\b(?:org\.apache\.xerces|org\.apache\.xerces\.impl|org\.apache\.xerces\.impl\.xs|org\.apache\.wml|org\.apache\.xerces\.dom|org\.apache\.xerces\.impl\.dv|org\.apache\.html\.dom|org\.apache\.xerces\.util|org\.apache\.wml\.dom|org\.apache\.xerces\.impl\.xpath)\.)|(?:\b(?:org\.apache\.xerces|org\.apache\.xerces\.impl|org\.apache\.xerces\.impl\.xs|org\.apache\.wml|org\.apache\.xerces\.dom|org\.apache\.xerces\.impl\.dv|org\.apache\.html\.dom|org\.apache\.xerces\.util|org\.apache\.wml\.dom|org\.apache\.xerces\.impl\.xpath)\.[A-Za-z_$][\w$]*\b)"/>
+    <s v="Medium"/>
+    <s v="XML Parser/XSLT"/>
+    <s v="Dual-runtime: remove/upgrade bundled legacy XML parser/XSLT jars; prefer JDK JAXP; validate on JDK 8 and JDK 21."/>
+    <s v="Replace/Remove"/>
+    <s v="Remove redundant jars unless required; upgrade if needed; re-test."/>
+    <s v="Medium"/>
+    <n v="1"/>
+    <n v="33"/>
+    <n v="5"/>
+    <s v="1-fpms"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="7"/>
+    <s v="(blank)"/>
+    <x v="3"/>
+    <s v="to verify runtime - New/Existing JAR &amp; New/Existing API ?"/>
+    <s v="to verify runtime - New/Existing JAR &amp; New/Existing API ?"/>
+    <s v="Dual-XML-Align"/>
+    <s v="(blank)"/>
+    <s v="(blank)"/>
+    <s v="P095"/>
+    <s v="UT095"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="95"/>
+    <s v="Set 3 - Third Party"/>
+    <s v="THIRD-PARTY (XML jar)"/>
+    <s v="xi_databinding.jar"/>
+    <s v="Third-party library present in application lib folder (exploded project)."/>
+    <s v="(?ms)(?:^\s*import\s+(?:static\s+)?(?:com\.ebao\.ls\.ih\.eai)(?:\.[\w$]+|\.\*)\s*;)|(?:&lt;%@\s*page\b[^%]*\bimport\s*=\s*\&quot;[^\&quot;]*\b(?:com\.ebao\.ls\.ih\.eai)\.)|(?:\b(?:com\.ebao\.ls\.ih\.eai)\.[A-Za-z_$][\w$]*\b)"/>
+    <s v="Medium"/>
+    <s v="Third-Party Dependencies"/>
+    <s v="Dual-runtime: manage this dependency in Maven/Gradle and upgrade to a maintained Java-8-baseline release; validate on JDK 8 and JDK 21."/>
+    <s v="Upgrade/Replace"/>
+    <s v="Replace exploded lib with build-managed dependency; choose a release that supports Java 8 and test on JDK 21."/>
+    <s v="Medium"/>
+    <n v="0.5"/>
+    <n v="106"/>
+    <n v="5158"/>
+    <s v="1-fpms"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="jakarta.xml.bind-api-4.0.0.jar,jaxb-runtime-4.0.0"/>
+    <x v="4"/>
+    <s v="to verify runtime - New JAR &amp; API ?"/>
+    <s v="to verify runtime - New JAR &amp; API ?"/>
+    <s v="Dual-Review"/>
+    <s v="(blank)"/>
+    <s v="(blank)"/>
+    <s v="P096"/>
+    <s v="UT096"/>
+    <n v="5158"/>
+  </r>
+  <r>
+    <x v="96"/>
+    <s v="Set 3 - Third Party"/>
+    <s v="THIRD-PARTY (XML jar)"/>
+    <s v="xstream-1.1.jar"/>
+    <s v="Third-party library present in application lib folder (exploded project)."/>
+    <s v="(?ms)(?:^\s*import\s+(?:static\s+)?(?:com\.thoughtworks\.xstream|com\.thoughtworks\.xstream\.converters|com\.thoughtworks\.xstream\.core|com\.thoughtworks\.xstream\.io|com\.thoughtworks\.xstream\.io\.xml|com\.thoughtworks\.xstream\.converters\.reflection|com\.thoughtworks\.xstream\.converters\.extended|com\.thoughtworks\.xstream\.converters\.basic|com\.thoughtworks\.xstream\.core\.util|com\.thoughtworks\.xstream\.converters\.collections)(?:\.[\w$]+|\.\*)\s*;)|(?:&lt;%@\s*page\b[^%]*\bimport\s*=\s*\&quot;[^\&quot;]*\b(?:com\.thoughtworks\.xstream|com\.thoughtworks\.xstream\.converters|com\.thoughtworks\.xstream\.core|com\.thoughtworks\.xstream\.io|com\.thoughtworks\.xstream\.io\.xml|com\.thoughtworks\.xstream\.converters\.reflection|com\.thoughtworks\.xstream\.converters\.extended|com\.thoughtworks\.xstream\.converters\.basic|com\.thoughtworks\.xstream\.core\.util|com\.thoughtworks\.xstream\.converters\.collections)\.)|(?:\b(?:com\.thoughtworks\.xstream|com\.thoughtworks\.xstream\.converters|com\.thoughtworks\.xstream\.core|com\.thoughtworks\.xstream\.io|com\.thoughtworks\.xstream\.io\.xml|com\.thoughtworks\.xstream\.converters\.reflection|com\.thoughtworks\.xstream\.converters\.extended|com\.thoughtworks\.xstream\.converters\.basic|com\.thoughtworks\.xstream\.core\.util|com\.thoughtworks\.xstream\.converters\.collections)\.[A-Za-z_$][\w$]*\b)"/>
+    <s v="Medium"/>
+    <s v="Third-Party Dependencies"/>
+    <s v="Dual-runtime: manage this dependency in Maven/Gradle and upgrade to a maintained Java-8-baseline release; validate on JDK 8 and JDK 21."/>
+    <s v="Upgrade/Replace"/>
+    <s v="Replace exploded lib with build-managed dependency; choose a release that supports Java 8 and test on JDK 21."/>
+    <s v="Medium"/>
+    <n v="0.5"/>
+    <n v="65"/>
+    <n v="25"/>
+    <s v="1-fpms"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="6"/>
+    <s v="(blank)"/>
+    <x v="3"/>
+    <s v="to verify runtime - New/Existing JAR &amp; New/Existing API ?"/>
+    <s v="to verify runtime - New/Existing JAR &amp; New/Existing API ?"/>
+    <s v="Dual-Review"/>
+    <s v="(blank)"/>
+    <s v="(blank)"/>
+    <s v="P097"/>
+    <s v="UT097"/>
+    <n v="25"/>
+  </r>
+  <r>
+    <x v="97"/>
+    <s v="Set 3 - Third Party"/>
+    <s v="THIRD-PARTY (XML jar)"/>
+    <s v="xstream-SNAPSHOT.jar"/>
+    <s v="Third-party library present in application lib folder (exploded project)."/>
+    <s v="(?ms)(?:^\s*import\s+(?:static\s+)?(?:com\.thoughtworks\.xstream|com\.thoughtworks\.xstream\.converters|com\.thoughtworks\.xstream\.core|com\.thoughtworks\.xstream\.io|com\.thoughtworks\.xstream\.io\.xml|com\.thoughtworks\.xstream\.converters\.reflection|com\.thoughtworks\.xstream\.converters\.extended|com\.thoughtworks\.xstream\.converters\.basic|com\.thoughtworks\.xstream\.core\.util|com\.thoughtworks\.xstream\.converters\.collections)(?:\.[\w$]+|\.\*)\s*;)|(?:&lt;%@\s*page\b[^%]*\bimport\s*=\s*\&quot;[^\&quot;]*\b(?:com\.thoughtworks\.xstream|com\.thoughtworks\.xstream\.converters|com\.thoughtworks\.xstream\.core|com\.thoughtworks\.xstream\.io|com\.thoughtworks\.xstream\.io\.xml|com\.thoughtworks\.xstream\.converters\.reflection|com\.thoughtworks\.xstream\.converters\.extended|com\.thoughtworks\.xstream\.converters\.basic|com\.thoughtworks\.xstream\.core\.util|com\.thoughtworks\.xstream\.converters\.collections)\.)|(?:\b(?:com\.thoughtworks\.xstream|com\.thoughtworks\.xstream\.converters|com\.thoughtworks\.xstream\.core|com\.thoughtworks\.xstream\.io|com\.thoughtworks\.xstream\.io\.xml|com\.thoughtworks\.xstream\.converters\.reflection|com\.thoughtworks\.xstream\.converters\.extended|com\.thoughtworks\.xstream\.converters\.basic|com\.thoughtworks\.xstream\.core\.util|com\.thoughtworks\.xstream\.converters\.collections)\.[A-Za-z_$][\w$]*\b)"/>
+    <s v="Medium"/>
+    <s v="Pre-Release/Alpha"/>
+    <s v="Dual-runtime: replace alpha/beta/snapshot libraries with stable maintained releases that support Java 8; validate on JDK 21."/>
+    <s v="Replace"/>
+    <s v="Upgrade to stable release; verify runtime and security."/>
+    <s v="Medium"/>
+    <n v="1"/>
+    <n v="29"/>
+    <n v="25"/>
+    <s v="1-fpms"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="7"/>
+    <s v="(blank)"/>
+    <x v="3"/>
+    <s v="to verify runtime - New/Existing JAR &amp; New/Existing API ?"/>
+    <s v="to verify runtime - New/Existing JAR &amp; New/Existing API ?"/>
+    <s v="Dual-Replace-PreRelease"/>
+    <s v="(blank)"/>
+    <s v="(blank)"/>
+    <s v="P098"/>
+    <s v="UT098"/>
+    <n v="25"/>
+  </r>
+  <r>
+    <x v="98"/>
+    <s v="Set 3 - Third Party"/>
+    <s v="THIRD-PARTY (HTTP jar)"/>
+    <s v="yc-httpclient-3.3.jar"/>
+    <s v="Third-party library present in application lib folder (exploded project)."/>
+    <s v="(?ms)(?:^\s*import\s+(?:static\s+)?(?:org\.apache\.commons\.httpclient|org\.apache\.commons\.httpclient\.methods|org\.apache\.commons\.httpclient\.cookie|org\.apache\.commons\.httpclient\.auth|org\.apache\.commons\.httpclient\.util|org\.apache\.commons\.httpclient\.protocol|org\.apache\.commons\.httpclient\.params|org\.apache\.commons\.httpclient\.MultiThreadedHttpConnectionManager\$HttpConnectionWithReference|org\.apache\.commons\.httpclient\.MultiThreadedHttpConnectionManager\$HttpConnectionAdapter|org\.apache\.commons\.httpclient\.MultiThreadedHttpConnectionManager\$ReferenceQueueThread)(?:\.[\w$]+|\.\*)\s*;)|(?:&lt;%@\s*page\b[^%]*\bimport\s*=\s*\&quot;[^\&quot;]*\b(?:org\.apache\.commons\.httpclient|org\.apache\.commons\.httpclient\.methods|org\.apache\.commons\.httpclient\.cookie|org\.apache\.commons\.httpclient\.auth|org\.apache\.commons\.httpclient\.util|org\.apache\.commons\.httpclient\.protocol|org\.apache\.commons\.httpclient\.params|org\.apache\.commons\.httpclient\.MultiThreadedHttpConnectionManager\$HttpConnectionWithReference|org\.apache\.commons\.httpclient\.MultiThreadedHttpConnectionManager\$HttpConnectionAdapter|org\.apache\.commons\.httpclient\.MultiThreadedHttpConnectionManager\$ReferenceQueueThread)\.)|(?:\b(?:org\.apache\.commons\.httpclient|org\.apache\.commons\.httpclient\.methods|org\.apache\.commons\.httpclient\.cookie|org\.apache\.commons\.httpclient\.auth|org\.apache\.commons\.httpclient\.util|org\.apache\.commons\.httpclient\.protocol|org\.apache\.commons\.httpclient\.params|org\.apache\.commons\.httpclient\.MultiThreadedHttpConnectionManager\$HttpConnectionWithReference|org\.apache\.commons\.httpclient\.MultiThreadedHttpConnectionManager\$HttpConnectionAdapter|org\.apache\.commons\.httpclient\.MultiThreadedHttpConnectionManager\$ReferenceQueueThread)\.[A-Za-z_$][\w$]*\b)"/>
+    <s v="Medium"/>
+    <s v="HTTP Client Migration"/>
+    <s v="Dual-runtime: migrate from HttpClient 3.x APIs to HttpClient 4.5.x/5.x (Java 8+); refactor code; test on both runtimes."/>
+    <s v="Refactor"/>
+    <s v="Replace API usages; verify timeouts/pooling/TLS."/>
+    <s v="Medium"/>
+    <n v="1.5"/>
+    <n v="90"/>
+    <n v="12"/>
+    <s v="1-fpms"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="(blank)"/>
+    <x v="1"/>
+    <s v="NOT-SAFE"/>
+    <s v="to verify runtime - New JAR &amp; API ?"/>
+    <s v="Dual-HttpClient-Refactor"/>
+    <s v="(blank)"/>
+    <s v="(blank)"/>
+    <s v="P099"/>
+    <s v="UT099"/>
+    <n v="12"/>
+  </r>
+  <r>
+    <x v="99"/>
+    <s v="Set 2"/>
+    <s v="CORE (JAVA-API - Utility)"/>
+    <s v="BASE64 Encoder"/>
+    <s v="Internal APIs (CRITICAL - sun.* packages)"/>
+    <s v="sun\.misc\.BASE64Encoder"/>
+    <s v="Critical"/>
+    <s v="Internal APIs"/>
+    <s v="Replace sun.misc.BASE64Encoder with java.util.Base64 (available in Java 8+): Base64.getEncoder().encodeToString(bytes)"/>
+    <s v="Auto-Refactor"/>
+    <s v="Mechanical refactor; works on both JDK 8 and JDK 21."/>
+    <s v="Low"/>
+    <n v="0.25"/>
+    <n v="150"/>
+    <n v="0"/>
+    <s v="NA"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="9"/>
+    <s v="NA"/>
+    <x v="5"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <s v="Dual-Safe-Base64"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="100"/>
+    <s v="Set 2"/>
+    <s v="CORE (JAVA-API - Utility)"/>
+    <s v="BASE64 Decoder"/>
+    <s v="Internal APIs (CRITICAL - sun.* packages)"/>
+    <s v="sun\.misc\.BASE64Decoder"/>
+    <s v="Critical"/>
+    <s v="Internal APIs"/>
+    <s v="Replace sun.misc.BASE64Decoder with java.util.Base64 (available in Java 8+): Base64.getDecoder().decode(encoded)"/>
+    <s v="Auto-Refactor"/>
+    <s v="Mechanical refactor; works on both JDK 8 and JDK 21."/>
+    <s v="Low"/>
+    <n v="0.25"/>
+    <n v="151"/>
+    <n v="0"/>
+    <s v="NA"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="9"/>
+    <s v="NA"/>
+    <x v="5"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <s v="Dual-Safe-Base64"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="101"/>
+    <s v="Set 2"/>
+    <s v="CORE (JAVA-API - Internal)"/>
+    <s v="Unsafe"/>
+    <s v="Internal APIs (CRITICAL - sun.* packages)"/>
+    <s v="sun\.misc\.Unsafe"/>
+    <s v="Critical"/>
+    <s v="Internal APIs"/>
+    <s v="Use VarHandle or Atomic classes"/>
+    <s v="Manual-API-Change"/>
+    <s v="Replace with VarHandle/Atomic or redesign for safe concurrency."/>
+    <s v="High"/>
+    <n v="3"/>
+    <n v="152"/>
+    <n v="0"/>
+    <s v="NA"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="9"/>
+    <s v="NA"/>
+    <x v="5"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <s v="Dual-Unsafe-Refactor"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="102"/>
+    <s v="Set 2"/>
+    <s v="CORE (JAVA-API - XML)"/>
+    <s v="XML APIs"/>
+    <s v="Internal XML APIs"/>
+    <s v="com\.sun\.org\.apache\.xerces"/>
+    <s v="High"/>
+    <s v="Internal APIs"/>
+    <s v="Use standard JDK XML APIs or Apache Xerces"/>
+    <s v="Manual-Remove/Replace"/>
+    <s v="Remove internal parser usage; depend on standard JAXP/Apache Xerces."/>
+    <s v="Medium"/>
+    <n v="2"/>
+    <n v="153"/>
+    <n v="0"/>
+    <s v="NA"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="9"/>
+    <s v="NA"/>
+    <x v="5"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <s v="Dual-NeedsMigration"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="103"/>
+    <s v="Set 2"/>
+    <s v="CORE (JAVA-API - Image)"/>
+    <s v="Image APIs"/>
+    <s v="Internal image APIs"/>
+    <s v="com\.sun\.image\.codec\.jpeg"/>
+    <s v="High"/>
+    <s v="Internal APIs"/>
+    <s v="Replace com.sun.image.codec.jpeg with javax.imageio.ImageIO (Java 8+)."/>
+    <s v="Auto-Refactor"/>
+    <s v="Mechanical refactor to ImageIO; works on both JDK 8 and JDK 21."/>
+    <s v="Low"/>
+    <n v="0.25"/>
+    <n v="154"/>
+    <n v="0"/>
+    <s v="NA"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="9"/>
+    <s v="NA"/>
+    <x v="5"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <s v="Dual-Safe-ImageIO"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="104"/>
+    <s v="Set 3"/>
+    <s v="CORE (SECURITY - Protocol)"/>
+    <s v="TLS"/>
+    <s v="Old SSL/TLS versions"/>
+    <s v="(SSLv2|SSLv3|TLSv1|TLSv1\.1)"/>
+    <s v="High"/>
+    <s v="Security"/>
+    <s v="Use TLSv1.3 or higher"/>
+    <s v="Manual-API-Change"/>
+    <s v="Adopt modern algorithms/protocols and update configs."/>
+    <s v="Low"/>
+    <n v="0.75"/>
+    <n v="155"/>
+    <n v="0"/>
+    <s v="NA"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="9"/>
+    <s v="NA"/>
+    <x v="5"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <s v="Dual-Safe-SecurityUpdate"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="105"/>
+    <s v="Set 4"/>
+    <s v="CORE (LANGUAGE - Deprecated)"/>
+    <s v="Finalize"/>
+    <s v="Object.finalize() calls"/>
+    <s v="\.finalize\s*\(\s*\)"/>
+    <s v="Medium"/>
+    <s v="Deprecated Features"/>
+    <s v="Remove finalize calls; rely on proper resource management"/>
+    <s v="Manual-API-Change"/>
+    <s v="Refactor to supported APIs (try-with-resources/concurrency/public access)."/>
+    <s v="Low"/>
+    <n v="0.75"/>
+    <n v="156"/>
+    <n v="0"/>
+    <s v="NA"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="9"/>
+    <s v="NA"/>
+    <x v="5"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <s v="Dual-Safe-ResourceMgmt"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="106"/>
+    <s v="Set 4"/>
+    <s v="CORE (LANGUAGE - Deprecated)"/>
+    <s v="Finalize"/>
+    <s v="Manual close() without try-with-resources"/>
+    <s v="\.close\s*\(\s*\);(?!.*\s+catch)"/>
+    <s v="Medium"/>
+    <s v="Code Quality"/>
+    <s v="Use try-with-resources: try (BufferedReader br = new BufferedReader(new FileReader(&quot;file.txt&quot;))) { /* ... */ }"/>
+    <s v="Manual-API-Change"/>
+    <s v="Refactor to supported APIs (try-with-resources/concurrency/public access)."/>
+    <s v="Low"/>
+    <n v="0.75"/>
+    <n v="157"/>
+    <n v="0"/>
+    <s v="NA"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="9"/>
+    <s v="NA"/>
+    <x v="5"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <s v="Dual-Safe-ResourceMgmt"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="107"/>
+    <s v="Set 7"/>
+    <s v="CORE (THREADING - Deprecated)"/>
+    <s v="Thread.stop"/>
+    <s v="Thread.stop/suspend/resume (REMOVED)"/>
+    <s v="Thread\.(stop|suspend|resume)\s*\("/>
+    <s v="High"/>
+    <s v="Concurrency"/>
+    <s v="Use ExecutorService or CompletableFuture"/>
+    <s v="Manual-API-Change"/>
+    <s v="Refactor to supported APIs (try-with-resources/concurrency/public access)."/>
+    <s v="Medium"/>
+    <n v="1.5"/>
+    <n v="158"/>
+    <n v="0"/>
+    <s v="NA"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="9"/>
+    <s v="NA"/>
+    <x v="5"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <s v="Dual-Safe-ResourceMgmt"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="108"/>
+    <s v="Set 7"/>
+    <s v="CORE (JAVA-API - Removed)"/>
+    <s v="AppletAPI"/>
+    <s v="Applet API (REMOVED in JDK 17+)"/>
+    <s v="extends\s+Applet|java\.applet\."/>
+    <s v="High"/>
+    <s v="Removed APIs"/>
+    <s v="Remove Applet; migrate to web technologies"/>
+    <s v="Manual-Remove/Replace"/>
+    <s v="Remove legacy tech; redesign to HTTP/REST or web UI."/>
+    <s v="High"/>
+    <n v="4"/>
+    <n v="159"/>
+    <n v="0"/>
+    <s v="NA"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="9"/>
+    <s v="NA"/>
+    <x v="5"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <s v="Dual-Safe-SecurityUpdate"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="109"/>
+    <s v="Set 7"/>
+    <s v="CORE (LANGUAGE - Obsolete)"/>
+    <s v="Observable"/>
+    <s v="Observable/Observer (DEPRECATED JDK 9)"/>
+    <s v="java\.util\.(Observable|Observer)"/>
+    <s v="Medium"/>
+    <s v="Deprecated Features"/>
+    <s v="Use java.beans.PropertyChangeSupport or reactive streams"/>
+    <s v="Manual-API-Change"/>
+    <s v="Refactor to supported APIs (try-with-resources/concurrency/public access)."/>
+    <s v="Medium"/>
+    <n v="1.5"/>
+    <n v="160"/>
+    <n v="0"/>
+    <s v="NA"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="9"/>
+    <s v="NA"/>
+    <x v="5"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <s v="Dual-Safe-ResourceMgmt"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="110"/>
+    <s v="Set 7"/>
+    <s v="CORE (JAVA-API - Utility)"/>
+    <s v="Runtime"/>
+    <s v="Runtime.runFinalizersOnExit (REMOVED)"/>
+    <s v="Runtime\.runFinalizersOnExit"/>
+    <s v="High"/>
+    <s v="Removed APIs"/>
+    <s v="Remove; use proper resource management"/>
+    <s v="Manual-API-Change"/>
+    <s v="Refactor to supported APIs (try-with-resources/concurrency/public access)."/>
+    <s v="Low"/>
+    <n v="0.75"/>
+    <n v="161"/>
+    <n v="0"/>
+    <s v="NA"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="9"/>
+    <s v="NA"/>
+    <x v="5"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <s v="Dual-Safe-ResourceMgmt"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="111"/>
+    <s v="Set 8"/>
+    <s v="CORE (LANGUAGE - Reflection)"/>
+    <s v="ClassNewInstances"/>
+    <s v="Class.newInstance() (DEPRECATED)"/>
+    <s v="\.class\.newInstance\s*\("/>
+    <s v="Medium"/>
+    <s v="Reflection"/>
+    <s v="Replace Class.newInstance() with clazz.getDeclaredConstructor().newInstance() (Java 8+)."/>
+    <s v="Auto-Refactor"/>
+    <s v="Mechanical refactor; works on both JDK 8 and JDK 21."/>
+    <s v="Low"/>
+    <n v="0.25"/>
+    <n v="162"/>
+    <n v="0"/>
+    <s v="NA"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="9"/>
+    <s v="NA"/>
+    <x v="5"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <s v="Dual-Safe-NewInstance"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="112"/>
+    <s v="Set 8"/>
+    <s v="CORE (LANGUAGE - Access)"/>
+    <s v="PackageLevel"/>
+    <s v="Package-level reflection"/>
+    <s v="Package\.getPackage"/>
+    <s v="Medium"/>
+    <s v="Reflection"/>
+    <s v="Avoid; use module-aware APIs"/>
+    <s v="Manual-API-Change"/>
+    <s v="Refactor to supported APIs (try-with-resources/concurrency/public access)."/>
+    <s v="Low"/>
+    <n v="0.75"/>
+    <n v="163"/>
+    <n v="0"/>
+    <s v="NA"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="9"/>
+    <s v="NA"/>
+    <x v="5"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <s v="Dual-Safe-ResourceMgmt"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="113"/>
+    <s v="Set 1"/>
+    <s v="SPRINGBOOT (JAVA-API - Removed)"/>
+    <s v="Nashorn removed"/>
+    <s v="Nashorn engine removed after JDK 15."/>
+    <s v="jdk\.nashorn|NashornScriptEngineFactory"/>
+    <s v="High"/>
+    <s v="Removed in JDK"/>
+    <s v="Migrate to GraalVM JavaScript."/>
+    <s v="Manual-API-Change"/>
+    <s v="Move to GraalJS or other JS engine; change engine wiring."/>
+    <s v="High"/>
+    <n v="3"/>
+    <n v="164"/>
+    <n v="0"/>
+    <s v="NA"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="9"/>
+    <s v="NA"/>
+    <x v="5"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <s v="Dual-RemovedFeature"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="114"/>
+    <s v="Set 3"/>
+    <s v="SPRINGBOOT (SECURITY - Deprecated/Removed)"/>
+    <s v="Old TLS/SSL constants"/>
+    <s v="SSLv3/TLSv1.0/1.1 insecure / disabled."/>
+    <s v="\b(SSLv2|SSLv3|TLSv1(\.0)?|TLSv1\.1)\b"/>
+    <s v="High"/>
+    <s v="Security"/>
+    <s v="Use TLSv1.2+ (prefer TLSv1.3)."/>
+    <s v="Manual-API-Change"/>
+    <s v="Adopt modern algorithms/protocols and update configs."/>
+    <s v="Low"/>
+    <n v="0.75"/>
+    <n v="165"/>
+    <n v="0"/>
+    <s v="NA"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="9"/>
+    <s v="NA"/>
+    <x v="5"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <s v="Dual-Safe-SecurityUpdate"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="115"/>
+    <s v="Set 3"/>
+    <s v="SPRINGBOOT (SECURITY - Vulnerability)"/>
+    <s v="Weak hashes"/>
+    <s v="MD5/SHA-1 usage is weak."/>
+    <s v="MessageDigest\s*\.\s*getInstance\s*\(\s*\&quot;(MD5|SHA-1)\&quot;\s*\)"/>
+    <s v="High"/>
+    <s v="Security"/>
+    <s v="Use SHA-256 or better."/>
+    <s v="Manual-API-Change"/>
+    <s v="Adopt modern algorithms/protocols and update configs."/>
+    <s v="Medium"/>
+    <n v="1.5"/>
+    <n v="166"/>
+    <n v="0"/>
+    <s v="NA"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="9"/>
+    <s v="NA"/>
+    <x v="5"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <s v="Dual-Safe-SecurityUpdate"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="116"/>
+    <s v="Set 1"/>
+    <s v="SPRINGBOOT (JAVA-API - Moved/Removed)"/>
+    <s v="JAX-WS javax.xml.ws"/>
+    <s v="JAX-WS removed from JDK 11+."/>
+    <s v="\bjavax\.xml\.ws\."/>
+    <s v="High"/>
+    <s v="Removed APIs"/>
+    <s v="Dual-runtime: KEEP javax.xml.ws/javax.jws.* and add a javax.* JAX-WS implementation (Metro 2.3.x) for JDK 11+."/>
+    <s v="Dependency-Add"/>
+    <s v="Externalize JAX-WS to javax.* artifacts; no package rename; run tests on JDK 8 and JDK 21."/>
+    <s v="High"/>
+    <n v="3"/>
+    <n v="167"/>
+    <n v="0"/>
+    <s v="NA"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="9"/>
+    <s v="NA"/>
+    <x v="5"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <s v="Dual-Safe-JavaEE-Externalize"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="117"/>
+    <s v="Set 2"/>
+    <s v="SPRINGBOOT (JAVA-API - Internal/Removed)"/>
+    <s v="sun.misc BASE64"/>
+    <s v="Replace with java.util.Base64."/>
+    <s v="\bsun\.misc\.(BASE64Encoder|BASE64Decoder)\b"/>
+    <s v="High"/>
+    <s v="Internal APIs"/>
+    <s v="Use java.util.Base64."/>
+    <s v="Auto-Refactor"/>
+    <s v="Mechanical code refactor to modern API (update imports/calls)."/>
+    <s v="Low"/>
+    <n v="0.25"/>
+    <n v="168"/>
+    <n v="0"/>
+    <s v="NA"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="9"/>
+    <s v="NA"/>
+    <x v="5"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <s v="Dual-Safe-InternalAPI"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="118"/>
+    <s v="Set 3 - Third Party"/>
+    <s v="THIRD-PARTY (FRAMEWORK jar)"/>
+    <s v="avalon-framework-cvs-20020806.jar"/>
+    <s v="Third-party library present in application lib folder (exploded project)."/>
+    <s v="(?ms)(?:^\s*import\s+(?:static\s+)?(?:org\.apache\.avalon\.framework|org\.apache\.avalon\.framework\.logger|org\.apache\.avalon\.framework\.configuration|org\.apache\.avalon\.framework\.component|org\.apache\.avalon\.framework\.context|org\.apache\.avalon\.framework\.service|org\.apache\.avalon\.framework\.activity|org\.apache\.avalon\.framework\.parameters|org\.apache\.avalon\.framework\.thread|org\.apache\.avalon\.framework\.CascadingRuntimeException)(?:\.[\w$]+|\.\*)\s*;)|(?:&lt;%@\s*page\b[^%]*\bimport\s*=\s*\&quot;[^\&quot;]*\b(?:org\.apache\.avalon\.framework|org\.apache\.avalon\.framework\.logger|org\.apache\.avalon\.framework\.configuration|org\.apache\.avalon\.framework\.component|org\.apache\.avalon\.framework\.context|org\.apache\.avalon\.framework\.service|org\.apache\.avalon\.framework\.activity|org\.apache\.avalon\.framework\.parameters|org\.apache\.avalon\.framework\.thread|org\.apache\.avalon\.framework\.CascadingRuntimeException)\.)|(?:\b(?:org\.apache\.avalon\.framework|org\.apache\.avalon\.framework\.logger|org\.apache\.avalon\.framework\.configuration|org\.apache\.avalon\.framework\.component|org\.apache\.avalon\.framework\.context|org\.apache\.avalon\.framework\.service|org\.apache\.avalon\.framework\.activity|org\.apache\.avalon\.framework\.parameters|org\.apache\.avalon\.framework\.thread|org\.apache\.avalon\.framework\.CascadingRuntimeException)\.[A-Za-z_$][\w$]*\b)"/>
+    <s v="Medium"/>
+    <s v="Third-Party Dependencies"/>
+    <s v="Dual-runtime: manage this dependency in Maven/Gradle and upgrade to a maintained Java-8-baseline release; validate on JDK 8 and JDK 21."/>
+    <s v="Upgrade/Replace"/>
+    <s v="Replace exploded lib with build-managed dependency; choose a release that supports Java 8 and test on JDK 21."/>
+    <s v="Medium"/>
+    <n v="0.5"/>
+    <n v="169"/>
+    <n v="0"/>
+    <s v="NA"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="9"/>
+    <s v="NA"/>
+    <x v="5"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <s v="Dual-Review"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="119"/>
+    <s v="Set 3 - Third Party"/>
+    <s v="THIRD-PARTY (XML-GRAPHICS jar)"/>
+    <s v="batik.jar"/>
+    <s v="Third-party library present in application lib folder (exploded project)."/>
+    <s v="(?ms)(?:^\s*import\s+(?:static\s+)?(?:org\.apache\.batik|org\.apache\.batik\.dom|org\.apache\.batik\.ext|org\.apache\.batik\.ext\.awt|org\.apache\.batik\.dom\.svg|org\.apache\.batik\.css|org\.apache\.batik\.bridge|org\.apache\.batik\.swing|org\.apache\.batik\.css\.engine|org\.apache\.batik\.gvt)(?:\.[\w$]+|\.\*)\s*;)|(?:&lt;%@\s*page\b[^%]*\bimport\s*=\s*\&quot;[^\&quot;]*\b(?:org\.apache\.batik|org\.apache\.batik\.dom|org\.apache\.batik\.ext|org\.apache\.batik\.ext\.awt|org\.apache\.batik\.dom\.svg|org\.apache\.batik\.css|org\.apache\.batik\.bridge|org\.apache\.batik\.swing|org\.apache\.batik\.css\.engine|org\.apache\.batik\.gvt)\.)|(?:\b(?:org\.apache\.batik|org\.apache\.batik\.dom|org\.apache\.batik\.ext|org\.apache\.batik\.ext\.awt|org\.apache\.batik\.dom\.svg|org\.apache\.batik\.css|org\.apache\.batik\.bridge|org\.apache\.batik\.swing|org\.apache\.batik\.css\.engine|org\.apache\.batik\.gvt)\.[A-Za-z_$][\w$]*\b)"/>
+    <s v="Medium"/>
+    <s v="Third-Party Dependencies"/>
+    <s v="Dual-runtime: manage this dependency in Maven/Gradle and upgrade to a maintained Java-8-baseline release; validate on JDK 8 and JDK 21."/>
+    <s v="Upgrade/Replace"/>
+    <s v="Replace exploded lib with build-managed dependency; choose a release that supports Java 8 and test on JDK 21."/>
+    <s v="Medium"/>
+    <n v="0.5"/>
+    <n v="170"/>
+    <n v="0"/>
+    <s v="NA"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="9"/>
+    <s v="NA"/>
+    <x v="5"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <s v="Dual-Review;POM"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="120"/>
+    <s v="Set 3 - Third Party"/>
+    <s v="THIRD-PARTY (SCRIPTING jar)"/>
+    <s v="bsh-2.0b2.jar"/>
+    <s v="Third-party library present in application lib folder (exploded project)."/>
+    <s v="(?ms)(?:^\s*import\s+(?:static\s+)?(?:bsh\.util|bsh\.classpath|bsh\.org\.objectweb\.asm|bsh\.collection|bsh\.servlet|bsh\.classpath\.DiscreteFilesClassLoader\$ClassSourceMap|bsh\.classpath\.BshClassPath\$GeneratedClassSource|bsh\.classpath\.BshClassPath\$UnqualifiedNameTable|bsh\.util\.JConsole\$BlockingPipedInputStream|bsh\.classpath\.BshClassPath\$MappingFeedback)(?:\.[\w$]+|\.\*)\s*;)|(?:&lt;%@\s*page\b[^%]*\bimport\s*=\s*\&quot;[^\&quot;]*\b(?:bsh\.util|bsh\.classpath|bsh\.org\.objectweb\.asm|bsh\.collection|bsh\.servlet|bsh\.classpath\.DiscreteFilesClassLoader\$ClassSourceMap|bsh\.classpath\.BshClassPath\$GeneratedClassSource|bsh\.classpath\.BshClassPath\$UnqualifiedNameTable|bsh\.util\.JConsole\$BlockingPipedInputStream|bsh\.classpath\.BshClassPath\$MappingFeedback)\.)|(?:\b(?:bsh\.util|bsh\.classpath|bsh\.org\.objectweb\.asm|bsh\.collection|bsh\.servlet|bsh\.classpath\.DiscreteFilesClassLoader\$ClassSourceMap|bsh\.classpath\.BshClassPath\$GeneratedClassSource|bsh\.classpath\.BshClassPath\$UnqualifiedNameTable|bsh\.util\.JConsole\$BlockingPipedInputStream|bsh\.classpath\.BshClassPath\$MappingFeedback)\.[A-Za-z_$][\w$]*\b)"/>
+    <s v="Medium"/>
+    <s v="Third-Party Dependencies"/>
+    <s v="Dual-runtime: manage this dependency in Maven/Gradle and upgrade to a maintained Java-8-baseline release; validate on JDK 8 and JDK 21."/>
+    <s v="Upgrade/Replace"/>
+    <s v="Replace exploded lib with build-managed dependency; choose a release that supports Java 8 and test on JDK 21."/>
+    <s v="Medium"/>
+    <n v="0.5"/>
+    <n v="171"/>
+    <n v="0"/>
+    <s v="NA"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="9"/>
+    <s v="NA"/>
+    <x v="5"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <s v="Dual-Review"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="121"/>
+    <s v="Set 3 - Third Party"/>
+    <s v="THIRD-PARTY (COMMON jar)"/>
+    <s v="commons-digester.jar"/>
+    <s v="Third-party library present in application lib folder (exploded project)."/>
+    <s v="(?ms)(?:^\s*import\s+(?:static\s+)?(?:org\.apache\.commons\.digester|org\.apache\.commons\.digester\.xmlrules|org\.apache\.commons\.digester\.plugins|org\.apache\.commons\.digester\.substitution|org\.apache\.commons\.digester\.parser|org\.apache\.commons\.digester\.SetNestedPropertiesRule\$AnyChildRules|org\.apache\.commons\.digester\.SetNestedPropertiesRule\$AnyChildRule|org\.apache\.commons\.digester\.AbstractObjectCreationFactory|org\.apache\.commons\.digester\.NodeCreateRule\$NodeBuilder|org\.apache\.commons\.digester\.ParserFeatureSetterFactory)(?:\.[\w$]+|\.\*)\s*;)|(?:&lt;%@\s*page\b[^%]*\bimport\s*=\s*\&quot;[^\&quot;]*\b(?:org\.apache\.commons\.digester|org\.apache\.commons\.digester\.xmlrules|org\.apache\.commons\.digester\.plugins|org\.apache\.commons\.digester\.substitution|org\.apache\.commons\.digester\.parser|org\.apache\.commons\.digester\.SetNestedPropertiesRule\$AnyChildRules|org\.apache\.commons\.digester\.SetNestedPropertiesRule\$AnyChildRule|org\.apache\.commons\.digester\.AbstractObjectCreationFactory|org\.apache\.commons\.digester\.NodeCreateRule\$NodeBuilder|org\.apache\.commons\.digester\.ParserFeatureSetterFactory)\.)|(?:\b(?:org\.apache\.commons\.digester|org\.apache\.commons\.digester\.xmlrules|org\.apache\.commons\.digester\.plugins|org\.apache\.commons\.digester\.substitution|org\.apache\.commons\.digester\.parser|org\.apache\.commons\.digester\.SetNestedPropertiesRule\$AnyChildRules|org\.apache\.commons\.digester\.SetNestedPropertiesRule\$AnyChildRule|org\.apache\.commons\.digester\.AbstractObjectCreationFactory|org\.apache\.commons\.digester\.NodeCreateRule\$NodeBuilder|org\.apache\.commons\.digester\.ParserFeatureSetterFactory)\.[A-Za-z_$][\w$]*\b)"/>
+    <s v="Medium"/>
+    <s v="Third-Party Dependencies"/>
+    <s v="Dual-runtime: manage this dependency in Maven/Gradle and upgrade to a maintained Java-8-baseline release; validate on JDK 8 and JDK 21."/>
+    <s v="Upgrade/Replace"/>
+    <s v="Replace exploded lib with build-managed dependency; choose a release that supports Java 8 and test on JDK 21."/>
+    <s v="Medium"/>
+    <n v="0.5"/>
+    <n v="172"/>
+    <n v="0"/>
+    <s v="NA"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="9"/>
+    <s v="NA"/>
+    <x v="5"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <s v="Dual-Review"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="122"/>
+    <s v="Set 3 - Third Party"/>
+    <s v="THIRD-PARTY (COMMON jar)"/>
+    <s v="commons-pool-1.2.jar"/>
+    <s v="Third-party library present in application lib folder (exploded project)."/>
+    <s v="(?ms)(?:^\s*import\s+(?:static\s+)?(?:org\.apache\.commons\.pool|org\.apache\.commons\.pool\.impl|org\.apache\.commons\.pool\.BaseKeyedPoolableObjectFactory|org\.apache\.commons\.pool\.KeyedPoolableObjectFactory|org\.apache\.commons\.pool\.BasePoolableObjectFactory|org\.apache\.commons\.pool\.KeyedObjectPoolFactory|org\.apache\.commons\.pool\.PoolableObjectFactory|org\.apache\.commons\.pool\.BaseKeyedObjectPool|org\.apache\.commons\.pool\.ObjectPoolFactory|org\.apache\.commons\.pool\.KeyedObjectPool)(?:\.[\w$]+|\.\*)\s*;)|(?:&lt;%@\s*page\b[^%]*\bimport\s*=\s*\&quot;[^\&quot;]*\b(?:org\.apache\.commons\.pool|org\.apache\.commons\.pool\.impl|org\.apache\.commons\.pool\.BaseKeyedPoolableObjectFactory|org\.apache\.commons\.pool\.KeyedPoolableObjectFactory|org\.apache\.commons\.pool\.BasePoolableObjectFactory|org\.apache\.commons\.pool\.KeyedObjectPoolFactory|org\.apache\.commons\.pool\.PoolableObjectFactory|org\.apache\.commons\.pool\.BaseKeyedObjectPool|org\.apache\.commons\.pool\.ObjectPoolFactory|org\.apache\.commons\.pool\.KeyedObjectPool)\.)|(?:\b(?:org\.apache\.commons\.pool|org\.apache\.commons\.pool\.impl|org\.apache\.commons\.pool\.BaseKeyedPoolableObjectFactory|org\.apache\.commons\.pool\.KeyedPoolableObjectFactory|org\.apache\.commons\.pool\.BasePoolableObjectFactory|org\.apache\.commons\.pool\.KeyedObjectPoolFactory|org\.apache\.commons\.pool\.PoolableObjectFactory|org\.apache\.commons\.pool\.BaseKeyedObjectPool|org\.apache\.commons\.pool\.ObjectPoolFactory|org\.apache\.commons\.pool\.KeyedObjectPool)\.[A-Za-z_$][\w$]*\b)"/>
+    <s v="Medium"/>
+    <s v="Third-Party Dependencies"/>
+    <s v="Dual-runtime: manage this dependency in Maven/Gradle and upgrade to a maintained Java-8-baseline release; validate on JDK 8 and JDK 21."/>
+    <s v="Upgrade/Replace"/>
+    <s v="Replace exploded lib with build-managed dependency; choose a release that supports Java 8 and test on JDK 21."/>
+    <s v="Medium"/>
+    <n v="0.5"/>
+    <n v="173"/>
+    <n v="0"/>
+    <s v="NA"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="9"/>
+    <s v="NA"/>
+    <x v="5"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <s v="Dual-Review"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="123"/>
+    <s v="Set 3 - Third Party"/>
+    <s v="THIRD-PARTY (COMMON jar)"/>
+    <s v="commons-validator.jar"/>
+    <s v="Third-party library present in application lib folder (exploded project)."/>
+    <s v="(?ms)(?:^\s*import\s+(?:static\s+)?(?:org\.apache\.commons\.validator|org\.apache\.commons\.validator\.ValidatorResourcesInitializer|org\.apache\.commons\.validator\.ValidatorResult\$ResultStatus|org\.apache\.commons\.validator\.GenericTypeValidator|org\.apache\.commons\.validator\.ValidatorResources|org\.apache\.commons\.validator\.ValidatorException|org\.apache\.commons\.validator\.ValidatorResults|org\.apache\.commons\.validator\.GenericValidator|org\.apache\.commons\.validator\.ValidatorAction|org\.apache\.commons\.validator\.ValidatorResult)(?:\.[\w$]+|\.\*)\s*;)|(?:&lt;%@\s*page\b[^%]*\bimport\s*=\s*\&quot;[^\&quot;]*\b(?:org\.apache\.commons\.validator|org\.apache\.commons\.validator\.ValidatorResourcesInitializer|org\.apache\.commons\.validator\.ValidatorResult\$ResultStatus|org\.apache\.commons\.validator\.GenericTypeValidator|org\.apache\.commons\.validator\.ValidatorResources|org\.apache\.commons\.validator\.ValidatorException|org\.apache\.commons\.validator\.ValidatorResults|org\.apache\.commons\.validator\.GenericValidator|org\.apache\.commons\.validator\.ValidatorAction|org\.apache\.commons\.validator\.ValidatorResult)\.)|(?:\b(?:org\.apache\.commons\.validator|org\.apache\.commons\.validator\.ValidatorResourcesInitializer|org\.apache\.commons\.validator\.ValidatorResult\$ResultStatus|org\.apache\.commons\.validator\.GenericTypeValidator|org\.apache\.commons\.validator\.ValidatorResources|org\.apache\.commons\.validator\.ValidatorException|org\.apache\.commons\.validator\.ValidatorResults|org\.apache\.commons\.validator\.GenericValidator|org\.apache\.commons\.validator\.ValidatorAction|org\.apache\.commons\.validator\.ValidatorResult)\.[A-Za-z_$][\w$]*\b)"/>
+    <s v="Medium"/>
+    <s v="Third-Party Dependencies"/>
+    <s v="Dual-runtime: manage this dependency in Maven/Gradle and upgrade to a maintained Java-8-baseline release; validate on JDK 8 and JDK 21."/>
+    <s v="Upgrade/Replace"/>
+    <s v="Replace exploded lib with build-managed dependency; choose a release that supports Java 8 and test on JDK 21."/>
+    <s v="Medium"/>
+    <n v="0.5"/>
+    <n v="174"/>
+    <n v="0"/>
+    <s v="NA"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="9"/>
+    <s v="NA"/>
+    <x v="5"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <s v="Dual-Review"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="124"/>
+    <s v="Set 3 - Third Party"/>
+    <s v="THIRD-PARTY (UPLOAD jar)"/>
+    <s v="cos.jar"/>
+    <s v="Third-party library present in application lib folder (exploded project)."/>
+    <m/>
+    <s v="Medium"/>
+    <s v="Third-Party Dependencies"/>
+    <s v="Dual-runtime: manage this dependency in Maven/Gradle and upgrade to a maintained Java-8-baseline release; validate on JDK 8 and JDK 21."/>
+    <s v="Upgrade/Replace"/>
+    <s v="Replace exploded lib with build-managed dependency; choose a release that supports Java 8 and test on JDK 21."/>
+    <s v="Medium"/>
+    <n v="0.5"/>
+    <n v="175"/>
+    <n v="0"/>
+    <s v="NA"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="9"/>
+    <s v="NA"/>
+    <x v="5"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <s v="Dual-Review"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="125"/>
+    <s v="Set 3 - Third Party"/>
+    <s v="THIRD-PARTY (HELP jar)"/>
+    <s v="dhbcore.jar"/>
+    <s v="Third-party library present in application lib folder (exploded project)."/>
+    <s v="(?ms)(?:^\s*import\s+(?:static\s+)?(?:com\.ibm\.disthub2|com\.ibm\.disthub2\.impl|com\.ibm\.disthub2\.impl\.formats|com\.ibm\.disthub2\.impl\.util|com\.ibm\.disthub2\.impl\.matching|com\.ibm\.disthub2\.spi|com\.ibm\.disthub2\.impl\.durable|com\.ibm\.disthub2\.impl\.gd|com\.ibm\.disthub2\.impl\.jms|com\.ibm\.disthub2\.impl\.client)(?:\.[\w$]+|\.\*)\s*;)|(?:&lt;%@\s*page\b[^%]*\bimport\s*=\s*\&quot;[^\&quot;]*\b(?:com\.ibm\.disthub2|com\.ibm\.disthub2\.impl|com\.ibm\.disthub2\.impl\.formats|com\.ibm\.disthub2\.impl\.util|com\.ibm\.disthub2\.impl\.matching|com\.ibm\.disthub2\.spi|com\.ibm\.disthub2\.impl\.durable|com\.ibm\.disthub2\.impl\.gd|com\.ibm\.disthub2\.impl\.jms|com\.ibm\.disthub2\.impl\.client)\.)|(?:\b(?:com\.ibm\.disthub2|com\.ibm\.disthub2\.impl|com\.ibm\.disthub2\.impl\.formats|com\.ibm\.disthub2\.impl\.util|com\.ibm\.disthub2\.impl\.matching|com\.ibm\.disthub2\.spi|com\.ibm\.disthub2\.impl\.durable|com\.ibm\.disthub2\.impl\.gd|com\.ibm\.disthub2\.impl\.jms|com\.ibm\.disthub2\.impl\.client)\.[A-Za-z_$][\w$]*\b)"/>
+    <s v="Medium"/>
+    <s v="Third-Party Dependencies"/>
+    <s v="Dual-runtime: manage this dependency in Maven/Gradle and upgrade to a maintained Java-8-baseline release; validate on JDK 8 and JDK 21."/>
+    <s v="Upgrade/Replace"/>
+    <s v="Replace exploded lib with build-managed dependency; choose a release that supports Java 8 and test on JDK 21."/>
+    <s v="Medium"/>
+    <n v="0.5"/>
+    <n v="176"/>
+    <n v="0"/>
+    <s v="NA"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="9"/>
+    <s v="NA"/>
+    <x v="5"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <s v="Dual-Review"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="126"/>
+    <s v="Set 3 - Third Party"/>
+    <s v="THIRD-PARTY (SECURITY jar)"/>
+    <s v="eddsa-0.3.0.jar"/>
+    <s v="Third-party library present in application lib folder (exploded project)."/>
+    <s v="(?ms)(?:^\s*import\s+(?:static\s+)?(?:net\.i2p\.crypto\.eddsa|net\.i2p\.crypto\.eddsa\.math|net\.i2p\.crypto\.eddsa\.spec|net\.i2p\.crypto\.eddsa\.EdDSAEngine\$OneShotSpec|net\.i2p\.crypto\.eddsa\.EdDSASecurityProvider\$1|net\.i2p\.crypto\.eddsa\.EdDSASecurityProvider|net\.i2p\.crypto\.eddsa\.KeyPairGenerator|net\.i2p\.crypto\.eddsa\.EdDSAPrivateKey|net\.i2p\.crypto\.eddsa\.EdDSAPublicKey|net\.i2p\.crypto\.eddsa\.EdDSAEngine\$1)(?:\.[\w$]+|\.\*)\s*;)|(?:&lt;%@\s*page\b[^%]*\bimport\s*=\s*\&quot;[^\&quot;]*\b(?:net\.i2p\.crypto\.eddsa|net\.i2p\.crypto\.eddsa\.math|net\.i2p\.crypto\.eddsa\.spec|net\.i2p\.crypto\.eddsa\.EdDSAEngine\$OneShotSpec|net\.i2p\.crypto\.eddsa\.EdDSASecurityProvider\$1|net\.i2p\.crypto\.eddsa\.EdDSASecurityProvider|net\.i2p\.crypto\.eddsa\.KeyPairGenerator|net\.i2p\.crypto\.eddsa\.EdDSAPrivateKey|net\.i2p\.crypto\.eddsa\.EdDSAPublicKey|net\.i2p\.crypto\.eddsa\.EdDSAEngine\$1)\.)|(?:\b(?:net\.i2p\.crypto\.eddsa|net\.i2p\.crypto\.eddsa\.math|net\.i2p\.crypto\.eddsa\.spec|net\.i2p\.crypto\.eddsa\.EdDSAEngine\$OneShotSpec|net\.i2p\.crypto\.eddsa\.EdDSASecurityProvider\$1|net\.i2p\.crypto\.eddsa\.EdDSASecurityProvider|net\.i2p\.crypto\.eddsa\.KeyPairGenerator|net\.i2p\.crypto\.eddsa\.EdDSAPrivateKey|net\.i2p\.crypto\.eddsa\.EdDSAPublicKey|net\.i2p\.crypto\.eddsa\.EdDSAEngine\$1)\.[A-Za-z_$][\w$]*\b)"/>
+    <s v="Medium"/>
+    <s v="Crypto Providers"/>
+    <s v="Dual-runtime: upgrade crypto providers to Java-8-baseline releases and validate provider configuration on JDK 8 and JDK 21."/>
+    <s v="Upgrade"/>
+    <s v="Upgrade provider jars; validate provider order/FIPS/TLS."/>
+    <s v="Medium"/>
+    <n v="1"/>
+    <n v="177"/>
+    <n v="0"/>
+    <s v="NA"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="9"/>
+    <s v="NA"/>
+    <x v="5"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <s v="Dual-Crypto"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="127"/>
+    <s v="Set 3 - Third Party"/>
+    <s v="THIRD-PARTY (CACHE jar)"/>
+    <s v="ehcache-0.9.jar"/>
+    <s v="Third-party library present in application lib folder (exploded project)."/>
+    <s v="(?ms)(?:^\s*import\s+(?:static\s+)?(?:net\.sf\.ehcache|net\.sf\.ehcache\.store|net\.sf\.ehcache\.config|net\.sf\.ehcache\.constructs\.blocking|net\.sf\.ehcache\.hibernate|net\.sf\.ehcache\.store\.MemoryStore\$SpoolingLinkedHashMap|net\.sf\.ehcache\.config\.Configuration\$DefaultCache|net\.sf\.ehcache\.store\.MemoryStore\$SpoolingLRUMap|net\.sf\.ehcache\.config\.BeanHandler\$ElementInfo|net\.sf\.ehcache\.config\.Configuration\$DiskStore)(?:\.[\w$]+|\.\*)\s*;)|(?:&lt;%@\s*page\b[^%]*\bimport\s*=\s*\&quot;[^\&quot;]*\b(?:net\.sf\.ehcache|net\.sf\.ehcache\.store|net\.sf\.ehcache\.config|net\.sf\.ehcache\.constructs\.blocking|net\.sf\.ehcache\.hibernate|net\.sf\.ehcache\.store\.MemoryStore\$SpoolingLinkedHashMap|net\.sf\.ehcache\.config\.Configuration\$DefaultCache|net\.sf\.ehcache\.store\.MemoryStore\$SpoolingLRUMap|net\.sf\.ehcache\.config\.BeanHandler\$ElementInfo|net\.sf\.ehcache\.config\.Configuration\$DiskStore)\.)|(?:\b(?:net\.sf\.ehcache|net\.sf\.ehcache\.store|net\.sf\.ehcache\.config|net\.sf\.ehcache\.constructs\.blocking|net\.sf\.ehcache\.hibernate|net\.sf\.ehcache\.store\.MemoryStore\$SpoolingLinkedHashMap|net\.sf\.ehcache\.config\.Configuration\$DefaultCache|net\.sf\.ehcache\.store\.MemoryStore\$SpoolingLRUMap|net\.sf\.ehcache\.config\.BeanHandler\$ElementInfo|net\.sf\.ehcache\.config\.Configuration\$DiskStore)\.[A-Za-z_$][\w$]*\b)"/>
+    <s v="Medium"/>
+    <s v="Third-Party Dependencies"/>
+    <s v="Dual-runtime: manage this dependency in Maven/Gradle and upgrade to a maintained Java-8-baseline release; validate on JDK 8 and JDK 21."/>
+    <s v="Upgrade/Replace"/>
+    <s v="Replace exploded lib with build-managed dependency; choose a release that supports Java 8 and test on JDK 21."/>
+    <s v="Medium"/>
+    <n v="0.5"/>
+    <n v="178"/>
+    <n v="0"/>
+    <s v="NA"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="9"/>
+    <s v="NA"/>
+    <x v="5"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <s v="Dual-Review"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="128"/>
+    <s v="Set 3 - Third Party"/>
+    <s v="THIRD-PARTY (JNDI jar)"/>
+    <s v="fscontext.jar"/>
+    <s v="Third-party library present in application lib folder (exploded project)."/>
+    <m/>
+    <s v="Medium"/>
+    <s v="Third-Party Dependencies"/>
+    <s v="Dual-runtime: manage this dependency in Maven/Gradle and upgrade to a maintained Java-8-baseline release; validate on JDK 8 and JDK 21."/>
+    <s v="Upgrade/Replace"/>
+    <s v="Replace exploded lib with build-managed dependency; choose a release that supports Java 8 and test on JDK 21."/>
+    <s v="Medium"/>
+    <n v="0.5"/>
+    <n v="179"/>
+    <n v="0"/>
+    <s v="NA"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="9"/>
+    <s v="NA"/>
+    <x v="5"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <s v="Dual-Review"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="129"/>
+    <s v="Set 3 - Third Party"/>
+    <s v="THIRD-PARTY (REGEXP jar)"/>
+    <s v="jakarta-oro.jar"/>
+    <s v="Third-party library present in application lib folder (exploded project)."/>
+    <s v="(?ms)(?:^\s*import\s+(?:static\s+)?(?:org\.apache\.oro|org\.apache\.oro\.text|org\.apache\.oro\.text\.regex|org\.apache\.oro\.text\.awk|org\.apache\.oro\.util|org\.apache\.oro\.io|org\.apache\.oro\.text\.perl|org\.apache\.oro\.text\.MalformedCachePatternException|org\.apache\.oro\.text\.MatchActionProcessor|org\.apache\.oro\.text\.GenericPatternCache)(?:\.[\w$]+|\.\*)\s*;)|(?:&lt;%@\s*page\b[^%]*\bimport\s*=\s*\&quot;[^\&quot;]*\b(?:org\.apache\.oro|org\.apache\.oro\.text|org\.apache\.oro\.text\.regex|org\.apache\.oro\.text\.awk|org\.apache\.oro\.util|org\.apache\.oro\.io|org\.apache\.oro\.text\.perl|org\.apache\.oro\.text\.MalformedCachePatternException|org\.apache\.oro\.text\.MatchActionProcessor|org\.apache\.oro\.text\.GenericPatternCache)\.)|(?:\b(?:org\.apache\.oro|org\.apache\.oro\.text|org\.apache\.oro\.text\.regex|org\.apache\.oro\.text\.awk|org\.apache\.oro\.util|org\.apache\.oro\.io|org\.apache\.oro\.text\.perl|org\.apache\.oro\.text\.MalformedCachePatternException|org\.apache\.oro\.text\.MatchActionProcessor|org\.apache\.oro\.text\.GenericPatternCache)\.[A-Za-z_$][\w$]*\b)"/>
+    <s v="Medium"/>
+    <s v="Third-Party Dependencies"/>
+    <s v="Dual-runtime: manage this dependency in Maven/Gradle and upgrade to a maintained Java-8-baseline release; validate on JDK 8 and JDK 21."/>
+    <s v="Upgrade/Replace"/>
+    <s v="Replace exploded lib with build-managed dependency; choose a release that supports Java 8 and test on JDK 21."/>
+    <s v="Medium"/>
+    <n v="0.5"/>
+    <n v="180"/>
+    <n v="0"/>
+    <s v="NA"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="9"/>
+    <s v="NA"/>
+    <x v="5"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <s v="Dual-Review"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="130"/>
+    <s v="Set 3 - Third Party"/>
+    <s v="THIRD-PARTY (XML jar)"/>
+    <s v="jaxen-core.jar"/>
+    <s v="Third-party library present in application lib folder (exploded project)."/>
+    <s v="(?ms)(?:^\s*import\s+(?:static\s+)?(?:org\.jaxen|org\.jaxen\.expr|org\.jaxen\.function|org\.jaxen\.util|org\.jaxen\.expr\.iter|org\.jaxen\.pattern|org\.jaxen\.function\.ext|org\.jaxen\.util\.PrecedingAxisIterator\$ReverseDescendantOrSelfAxisIterator|org\.jaxen\.function\.ext\.MatrixConcatFunction\$MatrixEnum|org\.jaxen\.expr\.DefaultProcessingInstructionNodeStep)(?:\.[\w$]+|\.\*)\s*;)|(?:&lt;%@\s*page\b[^%]*\bimport\s*=\s*\&quot;[^\&quot;]*\b(?:org\.jaxen|org\.jaxen\.expr|org\.jaxen\.function|org\.jaxen\.util|org\.jaxen\.expr\.iter|org\.jaxen\.pattern|org\.jaxen\.function\.ext|org\.jaxen\.util\.PrecedingAxisIterator\$ReverseDescendantOrSelfAxisIterator|org\.jaxen\.function\.ext\.MatrixConcatFunction\$MatrixEnum|org\.jaxen\.expr\.DefaultProcessingInstructionNodeStep)\.)|(?:\b(?:org\.jaxen|org\.jaxen\.expr|org\.jaxen\.function|org\.jaxen\.util|org\.jaxen\.expr\.iter|org\.jaxen\.pattern|org\.jaxen\.function\.ext|org\.jaxen\.util\.PrecedingAxisIterator\$ReverseDescendantOrSelfAxisIterator|org\.jaxen\.function\.ext\.MatrixConcatFunction\$MatrixEnum|org\.jaxen\.expr\.DefaultProcessingInstructionNodeStep)\.[A-Za-z_$][\w$]*\b)"/>
+    <s v="Medium"/>
+    <s v="Third-Party Dependencies"/>
+    <s v="Dual-runtime: manage this dependency in Maven/Gradle and upgrade to a maintained Java-8-baseline release; validate on JDK 8 and JDK 21."/>
+    <s v="Upgrade/Replace"/>
+    <s v="Replace exploded lib with build-managed dependency; choose a release that supports Java 8 and test on JDK 21."/>
+    <s v="Medium"/>
+    <n v="0.5"/>
+    <n v="181"/>
+    <n v="0"/>
+    <s v="NA"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="9"/>
+    <s v="NA"/>
+    <x v="5"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <s v="Dual-Review"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="131"/>
+    <s v="Set 3 - Third Party"/>
+    <s v="THIRD-PARTY (JDOM jar)"/>
+    <s v="jaxen-jdom.jar"/>
+    <s v="Third-party library present in application lib folder (exploded project)."/>
+    <s v="(?ms)(?:^\s*import\s+(?:static\s+)?(?:org\.jaxen\.jdom|org\.jaxen\.jdom\.DocumentNavigator\$Singleton|org\.jaxen\.jdom\.DocumentNavigator|org\.jaxen\.jdom\.XPathNamespace|org\.jaxen\.jdom\.JDOMXPath)(?:\.[\w$]+|\.\*)\s*;)|(?:&lt;%@\s*page\b[^%]*\bimport\s*=\s*\&quot;[^\&quot;]*\b(?:org\.jaxen\.jdom|org\.jaxen\.jdom\.DocumentNavigator\$Singleton|org\.jaxen\.jdom\.DocumentNavigator|org\.jaxen\.jdom\.XPathNamespace|org\.jaxen\.jdom\.JDOMXPath)\.)|(?:\b(?:org\.jaxen\.jdom|org\.jaxen\.jdom\.DocumentNavigator\$Singleton|org\.jaxen\.jdom\.DocumentNavigator|org\.jaxen\.jdom\.XPathNamespace|org\.jaxen\.jdom\.JDOMXPath)\.[A-Za-z_$][\w$]*\b)"/>
+    <s v="Medium"/>
+    <s v="Third-Party Dependencies"/>
+    <s v="Dual-runtime: manage this dependency in Maven/Gradle and upgrade to a maintained Java-8-baseline release; validate on JDK 8 and JDK 21."/>
+    <s v="Upgrade/Replace"/>
+    <s v="Replace exploded lib with build-managed dependency; choose a release that supports Java 8 and test on JDK 21."/>
+    <s v="Medium"/>
+    <n v="0.5"/>
+    <n v="182"/>
+    <n v="0"/>
+    <s v="NA"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="9"/>
+    <s v="NA"/>
+    <x v="5"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <s v="Dual-Review"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="132"/>
+    <s v="Set 3 - Third Party"/>
+    <s v="THIRD-PARTY (SECURITY jar)"/>
+    <s v="jcprov.jar"/>
+    <s v="Third-party library present in application lib folder (exploded project)."/>
+    <s v="(?ms)(?:^\s*import\s+(?:static\s+)?(?:eracom_tech\.jcprov|eracom_tech\.jcprov\.constants|eracom_tech\.jcprov\.params|eracom_tech\.jcprov\.params\.CK_SSL3_MASTER_KEY_DERIVE_PARAMS|eracom_tech\.jcprov\.constants\.CK_RSA_PKCS_OAEP_SOURCE_TYPE|eracom_tech\.jcprov\.params\.CK_KEY_DERIVATION_STRING_DATA|eracom_tech\.jcprov\.CK_C_INITIALIZE_ARGS\$CK_DESTROYMUTEX|eracom_tech\.jcprov\.CK_C_INITIALIZE_ARGS\$CK_CREATEMUTEX|eracom_tech\.jcprov\.CK_C_INITIALIZE_ARGS\$CK_UNLOCKMUTEX|eracom_tech\.jcprov\.params\.CK_PKCS12_PBE_IMPORT_PARAMS)(?:\.[\w$]+|\.\*)\s*;)|(?:&lt;%@\s*page\b[^%]*\bimport\s*=\s*\&quot;[^\&quot;]*\b(?:eracom_tech\.jcprov|eracom_tech\.jcprov\.constants|eracom_tech\.jcprov\.params|eracom_tech\.jcprov\.params\.CK_SSL3_MASTER_KEY_DERIVE_PARAMS|eracom_tech\.jcprov\.constants\.CK_RSA_PKCS_OAEP_SOURCE_TYPE|eracom_tech\.jcprov\.params\.CK_KEY_DERIVATION_STRING_DATA|eracom_tech\.jcprov\.CK_C_INITIALIZE_ARGS\$CK_DESTROYMUTEX|eracom_tech\.jcprov\.CK_C_INITIALIZE_ARGS\$CK_CREATEMUTEX|eracom_tech\.jcprov\.CK_C_INITIALIZE_ARGS\$CK_UNLOCKMUTEX|eracom_tech\.jcprov\.params\.CK_PKCS12_PBE_IMPORT_PARAMS)\.)|(?:\b(?:eracom_tech\.jcprov|eracom_tech\.jcprov\.constants|eracom_tech\.jcprov\.params|eracom_tech\.jcprov\.params\.CK_SSL3_MASTER_KEY_DERIVE_PARAMS|eracom_tech\.jcprov\.constants\.CK_RSA_PKCS_OAEP_SOURCE_TYPE|eracom_tech\.jcprov\.params\.CK_KEY_DERIVATION_STRING_DATA|eracom_tech\.jcprov\.CK_C_INITIALIZE_ARGS\$CK_DESTROYMUTEX|eracom_tech\.jcprov\.CK_C_INITIALIZE_ARGS\$CK_CREATEMUTEX|eracom_tech\.jcprov\.CK_C_INITIALIZE_ARGS\$CK_UNLOCKMUTEX|eracom_tech\.jcprov\.params\.CK_PKCS12_PBE_IMPORT_PARAMS)\.[A-Za-z_$][\w$]*\b)"/>
+    <s v="Medium"/>
+    <s v="Crypto Providers"/>
+    <s v="Dual-runtime: upgrade crypto providers to Java-8-baseline releases and validate provider configuration on JDK 8 and JDK 21."/>
+    <s v="Upgrade"/>
+    <s v="Upgrade provider jars; validate provider order/FIPS/TLS."/>
+    <s v="Medium"/>
+    <n v="1"/>
+    <n v="183"/>
+    <n v="0"/>
+    <s v="NA"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="9"/>
+    <s v="NA"/>
+    <x v="5"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <s v="Dual-Crypto"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="133"/>
+    <s v="Set 3 - Third Party"/>
+    <s v="THIRD-PARTY (LOG4J jar)"/>
+    <s v="log4j-core-2.17.1.jar"/>
+    <s v="Third-party library present in application lib folder (exploded project)."/>
+    <s v="(?ms)(?:^\s*import\s+(?:static\s+)?(?:org\.apache\.logging\.log4j\.core)(?:\.[\w$]+|\.\*)\s*;)|(?:&lt;%@\s*page\b[^%]*\bimport\s*=\s*\&quot;[^\&quot;]*\b(?:org\.apache\.logging\.log4j\.core)\.)|(?:\b(?:org\.apache\.logging\.log4j\.core)\.[A-Za-z_$][\w$]*\b)"/>
+    <s v="Low"/>
+    <s v="Logging Backend"/>
+    <s v="Keep Log4j2; ensure api/core versions aligned and no Log4j 1.x remains."/>
+    <s v="No-Change/Align"/>
+    <s v="Validate consistent Log4j2 version and configuration."/>
+    <s v="Low"/>
+    <n v="0.25"/>
+    <n v="184"/>
+    <n v="0"/>
+    <s v="NA"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="9"/>
+    <s v="NA"/>
+    <x v="5"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <s v="Dual-Log4j2"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="134"/>
+    <s v="Set 3 - Third Party"/>
+    <s v="THIRD-PARTY (DB jar)"/>
+    <s v="odmg-3.0.jar"/>
+    <s v="Third-party library present in application lib folder (exploded project)."/>
+    <s v="(?ms)(?:^\s*import\s+(?:static\s+)?(?:org\.odmg|org\.odmg\.QueryParameterCountInvalidException|org\.odmg\.ClassNotPersistenceCapableException|org\.odmg\.QueryParameterTypeInvalidException|org\.odmg\.TransactionNotInProgressException|org\.odmg\.TransactionInProgressException|org\.odmg\.ObjectNameNotUniqueException|org\.odmg\.ObjectNotPersistentException|org\.odmg\.DatabaseIsReadOnlyException|org\.odmg\.TransactionAbortedException)(?:\.[\w$]+|\.\*)\s*;)|(?:&lt;%@\s*page\b[^%]*\bimport\s*=\s*\&quot;[^\&quot;]*\b(?:org\.odmg|org\.odmg\.QueryParameterCountInvalidException|org\.odmg\.ClassNotPersistenceCapableException|org\.odmg\.QueryParameterTypeInvalidException|org\.odmg\.TransactionNotInProgressException|org\.odmg\.TransactionInProgressException|org\.odmg\.ObjectNameNotUniqueException|org\.odmg\.ObjectNotPersistentException|org\.odmg\.DatabaseIsReadOnlyException|org\.odmg\.TransactionAbortedException)\.)|(?:\b(?:org\.odmg|org\.odmg\.QueryParameterCountInvalidException|org\.odmg\.ClassNotPersistenceCapableException|org\.odmg\.QueryParameterTypeInvalidException|org\.odmg\.TransactionNotInProgressException|org\.odmg\.TransactionInProgressException|org\.odmg\.ObjectNameNotUniqueException|org\.odmg\.ObjectNotPersistentException|org\.odmg\.DatabaseIsReadOnlyException|org\.odmg\.TransactionAbortedException)\.[A-Za-z_$][\w$]*\b)"/>
+    <s v="Medium"/>
+    <s v="Third-Party Dependencies"/>
+    <s v="Dual-runtime: manage this dependency in Maven/Gradle and upgrade to a maintained Java-8-baseline release; validate on JDK 8 and JDK 21."/>
+    <s v="Upgrade/Replace"/>
+    <s v="Replace exploded lib with build-managed dependency; choose a release that supports Java 8 and test on JDK 21."/>
+    <s v="Medium"/>
+    <n v="0.5"/>
+    <n v="185"/>
+    <n v="0"/>
+    <s v="NA"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="9"/>
+    <s v="NA"/>
+    <x v="5"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <s v="Dual-Review"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="135"/>
+    <s v="Set 3 - Third Party"/>
+    <s v="THIRD-PARTY (UPLOAD jar)"/>
+    <s v="oreilly_upload.jar"/>
+    <s v="Third-party library present in application lib folder (exploded project)."/>
+    <s v="(?ms)(?:^\s*import\s+(?:static\s+)?(?:com\.oreilly\.servlet|com\.oreilly\.servlet\.multipart|com\.oreilly\.servlet\.multipart\.MacBinaryDecoderOutputStream|com\.oreilly\.servlet\.multipart\.BufferedServletInputStream|com\.oreilly\.servlet\.multipart\.LimitedServletInputStream|com\.oreilly\.servlet\.multipart\.DefaultFileRenamePolicy|com\.oreilly\.servlet\.ParameterNotFoundException|com\.oreilly\.servlet\.multipart\.FileRenamePolicy|com\.oreilly\.servlet\.multipart\.PartInputStream|com\.oreilly\.servlet\.multipart\.MultipartParser)(?:\.[\w$]+|\.\*)\s*;)|(?:&lt;%@\s*page\b[^%]*\bimport\s*=\s*\&quot;[^\&quot;]*\b(?:com\.oreilly\.servlet|com\.oreilly\.servlet\.multipart|com\.oreilly\.servlet\.multipart\.MacBinaryDecoderOutputStream|com\.oreilly\.servlet\.multipart\.BufferedServletInputStream|com\.oreilly\.servlet\.multipart\.LimitedServletInputStream|com\.oreilly\.servlet\.multipart\.DefaultFileRenamePolicy|com\.oreilly\.servlet\.ParameterNotFoundException|com\.oreilly\.servlet\.multipart\.FileRenamePolicy|com\.oreilly\.servlet\.multipart\.PartInputStream|com\.oreilly\.servlet\.multipart\.MultipartParser)\.)|(?:\b(?:com\.oreilly\.servlet|com\.oreilly\.servlet\.multipart|com\.oreilly\.servlet\.multipart\.MacBinaryDecoderOutputStream|com\.oreilly\.servlet\.multipart\.BufferedServletInputStream|com\.oreilly\.servlet\.multipart\.LimitedServletInputStream|com\.oreilly\.servlet\.multipart\.DefaultFileRenamePolicy|com\.oreilly\.servlet\.ParameterNotFoundException|com\.oreilly\.servlet\.multipart\.FileRenamePolicy|com\.oreilly\.servlet\.multipart\.PartInputStream|com\.oreilly\.servlet\.multipart\.MultipartParser)\.[A-Za-z_$][\w$]*\b)"/>
+    <s v="Medium"/>
+    <s v="Third-Party Dependencies"/>
+    <s v="Dual-runtime: manage this dependency in Maven/Gradle and upgrade to a maintained Java-8-baseline release; validate on JDK 8 and JDK 21."/>
+    <s v="Upgrade/Replace"/>
+    <s v="Replace exploded lib with build-managed dependency; choose a release that supports Java 8 and test on JDK 21."/>
+    <s v="Medium"/>
+    <n v="0.5"/>
+    <n v="186"/>
+    <n v="0"/>
+    <s v="NA"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="9"/>
+    <s v="NA"/>
+    <x v="5"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <s v="Dual-Review"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="136"/>
+    <s v="Set 3 - Third Party"/>
+    <s v="THIRD-PARTY (POI jar)"/>
+    <s v="poi-ooxml-schemas-3.8-20120326.jar"/>
+    <s v="Third-party library present in application lib folder (exploded project)."/>
+    <s v="(?ms)(?:^\s*import\s+(?:static\s+)?(?:org\.openxmlformats\.schemas|org\.openxmlformats\.schemas\.drawingml\.x2006|org\.openxmlformats\.schemas\.spreadsheetml\.x2006|org\.openxmlformats\.schemas\.wordprocessingml\.x2006|org\.openxmlformats\.schemas\.presentationml\.x2006|org\.openxmlformats\.schemas\.officeDocument\.x2006|schemasMicrosoftComVml\.impl|schemasMicrosoftComOfficeOffice\.impl|schemasMicrosoftComOfficeExcel\.impl|schemaorg_apache_xmlbeans\.system\.sE130CAA0A01A7CDE5A2B4FEB8B311707\.TypeSystemHolder)(?:\.[\w$]+|\.\*)\s*;)|(?:&lt;%@\s*page\b[^%]*\bimport\s*=\s*\&quot;[^\&quot;]*\b(?:org\.openxmlformats\.schemas|org\.openxmlformats\.schemas\.drawingml\.x2006|org\.openxmlformats\.schemas\.spreadsheetml\.x2006|org\.openxmlformats\.schemas\.wordprocessingml\.x2006|org\.openxmlformats\.schemas\.presentationml\.x2006|org\.openxmlformats\.schemas\.officeDocument\.x2006|schemasMicrosoftComVml\.impl|schemasMicrosoftComOfficeOffice\.impl|schemasMicrosoftComOfficeExcel\.impl|schemaorg_apache_xmlbeans\.system\.sE130CAA0A01A7CDE5A2B4FEB8B311707\.TypeSystemHolder)\.)|(?:\b(?:org\.openxmlformats\.schemas|org\.openxmlformats\.schemas\.drawingml\.x2006|org\.openxmlformats\.schemas\.spreadsheetml\.x2006|org\.openxmlformats\.schemas\.wordprocessingml\.x2006|org\.openxmlformats\.schemas\.presentationml\.x2006|org\.openxmlformats\.schemas\.officeDocument\.x2006|schemasMicrosoftComVml\.impl|schemasMicrosoftComOfficeOffice\.impl|schemasMicrosoftComOfficeExcel\.impl|schemaorg_apache_xmlbeans\.system\.sE130CAA0A01A7CDE5A2B4FEB8B311707\.TypeSystemHolder)\.[A-Za-z_$][\w$]*\b)"/>
+    <s v="Medium"/>
+    <s v="Third-Party Dependencies"/>
+    <s v="Dual-runtime: manage this dependency in Maven/Gradle and upgrade to a maintained Java-8-baseline release; validate on JDK 8 and JDK 21."/>
+    <s v="Upgrade/Replace"/>
+    <s v="Replace exploded lib with build-managed dependency; choose a release that supports Java 8 and test on JDK 21."/>
+    <s v="Medium"/>
+    <n v="0.5"/>
+    <n v="187"/>
+    <n v="0"/>
+    <s v="NA"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="9"/>
+    <s v="NA"/>
+    <x v="5"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <s v="Dual-Review"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="137"/>
+    <s v="Set 3 - Third Party"/>
+    <s v="THIRD-PARTY (JNDI jar)"/>
+    <s v="providerutil.jar"/>
+    <s v="Third-party library present in application lib folder (exploded project)."/>
+    <m/>
+    <s v="Medium"/>
+    <s v="Crypto Providers"/>
+    <s v="Dual-runtime: upgrade crypto providers to Java-8-baseline releases and validate provider configuration on JDK 8 and JDK 21."/>
+    <s v="Upgrade"/>
+    <s v="Upgrade provider jars; validate provider order/FIPS/TLS."/>
+    <s v="Medium"/>
+    <n v="1"/>
+    <n v="188"/>
+    <n v="0"/>
+    <s v="NA"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="9"/>
+    <s v="NA"/>
+    <x v="5"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <s v="Dual-Crypto"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="138"/>
+    <s v="Set 3 - Third Party"/>
+    <s v="THIRD-PARTY (XML jar)"/>
+    <s v="saxpath.jar"/>
+    <s v="Third-party library present in application lib folder (exploded project)."/>
+    <s v="(?ms)(?:^\s*import\s+(?:static\s+)?(?:org\.saxpath|com\.werken\.saxpath|com\.werken\.saxpath\.DefaultXPathHandler\$Singleton|org\.saxpath\.conformance\.ConformanceXPathHandler|com\.werken\.saxpath\.DefaultXPathHandler|org\.saxpath\.helpers\.XPathReaderFactory|org\.saxpath\.SAXPathParseException|org\.saxpath\.XPathSyntaxException|com\.werken\.saxpath\.XPathReader|org\.saxpath\.SAXPathEventSource)(?:\.[\w$]+|\.\*)\s*;)|(?:&lt;%@\s*page\b[^%]*\bimport\s*=\s*\&quot;[^\&quot;]*\b(?:org\.saxpath|com\.werken\.saxpath|com\.werken\.saxpath\.DefaultXPathHandler\$Singleton|org\.saxpath\.conformance\.ConformanceXPathHandler|com\.werken\.saxpath\.DefaultXPathHandler|org\.saxpath\.helpers\.XPathReaderFactory|org\.saxpath\.SAXPathParseException|org\.saxpath\.XPathSyntaxException|com\.werken\.saxpath\.XPathReader|org\.saxpath\.SAXPathEventSource)\.)|(?:\b(?:org\.saxpath|com\.werken\.saxpath|com\.werken\.saxpath\.DefaultXPathHandler\$Singleton|org\.saxpath\.conformance\.ConformanceXPathHandler|com\.werken\.saxpath\.DefaultXPathHandler|org\.saxpath\.helpers\.XPathReaderFactory|org\.saxpath\.SAXPathParseException|org\.saxpath\.XPathSyntaxException|com\.werken\.saxpath\.XPathReader|org\.saxpath\.SAXPathEventSource)\.[A-Za-z_$][\w$]*\b)"/>
+    <s v="Medium"/>
+    <s v="Third-Party Dependencies"/>
+    <s v="Dual-runtime: manage this dependency in Maven/Gradle and upgrade to a maintained Java-8-baseline release; validate on JDK 8 and JDK 21."/>
+    <s v="Upgrade/Replace"/>
+    <s v="Replace exploded lib with build-managed dependency; choose a release that supports Java 8 and test on JDK 21."/>
+    <s v="Medium"/>
+    <n v="0.5"/>
+    <n v="189"/>
+    <n v="0"/>
+    <s v="NA"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="9"/>
+    <s v="NA"/>
+    <x v="5"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <s v="Dual-Review"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="139"/>
+    <s v="Set 3 - Third Party"/>
+    <s v="THIRD-PARTY (XML jar)"/>
+    <s v="serializer.jar"/>
+    <s v="Third-party library present in application lib folder (exploded project)."/>
+    <s v="(?ms)(?:^\s*import\s+(?:static\s+)?(?:org\.apache\.xml\.serializer|org\.apache\.xml\.serializer\.utils|org\.apache\.xml\.serializer\.dom3|org\.apache\.xml\.serializer\.ObjectFactory\$ConfigurationError|org\.apache\.xml\.serializer\.NamespaceMappings\$MappingRecord|org\.apache\.xml\.serializer\.ToStream\$WritertoStringBuffer|org\.apache\.xml\.serializer\.OutputPropertiesFactory\$1|org\.apache\.xml\.serializer\.EncodingInfo\$EncodingImpl|org\.apache\.xml\.serializer\.AttributesImplSerializer|org\.apache\.xml\.serializer\.NamespaceMappings\$Stack)(?:\.[\w$]+|\.\*)\s*;)|(?:&lt;%@\s*page\b[^%]*\bimport\s*=\s*\&quot;[^\&quot;]*\b(?:org\.apache\.xml\.serializer|org\.apache\.xml\.serializer\.utils|org\.apache\.xml\.serializer\.dom3|org\.apache\.xml\.serializer\.ObjectFactory\$ConfigurationError|org\.apache\.xml\.serializer\.NamespaceMappings\$MappingRecord|org\.apache\.xml\.serializer\.ToStream\$WritertoStringBuffer|org\.apache\.xml\.serializer\.OutputPropertiesFactory\$1|org\.apache\.xml\.serializer\.EncodingInfo\$EncodingImpl|org\.apache\.xml\.serializer\.AttributesImplSerializer|org\.apache\.xml\.serializer\.NamespaceMappings\$Stack)\.)|(?:\b(?:org\.apache\.xml\.serializer|org\.apache\.xml\.serializer\.utils|org\.apache\.xml\.serializer\.dom3|org\.apache\.xml\.serializer\.ObjectFactory\$ConfigurationError|org\.apache\.xml\.serializer\.NamespaceMappings\$MappingRecord|org\.apache\.xml\.serializer\.ToStream\$WritertoStringBuffer|org\.apache\.xml\.serializer\.OutputPropertiesFactory\$1|org\.apache\.xml\.serializer\.EncodingInfo\$EncodingImpl|org\.apache\.xml\.serializer\.AttributesImplSerializer|org\.apache\.xml\.serializer\.NamespaceMappings\$Stack)\.[A-Za-z_$][\w$]*\b)"/>
+    <s v="Medium"/>
+    <s v="XML Parser/XSLT"/>
+    <s v="Dual-runtime: remove/upgrade bundled legacy XML parser/XSLT jars; prefer JDK JAXP; validate on JDK 8 and JDK 21."/>
+    <s v="Replace/Remove"/>
+    <s v="Remove redundant jars unless required; upgrade if needed; re-test."/>
+    <s v="Medium"/>
+    <n v="1"/>
+    <n v="190"/>
+    <n v="0"/>
+    <s v="NA"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="9"/>
+    <s v="NA"/>
+    <x v="5"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <s v="Dual-XML-Align"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="140"/>
+    <s v="Set 3 - Third Party"/>
+    <s v="THIRD-PARTY (LOG4J jar)"/>
+    <s v="slf4j-api-1.7.30.jar"/>
+    <s v="Third-party library present in application lib folder (exploded project)."/>
+    <s v="(?ms)(?:^\s*import\s+(?:static\s+)?(?:org\.slf4j|org\.slf4j\.helpers|org\.slf4j\.event|org\.slf4j\.spi|org\.slf4j\.helpers\.Util\$ClassContextSecurityManager|org\.slf4j\.helpers\.SubstituteLoggerFactory|org\.slf4j\.event\.SubstituteLoggingEvent|org\.slf4j\.helpers\.BasicMarkerFactory|org\.slf4j\.helpers\.MarkerIgnoringBase|org\.slf4j\.event\.EventRecodingLogger)(?:\.[\w$]+|\.\*)\s*;)|(?:&lt;%@\s*page\b[^%]*\bimport\s*=\s*\&quot;[^\&quot;]*\b(?:org\.slf4j|org\.slf4j\.helpers|org\.slf4j\.event|org\.slf4j\.spi|org\.slf4j\.helpers\.Util\$ClassContextSecurityManager|org\.slf4j\.helpers\.SubstituteLoggerFactory|org\.slf4j\.event\.SubstituteLoggingEvent|org\.slf4j\.helpers\.BasicMarkerFactory|org\.slf4j\.helpers\.MarkerIgnoringBase|org\.slf4j\.event\.EventRecodingLogger)\.)|(?:\b(?:org\.slf4j|org\.slf4j\.helpers|org\.slf4j\.event|org\.slf4j\.spi|org\.slf4j\.helpers\.Util\$ClassContextSecurityManager|org\.slf4j\.helpers\.SubstituteLoggerFactory|org\.slf4j\.event\.SubstituteLoggingEvent|org\.slf4j\.helpers\.BasicMarkerFactory|org\.slf4j\.helpers\.MarkerIgnoringBase|org\.slf4j\.event\.EventRecodingLogger)\.[A-Za-z_$][\w$]*\b)"/>
+    <s v="Low"/>
+    <s v="Logging Facade"/>
+    <s v="Keep SLF4J API; ensure only one binding is present."/>
+    <s v="No-Change/Align"/>
+    <s v="Remove duplicate bindings; validate logging output."/>
+    <s v="Low"/>
+    <n v="0.25"/>
+    <n v="191"/>
+    <n v="0"/>
+    <s v="NA"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="9"/>
+    <s v="NA"/>
+    <x v="5"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <s v="Dual-SLF4J"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="141"/>
+    <s v="Set 3 - Third Party"/>
+    <s v="THIRD-PARTY (LOG4J jar)"/>
+    <s v="slf4j-simple-1.7.21.jar"/>
+    <s v="Third-party library present in application lib folder (exploded project)."/>
+    <s v="(?ms)(?:^\s*import\s+(?:static\s+)?(?:org\.slf4j\.impl|org\.slf4j\.impl\.SimpleLoggerFactory|org\.slf4j\.impl\.StaticLoggerBinder|org\.slf4j\.impl\.StaticMarkerBinder|org\.slf4j\.impl\.StaticMDCBinder|org\.slf4j\.impl\.SimpleLogger\$1|org\.slf4j\.impl\.SimpleLogger)(?:\.[\w$]+|\.\*)\s*;)|(?:&lt;%@\s*page\b[^%]*\bimport\s*=\s*\&quot;[^\&quot;]*\b(?:org\.slf4j\.impl|org\.slf4j\.impl\.SimpleLoggerFactory|org\.slf4j\.impl\.StaticLoggerBinder|org\.slf4j\.impl\.StaticMarkerBinder|org\.slf4j\.impl\.StaticMDCBinder|org\.slf4j\.impl\.SimpleLogger\$1|org\.slf4j\.impl\.SimpleLogger)\.)|(?:\b(?:org\.slf4j\.impl|org\.slf4j\.impl\.SimpleLoggerFactory|org\.slf4j\.impl\.StaticLoggerBinder|org\.slf4j\.impl\.StaticMarkerBinder|org\.slf4j\.impl\.StaticMDCBinder|org\.slf4j\.impl\.SimpleLogger\$1|org\.slf4j\.impl\.SimpleLogger)\.[A-Za-z_$][\w$]*\b)"/>
+    <s v="Low"/>
+    <s v="Logging Facade"/>
+    <s v="Keep SLF4J API; ensure only one binding is present."/>
+    <s v="No-Change/Align"/>
+    <s v="Remove duplicate bindings; validate logging output."/>
+    <s v="Low"/>
+    <n v="0.25"/>
+    <n v="192"/>
+    <n v="0"/>
+    <s v="NA"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="9"/>
+    <s v="NA"/>
+    <x v="5"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <s v="Dual-SLF4J"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="142"/>
+    <s v="Set 3 - Third Party"/>
+    <s v="THIRD-PARTY (SPRING jar)"/>
+    <s v="spring-aop.jar"/>
+    <s v="Third-party library present in application lib folder (exploded project)."/>
+    <s v="(?ms)(?:^\s*import\s+(?:static\s+)?(?:org\.springframework\.aop|org\.springframework\.aop\.aspectj|org\.springframework\.aop\.framework|org\.springframework\.aop\.support|org\.springframework\.aop\.aspectj\.annotation|org\.springframework\.aop\.interceptor|org\.springframework\.aop\.target|org\.springframework\.aop\.config|org\.springframework\.aop\.framework\.autoproxy|org\.springframework\.aop\.framework\.adapter)(?:\.[\w$]+|\.\*)\s*;)|(?:&lt;%@\s*page\b[^%]*\bimport\s*=\s*\&quot;[^\&quot;]*\b(?:org\.springframework\.aop|org\.springframework\.aop\.aspectj|org\.springframework\.aop\.framework|org\.springframework\.aop\.support|org\.springframework\.aop\.aspectj\.annotation|org\.springframework\.aop\.interceptor|org\.springframework\.aop\.target|org\.springframework\.aop\.config|org\.springframework\.aop\.framework\.autoproxy|org\.springframework\.aop\.framework\.adapter)\.)|(?:\b(?:org\.springframework\.aop|org\.springframework\.aop\.aspectj|org\.springframework\.aop\.framework|org\.springframework\.aop\.support|org\.springframework\.aop\.aspectj\.annotation|org\.springframework\.aop\.interceptor|org\.springframework\.aop\.target|org\.springframework\.aop\.config|org\.springframework\.aop\.framework\.autoproxy|org\.springframework\.aop\.framework\.adapter)\.[A-Za-z_$][\w$]*\b)"/>
+    <s v="Medium"/>
+    <s v="Framework Old Version"/>
+    <s v="Dual-runtime: move to Spring Framework 5.3.x line (Java 8 baseline) via Maven/Gradle BOM; avoid Spring 6/Jakarta-only."/>
+    <s v="Upgrade"/>
+    <s v="Adopt dependency management; upgrade Spring to 5.3.x; re-test on both runtimes."/>
+    <s v="Medium"/>
+    <n v="2"/>
+    <n v="193"/>
+    <n v="0"/>
+    <s v="NA"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="9"/>
+    <s v="NA"/>
+    <x v="5"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <s v="Dual-Spring53"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="143"/>
+    <s v="Set 3 - Third Party"/>
+    <s v="THIRD-PARTY (SPRING jar)"/>
+    <s v="spring-expression.jar"/>
+    <s v="Third-party library present in application lib folder (exploded project)."/>
+    <s v="(?ms)(?:^\s*import\s+(?:static\s+)?(?:org\.springframework\.expression|org\.springframework\.expression\.spel|org\.springframework\.expression\.spel\.ast|org\.springframework\.expression\.spel\.support|org\.springframework\.expression\.spel\.standard|org\.springframework\.expression\.common|org\.springframework\.expression\.common\.TemplateAwareExpressionParser\$Bracket|org\.springframework\.expression\.common\.TemplateAwareExpressionParser\$1|org\.springframework\.expression\.common\.TemplateAwareExpressionParser|org\.springframework\.expression\.ExpressionInvocationTargetException)(?:\.[\w$]+|\.\*)\s*;)|(?:&lt;%@\s*page\b[^%]*\bimport\s*=\s*\&quot;[^\&quot;]*\b(?:org\.springframework\.expression|org\.springframework\.expression\.spel|org\.springframework\.expression\.spel\.ast|org\.springframework\.expression\.spel\.support|org\.springframework\.expression\.spel\.standard|org\.springframework\.expression\.common|org\.springframework\.expression\.common\.TemplateAwareExpressionParser\$Bracket|org\.springframework\.expression\.common\.TemplateAwareExpressionParser\$1|org\.springframework\.expression\.common\.TemplateAwareExpressionParser|org\.springframework\.expression\.ExpressionInvocationTargetException)\.)|(?:\b(?:org\.springframework\.expression|org\.springframework\.expression\.spel|org\.springframework\.expression\.spel\.ast|org\.springframework\.expression\.spel\.support|org\.springframework\.expression\.spel\.standard|org\.springframework\.expression\.common|org\.springframework\.expression\.common\.TemplateAwareExpressionParser\$Bracket|org\.springframework\.expression\.common\.TemplateAwareExpressionParser\$1|org\.springframework\.expression\.common\.TemplateAwareExpressionParser|org\.springframework\.expression\.ExpressionInvocationTargetException)\.[A-Za-z_$][\w$]*\b)"/>
+    <s v="Medium"/>
+    <s v="Framework Old Version"/>
+    <s v="Dual-runtime: move to Spring Framework 5.3.x line (Java 8 baseline) via Maven/Gradle BOM; avoid Spring 6/Jakarta-only."/>
+    <s v="Upgrade"/>
+    <s v="Adopt dependency management; upgrade Spring to 5.3.x; re-test on both runtimes."/>
+    <s v="Medium"/>
+    <n v="2"/>
+    <n v="194"/>
+    <n v="0"/>
+    <s v="NA"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="9"/>
+    <s v="NA"/>
+    <x v="5"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <s v="Dual-Spring53"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="144"/>
+    <s v="Set 3 - Third Party"/>
+    <s v="THIRD-PARTY (SPRING jar)"/>
+    <s v="spring-webmvc.jar"/>
+    <s v="Third-party library present in application lib folder (exploded project)."/>
+    <s v="(?ms)(?:^\s*import\s+(?:static\s+)?(?:org\.springframework\.web\.servlet|org\.springframework\.web\.servlet\.mvc|org\.springframework\.web\.servlet\.view|org\.springframework\.web\.servlet\.tags|org\.springframework\.web\.servlet\.resource|org\.springframework\.web\.servlet\.config|org\.springframework\.web\.servlet\.handler|org\.springframework\.web\.servlet\.support|org\.springframework\.web\.servlet\.i18n|org\.springframework\.web\.servlet\.theme)(?:\.[\w$]+|\.\*)\s*;)|(?:&lt;%@\s*page\b[^%]*\bimport\s*=\s*\&quot;[^\&quot;]*\b(?:org\.springframework\.web\.servlet|org\.springframework\.web\.servlet\.mvc|org\.springframework\.web\.servlet\.view|org\.springframework\.web\.servlet\.tags|org\.springframework\.web\.servlet\.resource|org\.springframework\.web\.servlet\.config|org\.springframework\.web\.servlet\.handler|org\.springframework\.web\.servlet\.support|org\.springframework\.web\.servlet\.i18n|org\.springframework\.web\.servlet\.theme)\.)|(?:\b(?:org\.springframework\.web\.servlet|org\.springframework\.web\.servlet\.mvc|org\.springframework\.web\.servlet\.view|org\.springframework\.web\.servlet\.tags|org\.springframework\.web\.servlet\.resource|org\.springframework\.web\.servlet\.config|org\.springframework\.web\.servlet\.handler|org\.springframework\.web\.servlet\.support|org\.springframework\.web\.servlet\.i18n|org\.springframework\.web\.servlet\.theme)\.[A-Za-z_$][\w$]*\b)"/>
+    <s v="Medium"/>
+    <s v="Framework Old Version"/>
+    <s v="Dual-runtime: move to Spring Framework 5.3.x line (Java 8 baseline) via Maven/Gradle BOM; avoid Spring 6/Jakarta-only."/>
+    <s v="Upgrade"/>
+    <s v="Adopt dependency management; upgrade Spring to 5.3.x; re-test on both runtimes."/>
+    <s v="Medium"/>
+    <n v="2"/>
+    <n v="195"/>
+    <n v="0"/>
+    <s v="NA"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="9"/>
+    <s v="NA"/>
+    <x v="5"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <s v="Dual-Spring53"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="145"/>
+    <s v="Set 3 - Third Party"/>
+    <s v="THIRD-PARTY (JSTL jar)"/>
+    <s v="standard-1.0.6-taglibs-standard-1.0.7.jar"/>
+    <s v="Third-party library present in application lib folder (exploded project)."/>
+    <s v="(?ms)(?:^\s*import\s+(?:static\s+)?(?:org\.apache\.taglibs\.standard|org\.apache\.taglibs\.standard\.lang|org\.apache\.taglibs\.standard\.tag|org\.apache\.taglibs\.standard\.extra|org\.apache\.taglibs\.standard\.tlv|org\.apache\.taglibs\.standard\.tei|org\.apache\.taglibs\.standard\.resources|org\.apache\.taglibs\.standard\.Version)(?:\.[\w$]+|\.\*)\s*;)|(?:&lt;%@\s*page\b[^%]*\bimport\s*=\s*\&quot;[^\&quot;]*\b(?:org\.apache\.taglibs\.standard|org\.apache\.taglibs\.standard\.lang|org\.apache\.taglibs\.standard\.tag|org\.apache\.taglibs\.standard\.extra|org\.apache\.taglibs\.standard\.tlv|org\.apache\.taglibs\.standard\.tei|org\.apache\.taglibs\.standard\.resources|org\.apache\.taglibs\.standard\.Version)\.)|(?:\b(?:org\.apache\.taglibs\.standard|org\.apache\.taglibs\.standard\.lang|org\.apache\.taglibs\.standard\.tag|org\.apache\.taglibs\.standard\.extra|org\.apache\.taglibs\.standard\.tlv|org\.apache\.taglibs\.standard\.tei|org\.apache\.taglibs\.standard\.resources|org\.apache\.taglibs\.standard\.Version)\.[A-Za-z_$][\w$]*\b)"/>
+    <s v="Medium"/>
+    <s v="Third-Party Dependencies"/>
+    <s v="Dual-runtime: manage this dependency in Maven/Gradle and upgrade to a maintained Java-8-baseline release; validate on JDK 8 and JDK 21."/>
+    <s v="Upgrade/Replace"/>
+    <s v="Replace exploded lib with build-managed dependency; choose a release that supports Java 8 and test on JDK 21."/>
+    <s v="Medium"/>
+    <n v="0.5"/>
+    <n v="196"/>
+    <n v="0"/>
+    <s v="NA"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="9"/>
+    <s v="NA"/>
+    <x v="5"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <s v="Dual-Review"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="146"/>
+    <s v="Set 3 - Third Party"/>
+    <s v="THIRD-PARTY (STRUTS NES jar)"/>
+    <s v="struts-el.jar"/>
+    <s v="Third-party library present in application lib folder (exploded project)."/>
+    <s v="(?ms)(?:^\s*import\s+(?:static\s+)?(?:org\.apache\.strutsel\.taglib|org\.apache\.strutsel\.taglib\.html|org\.apache\.strutsel\.taglib\.logic|org\.apache\.strutsel\.taglib\.bean|org\.apache\.strutsel\.taglib\.utils)(?:\.[\w$]+|\.\*)\s*;)|(?:&lt;%@\s*page\b[^%]*\bimport\s*=\s*\&quot;[^\&quot;]*\b(?:org\.apache\.strutsel\.taglib|org\.apache\.strutsel\.taglib\.html|org\.apache\.strutsel\.taglib\.logic|org\.apache\.strutsel\.taglib\.bean|org\.apache\.strutsel\.taglib\.utils)\.)|(?:\b(?:org\.apache\.strutsel\.taglib|org\.apache\.strutsel\.taglib\.html|org\.apache\.strutsel\.taglib\.logic|org\.apache\.strutsel\.taglib\.bean|org\.apache\.strutsel\.taglib\.utils)\.[A-Za-z_$][\w$]*\b)"/>
+    <s v="High"/>
+    <s v="Framework EOL"/>
+    <s v="Struts 1.x is obsolete; dual-runtime goal requires migrating away from Struts 1 (e.g., Spring MVC on javax.* container) or another maintained framework."/>
+    <s v="Rewrite"/>
+    <s v="Framework migration required; large code/config changes; regression testing on both runtimes."/>
+    <s v="High"/>
+    <n v="5"/>
+    <n v="197"/>
+    <n v="0"/>
+    <s v="NA"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="9"/>
+    <s v="NA"/>
+    <x v="5"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <s v="Dual-FrameworkMigration"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="147"/>
+    <s v="Set 3 - Third Party"/>
+    <s v="THIRD-PARTY (STRUTS NES jar)"/>
+    <s v="struts-legacy.jar"/>
+    <s v="Third-party library present in application lib folder (exploded project)."/>
+    <s v="(?ms)(?:^\s*import\s+(?:static\s+)?(?:org\.apache\.struts\.legacy|org\.apache\.struts\.legacy\.GenericConnection|org\.apache\.struts\.legacy\.GenericDataSource)(?:\.[\w$]+|\.\*)\s*;)|(?:&lt;%@\s*page\b[^%]*\bimport\s*=\s*\&quot;[^\&quot;]*\b(?:org\.apache\.struts\.legacy|org\.apache\.struts\.legacy\.GenericConnection|org\.apache\.struts\.legacy\.GenericDataSource)\.)|(?:\b(?:org\.apache\.struts\.legacy|org\.apache\.struts\.legacy\.GenericConnection|org\.apache\.struts\.legacy\.GenericDataSource)\.[A-Za-z_$][\w$]*\b)"/>
+    <s v="High"/>
+    <s v="Framework EOL"/>
+    <s v="Struts 1.x is obsolete; dual-runtime goal requires migrating away from Struts 1 (e.g., Spring MVC on javax.* container) or another maintained framework."/>
+    <s v="Rewrite"/>
+    <s v="Framework migration required; large code/config changes; regression testing on both runtimes."/>
+    <s v="High"/>
+    <n v="5"/>
+    <n v="198"/>
+    <n v="0"/>
+    <s v="NA"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="9"/>
+    <s v="NA"/>
+    <x v="5"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <s v="Dual-FrameworkMigration"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="148"/>
+    <s v="Set 3 - Third Party"/>
+    <s v="THIRD-PARTY (XML jar)"/>
+    <s v="xml-apis.jar"/>
+    <s v="Third-party library present in application lib folder (exploded project)."/>
+    <s v="(?ms)(?:^\s*import\s+(?:static\s+)?(?:org\.apache\.xmlcommons\.Version)(?:\.[\w$]+|\.\*)\s*;)|(?:&lt;%@\s*page\b[^%]*\bimport\s*=\s*\&quot;[^\&quot;]*\b(?:org\.apache\.xmlcommons\.Version)\.)|(?:\b(?:org\.apache\.xmlcommons\.Version)\.[A-Za-z_$][\w$]*\b)"/>
+    <s v="Medium"/>
+    <s v="XML Parser/XSLT"/>
+    <s v="Dual-runtime: remove/upgrade bundled legacy XML parser/XSLT jars; prefer JDK JAXP; validate on JDK 8 and JDK 21."/>
+    <s v="Replace/Remove"/>
+    <s v="Remove redundant jars unless required; upgrade if needed; re-test."/>
+    <s v="Medium"/>
+    <n v="1"/>
+    <n v="199"/>
+    <n v="0"/>
+    <s v="NA"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="9"/>
+    <s v="NA"/>
+    <x v="5"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <s v="Dual-XML-Align"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="149"/>
+    <s v="Set 3 - Third Party"/>
+    <s v="THIRD-PARTY (XML jar)"/>
+    <s v="xmlbeans-2.3.0.jar"/>
+    <s v="Third-party library present in application lib folder (exploded project)."/>
+    <s v="(?ms)(?:^\s*import\s+(?:static\s+)?(?:org\.apache\.xmlbeans|org\.apache\.xmlbeans\.impl|org\.apache\.xmlbeans\.impl\.xb|org\.apache\.xmlbeans\.impl\.store|org\.apache\.xmlbeans\.impl\.values|org\.apache\.xmlbeans\.impl\.jam|org\.apache\.xmlbeans\.impl\.common|org\.apache\.xmlbeans\.impl\.schema|org\.apache\.xmlbeans\.impl\.piccolo|org\.apache\.xmlbeans\.impl\.tool)(?:\.[\w$]+|\.\*)\s*;)|(?:&lt;%@\s*page\b[^%]*\bimport\s*=\s*\&quot;[^\&quot;]*\b(?:org\.apache\.xmlbeans|org\.apache\.xmlbeans\.impl|org\.apache\.xmlbeans\.impl\.xb|org\.apache\.xmlbeans\.impl\.store|org\.apache\.xmlbeans\.impl\.values|org\.apache\.xmlbeans\.impl\.jam|org\.apache\.xmlbeans\.impl\.common|org\.apache\.xmlbeans\.impl\.schema|org\.apache\.xmlbeans\.impl\.piccolo|org\.apache\.xmlbeans\.impl\.tool)\.)|(?:\b(?:org\.apache\.xmlbeans|org\.apache\.xmlbeans\.impl|org\.apache\.xmlbeans\.impl\.xb|org\.apache\.xmlbeans\.impl\.store|org\.apache\.xmlbeans\.impl\.values|org\.apache\.xmlbeans\.impl\.jam|org\.apache\.xmlbeans\.impl\.common|org\.apache\.xmlbeans\.impl\.schema|org\.apache\.xmlbeans\.impl\.piccolo|org\.apache\.xmlbeans\.impl\.tool)\.[A-Za-z_$][\w$]*\b)"/>
+    <s v="Medium"/>
+    <s v="Third-Party Dependencies"/>
+    <s v="Dual-runtime: manage this dependency in Maven/Gradle and upgrade to a maintained Java-8-baseline release; validate on JDK 8 and JDK 21."/>
+    <s v="Upgrade/Replace"/>
+    <s v="Replace exploded lib with build-managed dependency; choose a release that supports Java 8 and test on JDK 21."/>
+    <s v="Medium"/>
+    <n v="0.5"/>
+    <n v="200"/>
+    <n v="0"/>
+    <s v="NA"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="9"/>
+    <s v="NA"/>
+    <x v="5"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <s v="Dual-Review"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <s v="NA"/>
+    <n v="0"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{22247EB4-E0C6-42EE-A3F0-AFC828A7496A}" name="PivotTable1" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:H26" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="29">
+    <pivotField dataField="1" showAll="0">
+      <items count="151">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="99"/>
+        <item x="100"/>
+        <item x="101"/>
+        <item x="102"/>
+        <item x="103"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="104"/>
+        <item x="5"/>
+        <item x="105"/>
+        <item x="106"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="107"/>
+        <item x="13"/>
+        <item x="108"/>
+        <item x="109"/>
+        <item x="110"/>
+        <item x="14"/>
+        <item x="111"/>
+        <item x="112"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="113"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="114"/>
+        <item x="115"/>
+        <item x="19"/>
+        <item x="116"/>
+        <item x="117"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="118"/>
+        <item x="23"/>
+        <item x="119"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="120"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="121"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="122"/>
+        <item x="123"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="124"/>
+        <item x="125"/>
+        <item x="46"/>
+        <item x="126"/>
+        <item x="47"/>
+        <item x="127"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="128"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="129"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="130"/>
+        <item x="131"/>
+        <item x="65"/>
+        <item x="132"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="133"/>
+        <item x="76"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="134"/>
+        <item x="79"/>
+        <item x="80"/>
+        <item x="135"/>
+        <item x="81"/>
+        <item x="82"/>
+        <item x="136"/>
+        <item x="137"/>
+        <item x="83"/>
+        <item x="138"/>
+        <item x="139"/>
+        <item x="140"/>
+        <item x="141"/>
+        <item x="142"/>
+        <item x="84"/>
+        <item x="85"/>
+        <item x="86"/>
+        <item x="143"/>
+        <item x="87"/>
+        <item x="144"/>
+        <item x="88"/>
+        <item x="89"/>
+        <item x="145"/>
+        <item x="146"/>
+        <item x="147"/>
+        <item x="90"/>
+        <item x="91"/>
+        <item x="92"/>
+        <item x="93"/>
+        <item x="94"/>
+        <item x="95"/>
+        <item x="148"/>
+        <item x="149"/>
+        <item x="96"/>
+        <item x="97"/>
+        <item x="98"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="2"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="11">
+        <item x="4"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="5"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="6"/>
+        <item x="9"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="7">
+        <item x="2"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="3">
+    <field x="16"/>
+    <field x="17"/>
+    <field x="18"/>
+  </rowFields>
+  <rowItems count="22">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x v="3"/>
+    </i>
+    <i r="2">
+      <x v="4"/>
+    </i>
+    <i r="2">
+      <x v="5"/>
+    </i>
+    <i r="2">
+      <x v="6"/>
+    </i>
+    <i r="2">
+      <x v="7"/>
+    </i>
+    <i r="2">
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x v="3"/>
+    </i>
+    <i r="2">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="9"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="20"/>
+  </colFields>
+  <colItems count="7">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of PATTERNID" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="9">
+    <format dxfId="8">
+      <pivotArea field="16" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="7">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="20" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="6">
+      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="5">
+      <pivotArea field="16" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="4">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="20" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="3">
+      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="2">
+      <pivotArea field="16" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="1">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="20" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="0">
+      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3372,10 +8751,458 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAD1DE46-6AEC-4935-A873-3D030772C24D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0E4D0CF-CB2C-41F4-91C5-D24FF707AADC}">
+  <dimension ref="A3:H26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="O23" sqref="O23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="8" width="20.140625" customWidth="1"/>
+    <col min="9" max="32" width="3" bestFit="1" customWidth="1"/>
+    <col min="33" max="151" width="4" bestFit="1" customWidth="1"/>
+    <col min="152" max="152" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>834</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="7" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>831</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>665</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="5">
+        <v>5</v>
+      </c>
+      <c r="F5" s="5">
+        <v>48</v>
+      </c>
+      <c r="G5" s="5">
+        <v>19</v>
+      </c>
+      <c r="H5" s="5">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5">
+        <v>1</v>
+      </c>
+      <c r="E6" s="5">
+        <v>5</v>
+      </c>
+      <c r="F6" s="5">
+        <v>48</v>
+      </c>
+      <c r="G6" s="5">
+        <v>19</v>
+      </c>
+      <c r="H6" s="5">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5">
+        <v>2</v>
+      </c>
+      <c r="H7" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5">
+        <v>3</v>
+      </c>
+      <c r="H8" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5">
+        <v>3</v>
+      </c>
+      <c r="H9" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5">
+        <v>2</v>
+      </c>
+      <c r="H10" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5">
+        <v>7</v>
+      </c>
+      <c r="H11" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5">
+        <v>2</v>
+      </c>
+      <c r="H12" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5">
+        <v>9</v>
+      </c>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5">
+        <v>1</v>
+      </c>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5">
+        <v>1</v>
+      </c>
+      <c r="E15" s="5">
+        <v>5</v>
+      </c>
+      <c r="F15" s="5">
+        <v>38</v>
+      </c>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B16" s="5">
+        <v>4</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5">
+        <v>13</v>
+      </c>
+      <c r="E16" s="5">
+        <v>9</v>
+      </c>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B17" s="5">
+        <v>4</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5">
+        <v>13</v>
+      </c>
+      <c r="E17" s="5">
+        <v>9</v>
+      </c>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5">
+        <v>2</v>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5">
+        <v>1</v>
+      </c>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5">
+        <v>2</v>
+      </c>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5">
+        <v>3</v>
+      </c>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" s="5">
+        <v>4</v>
+      </c>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5">
+        <v>5</v>
+      </c>
+      <c r="E22" s="5">
+        <v>9</v>
+      </c>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5">
+        <v>51</v>
+      </c>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5">
+        <v>51</v>
+      </c>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>665</v>
+      </c>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5">
+        <v>51</v>
+      </c>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>832</v>
+      </c>
+      <c r="B26" s="5">
+        <v>4</v>
+      </c>
+      <c r="C26" s="5">
+        <v>51</v>
+      </c>
+      <c r="D26" s="5">
+        <v>14</v>
+      </c>
+      <c r="E26" s="5">
+        <v>14</v>
+      </c>
+      <c r="F26" s="5">
+        <v>48</v>
+      </c>
+      <c r="G26" s="5">
+        <v>19</v>
+      </c>
+      <c r="H26" s="5">
+        <v>150</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58AB962E-A9CF-44D7-80AD-344D57ECBB59}">
   <dimension ref="A1:AC151"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -16810,6 +22637,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AC151" xr:uid="{58AB962E-A9CF-44D7-80AD-344D57ECBB59}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>